--- a/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>201900</v>
+        <v>232100</v>
       </c>
       <c r="E8" s="3">
-        <v>359400</v>
+        <v>196900</v>
       </c>
       <c r="F8" s="3">
-        <v>160500</v>
+        <v>350600</v>
       </c>
       <c r="G8" s="3">
-        <v>190400</v>
+        <v>156600</v>
       </c>
       <c r="H8" s="3">
-        <v>140200</v>
+        <v>185700</v>
       </c>
       <c r="I8" s="3">
-        <v>69100</v>
+        <v>136800</v>
       </c>
       <c r="J8" s="3">
+        <v>67400</v>
+      </c>
+      <c r="K8" s="3">
         <v>33900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>71200</v>
+        <v>70500</v>
       </c>
       <c r="E9" s="3">
-        <v>91900</v>
+        <v>69400</v>
       </c>
       <c r="F9" s="3">
-        <v>40100</v>
+        <v>89700</v>
       </c>
       <c r="G9" s="3">
-        <v>29200</v>
+        <v>39100</v>
       </c>
       <c r="H9" s="3">
-        <v>22100</v>
+        <v>28500</v>
       </c>
       <c r="I9" s="3">
-        <v>11800</v>
+        <v>21500</v>
       </c>
       <c r="J9" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K9" s="3">
         <v>9200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>130700</v>
+        <v>161600</v>
       </c>
       <c r="E10" s="3">
-        <v>267500</v>
+        <v>127500</v>
       </c>
       <c r="F10" s="3">
-        <v>120500</v>
+        <v>260900</v>
       </c>
       <c r="G10" s="3">
-        <v>161200</v>
+        <v>117500</v>
       </c>
       <c r="H10" s="3">
-        <v>118200</v>
+        <v>157200</v>
       </c>
       <c r="I10" s="3">
-        <v>57300</v>
+        <v>115300</v>
       </c>
       <c r="J10" s="3">
+        <v>55900</v>
+      </c>
+      <c r="K10" s="3">
         <v>24700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>30700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,43 +893,44 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>37500</v>
+        <v>40300</v>
       </c>
       <c r="E12" s="3">
-        <v>54000</v>
+        <v>36600</v>
       </c>
       <c r="F12" s="3">
-        <v>22300</v>
+        <v>52700</v>
       </c>
       <c r="G12" s="3">
-        <v>18200</v>
+        <v>21700</v>
       </c>
       <c r="H12" s="3">
-        <v>11500</v>
+        <v>17800</v>
       </c>
       <c r="I12" s="3">
-        <v>6200</v>
+        <v>11200</v>
       </c>
       <c r="J12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K12" s="3">
         <v>2800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
-      </c>
-      <c r="N12" s="3">
-        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -925,8 +938,11 @@
       <c r="P12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,25 +985,28 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
+      <c r="D14" s="3">
+        <v>-1100</v>
       </c>
       <c r="E14" s="3">
-        <v>-100</v>
+        <v>-1600</v>
       </c>
       <c r="F14" s="3">
-        <v>-100</v>
+        <v>-1500</v>
       </c>
       <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>16</v>
+      <c r="H14" s="3">
+        <v>-100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>16</v>
@@ -995,8 +1014,8 @@
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>330900</v>
+        <v>309900</v>
       </c>
       <c r="E17" s="3">
-        <v>541300</v>
+        <v>322800</v>
       </c>
       <c r="F17" s="3">
-        <v>260500</v>
+        <v>528000</v>
       </c>
       <c r="G17" s="3">
-        <v>250100</v>
+        <v>254100</v>
       </c>
       <c r="H17" s="3">
-        <v>289900</v>
+        <v>244000</v>
       </c>
       <c r="I17" s="3">
-        <v>100600</v>
+        <v>282800</v>
       </c>
       <c r="J17" s="3">
+        <v>98100</v>
+      </c>
+      <c r="K17" s="3">
         <v>77300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>45600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-129100</v>
+        <v>-77800</v>
       </c>
       <c r="E18" s="3">
-        <v>-181900</v>
+        <v>-125900</v>
       </c>
       <c r="F18" s="3">
-        <v>-100000</v>
+        <v>-177500</v>
       </c>
       <c r="G18" s="3">
-        <v>-59700</v>
+        <v>-97500</v>
       </c>
       <c r="H18" s="3">
-        <v>-149700</v>
+        <v>-58300</v>
       </c>
       <c r="I18" s="3">
-        <v>-31500</v>
+        <v>-146000</v>
       </c>
       <c r="J18" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-43400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1187,23 +1220,23 @@
         <v>1500</v>
       </c>
       <c r="E20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1222,8 +1255,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1239,35 +1275,38 @@
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-30200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="H21" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>-8100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>-2400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,69 +1349,75 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-127600</v>
+        <v>-76200</v>
       </c>
       <c r="E23" s="3">
-        <v>-179500</v>
+        <v>-124400</v>
       </c>
       <c r="F23" s="3">
-        <v>-98800</v>
+        <v>-175000</v>
       </c>
       <c r="G23" s="3">
-        <v>-57200</v>
+        <v>-96400</v>
       </c>
       <c r="H23" s="3">
-        <v>-148300</v>
+        <v>-55800</v>
       </c>
       <c r="I23" s="3">
-        <v>-30400</v>
+        <v>-144600</v>
       </c>
       <c r="J23" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-43400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-100</v>
       </c>
       <c r="G24" s="3">
         <v>-100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-127500</v>
+        <v>-77200</v>
       </c>
       <c r="E26" s="3">
-        <v>-179300</v>
+        <v>-124300</v>
       </c>
       <c r="F26" s="3">
-        <v>-98700</v>
+        <v>-174900</v>
       </c>
       <c r="G26" s="3">
-        <v>-57100</v>
+        <v>-96300</v>
       </c>
       <c r="H26" s="3">
-        <v>-148300</v>
+        <v>-55700</v>
       </c>
       <c r="I26" s="3">
-        <v>-30400</v>
+        <v>-144600</v>
       </c>
       <c r="J26" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-43400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-128000</v>
+        <v>-78800</v>
       </c>
       <c r="E27" s="3">
-        <v>-180000</v>
+        <v>-124800</v>
       </c>
       <c r="F27" s="3">
-        <v>-99000</v>
+        <v>-175600</v>
       </c>
       <c r="G27" s="3">
-        <v>-57200</v>
+        <v>-96600</v>
       </c>
       <c r="H27" s="3">
-        <v>-151400</v>
+        <v>-55800</v>
       </c>
       <c r="I27" s="3">
-        <v>-36700</v>
+        <v>-147700</v>
       </c>
       <c r="J27" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-45800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,23 +1784,23 @@
         <v>-1500</v>
       </c>
       <c r="E32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1750,52 +1819,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-128000</v>
+        <v>-78800</v>
       </c>
       <c r="E33" s="3">
-        <v>-180000</v>
+        <v>-124800</v>
       </c>
       <c r="F33" s="3">
-        <v>-99000</v>
+        <v>-175600</v>
       </c>
       <c r="G33" s="3">
-        <v>-57200</v>
+        <v>-96600</v>
       </c>
       <c r="H33" s="3">
-        <v>-151400</v>
+        <v>-55800</v>
       </c>
       <c r="I33" s="3">
-        <v>-36700</v>
+        <v>-147700</v>
       </c>
       <c r="J33" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-45800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-128000</v>
+        <v>-78800</v>
       </c>
       <c r="E35" s="3">
-        <v>-180000</v>
+        <v>-124800</v>
       </c>
       <c r="F35" s="3">
-        <v>-99000</v>
+        <v>-175600</v>
       </c>
       <c r="G35" s="3">
-        <v>-57200</v>
+        <v>-96600</v>
       </c>
       <c r="H35" s="3">
-        <v>-151400</v>
+        <v>-55800</v>
       </c>
       <c r="I35" s="3">
-        <v>-36700</v>
+        <v>-147700</v>
       </c>
       <c r="J35" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-45800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,31 +2052,32 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>75400</v>
+        <v>48700</v>
       </c>
       <c r="E41" s="3">
-        <v>301800</v>
+        <v>73500</v>
       </c>
       <c r="F41" s="3">
-        <v>194800</v>
+        <v>294400</v>
       </c>
       <c r="G41" s="3">
-        <v>313700</v>
+        <v>190100</v>
       </c>
       <c r="H41" s="3">
-        <v>333600</v>
+        <v>306000</v>
       </c>
       <c r="I41" s="3">
-        <v>253400</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>16</v>
+        <v>325400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>247200</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>16</v>
@@ -2011,31 +2097,34 @@
       <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>228800</v>
+        <v>178700</v>
       </c>
       <c r="E42" s="3">
-        <v>26400</v>
+        <v>223200</v>
       </c>
       <c r="F42" s="3">
-        <v>40200</v>
+        <v>25800</v>
       </c>
       <c r="G42" s="3">
-        <v>16600</v>
+        <v>39200</v>
       </c>
       <c r="H42" s="3">
-        <v>21700</v>
+        <v>16200</v>
       </c>
       <c r="I42" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>16</v>
+        <v>21200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1400</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>16</v>
@@ -2055,31 +2144,34 @@
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>45100</v>
+        <v>112700</v>
       </c>
       <c r="E43" s="3">
-        <v>58900</v>
+        <v>69000</v>
       </c>
       <c r="F43" s="3">
-        <v>38000</v>
+        <v>72000</v>
       </c>
       <c r="G43" s="3">
-        <v>32200</v>
+        <v>39200</v>
       </c>
       <c r="H43" s="3">
-        <v>6200</v>
+        <v>31400</v>
       </c>
       <c r="I43" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>16</v>
+        <v>6000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5500</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>16</v>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,31 +2238,34 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>60000</v>
+        <v>36800</v>
       </c>
       <c r="E45" s="3">
-        <v>35400</v>
+        <v>33500</v>
       </c>
       <c r="F45" s="3">
-        <v>18400</v>
+        <v>19900</v>
       </c>
       <c r="G45" s="3">
-        <v>14300</v>
+        <v>15800</v>
       </c>
       <c r="H45" s="3">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="I45" s="3">
-        <v>8200</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>16</v>
+        <v>26300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>8000</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>16</v>
@@ -2187,31 +2285,34 @@
       <c r="P45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>409300</v>
+        <v>376800</v>
       </c>
       <c r="E46" s="3">
-        <v>422500</v>
+        <v>399200</v>
       </c>
       <c r="F46" s="3">
-        <v>291400</v>
+        <v>412100</v>
       </c>
       <c r="G46" s="3">
-        <v>376800</v>
+        <v>284300</v>
       </c>
       <c r="H46" s="3">
-        <v>388500</v>
+        <v>367500</v>
       </c>
       <c r="I46" s="3">
-        <v>268700</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>16</v>
+        <v>379000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>262200</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>16</v>
@@ -2231,23 +2332,26 @@
       <c r="P46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="E47" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="F47" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G47" s="3">
         <v>700</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2257,8 +2361,8 @@
       <c r="J47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2275,32 +2379,35 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="E48" s="3">
-        <v>15900</v>
+        <v>19000</v>
       </c>
       <c r="F48" s="3">
-        <v>11200</v>
+        <v>15500</v>
       </c>
       <c r="G48" s="3">
-        <v>2000</v>
+        <v>10900</v>
       </c>
       <c r="H48" s="3">
-        <v>8700</v>
+        <v>1900</v>
       </c>
       <c r="I48" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J48" s="3">
         <v>1200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2319,31 +2426,34 @@
       <c r="P48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F49" s="3">
         <v>13900</v>
       </c>
-      <c r="E49" s="3">
-        <v>14300</v>
-      </c>
-      <c r="F49" s="3">
-        <v>14300</v>
-      </c>
       <c r="G49" s="3">
-        <v>14600</v>
+        <v>13900</v>
       </c>
       <c r="H49" s="3">
-        <v>1000</v>
+        <v>14200</v>
       </c>
       <c r="I49" s="3">
         <v>1000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>16</v>
+      <c r="J49" s="3">
+        <v>1000</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>16</v>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2465,17 +2584,17 @@
       <c r="F52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="3">
-        <v>7700</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>16</v>
+      <c r="I52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="3">
+        <v>7500</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>16</v>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,31 +2661,34 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>447800</v>
+        <v>411500</v>
       </c>
       <c r="E54" s="3">
-        <v>457300</v>
+        <v>436800</v>
       </c>
       <c r="F54" s="3">
-        <v>317600</v>
+        <v>446100</v>
       </c>
       <c r="G54" s="3">
-        <v>394900</v>
+        <v>309800</v>
       </c>
       <c r="H54" s="3">
-        <v>398300</v>
+        <v>385200</v>
       </c>
       <c r="I54" s="3">
-        <v>278800</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>16</v>
+        <v>388500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>271900</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>16</v>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,31 +2748,32 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>41000</v>
+        <v>45900</v>
       </c>
       <c r="E57" s="3">
-        <v>37500</v>
+        <v>40000</v>
       </c>
       <c r="F57" s="3">
-        <v>23000</v>
+        <v>36600</v>
       </c>
       <c r="G57" s="3">
-        <v>18800</v>
+        <v>22500</v>
       </c>
       <c r="H57" s="3">
-        <v>13000</v>
+        <v>18400</v>
       </c>
       <c r="I57" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>16</v>
+        <v>12600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3100</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>16</v>
@@ -2663,8 +2793,11 @@
       <c r="P57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,31 +2840,34 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>183900</v>
+        <v>216600</v>
       </c>
       <c r="E59" s="3">
-        <v>154500</v>
+        <v>179300</v>
       </c>
       <c r="F59" s="3">
-        <v>146700</v>
+        <v>150700</v>
       </c>
       <c r="G59" s="3">
-        <v>140600</v>
+        <v>143100</v>
       </c>
       <c r="H59" s="3">
-        <v>115500</v>
+        <v>137100</v>
       </c>
       <c r="I59" s="3">
-        <v>75000</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>16</v>
+        <v>112700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>73100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>16</v>
@@ -2751,31 +2887,34 @@
       <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>224800</v>
+        <v>262500</v>
       </c>
       <c r="E60" s="3">
-        <v>192000</v>
+        <v>219300</v>
       </c>
       <c r="F60" s="3">
-        <v>169700</v>
+        <v>187300</v>
       </c>
       <c r="G60" s="3">
-        <v>159400</v>
+        <v>165600</v>
       </c>
       <c r="H60" s="3">
-        <v>128500</v>
+        <v>155500</v>
       </c>
       <c r="I60" s="3">
-        <v>78200</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>16</v>
+        <v>125300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>76300</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>16</v>
@@ -2795,19 +2934,22 @@
       <c r="P60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>176000</v>
+        <v>170600</v>
       </c>
       <c r="E61" s="3">
-        <v>168500</v>
+        <v>171700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>164400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2839,25 +2981,28 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9200</v>
+        <v>7700</v>
       </c>
       <c r="E62" s="3">
-        <v>8200</v>
+        <v>9000</v>
       </c>
       <c r="F62" s="3">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="G62" s="3">
-        <v>4800</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>16</v>
+        <v>7300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>4700</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>16</v>
@@ -2874,8 +3019,8 @@
       <c r="M62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,31 +3169,34 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>480000</v>
+        <v>509700</v>
       </c>
       <c r="E66" s="3">
-        <v>387000</v>
+        <v>468200</v>
       </c>
       <c r="F66" s="3">
-        <v>194500</v>
+        <v>377500</v>
       </c>
       <c r="G66" s="3">
-        <v>177600</v>
+        <v>189800</v>
       </c>
       <c r="H66" s="3">
-        <v>128100</v>
+        <v>173300</v>
       </c>
       <c r="I66" s="3">
-        <v>78200</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>16</v>
+        <v>124900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>76300</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>16</v>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3186,10 +3353,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>273600</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>266900</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,31 +3423,34 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-616900</v>
+        <v>-680600</v>
       </c>
       <c r="E72" s="3">
-        <v>-489000</v>
+        <v>-601800</v>
       </c>
       <c r="F72" s="3">
-        <v>-408000</v>
+        <v>-477000</v>
       </c>
       <c r="G72" s="3">
-        <v>-308900</v>
+        <v>-398000</v>
       </c>
       <c r="H72" s="3">
-        <v>-251800</v>
+        <v>-301400</v>
       </c>
       <c r="I72" s="3">
-        <v>-100400</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>16</v>
+        <v>-245600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-97900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>16</v>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,31 +3611,34 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-32200</v>
+        <v>-98200</v>
       </c>
       <c r="E76" s="3">
-        <v>70300</v>
+        <v>-31500</v>
       </c>
       <c r="F76" s="3">
-        <v>123100</v>
+        <v>68600</v>
       </c>
       <c r="G76" s="3">
-        <v>217300</v>
+        <v>120000</v>
       </c>
       <c r="H76" s="3">
-        <v>270200</v>
+        <v>212000</v>
       </c>
       <c r="I76" s="3">
-        <v>-73100</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>16</v>
+        <v>263600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-71300</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>16</v>
@@ -3473,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-128000</v>
+        <v>-78800</v>
       </c>
       <c r="E81" s="3">
-        <v>-180000</v>
+        <v>-124800</v>
       </c>
       <c r="F81" s="3">
-        <v>-99000</v>
+        <v>-175600</v>
       </c>
       <c r="G81" s="3">
-        <v>-57200</v>
+        <v>-96600</v>
       </c>
       <c r="H81" s="3">
-        <v>-151400</v>
+        <v>-55800</v>
       </c>
       <c r="I81" s="3">
-        <v>-36700</v>
+        <v>-147700</v>
       </c>
       <c r="J81" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-45800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>QTT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>232100</v>
+        <v>205000</v>
       </c>
       <c r="E8" s="3">
-        <v>196900</v>
+        <v>240800</v>
       </c>
       <c r="F8" s="3">
-        <v>350600</v>
+        <v>204300</v>
       </c>
       <c r="G8" s="3">
-        <v>156600</v>
+        <v>363800</v>
       </c>
       <c r="H8" s="3">
-        <v>185700</v>
+        <v>162500</v>
       </c>
       <c r="I8" s="3">
-        <v>136800</v>
+        <v>192700</v>
       </c>
       <c r="J8" s="3">
+        <v>141900</v>
+      </c>
+      <c r="K8" s="3">
         <v>67400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>37400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>70500</v>
+        <v>66900</v>
       </c>
       <c r="E9" s="3">
-        <v>69400</v>
+        <v>73200</v>
       </c>
       <c r="F9" s="3">
-        <v>89700</v>
+        <v>72000</v>
       </c>
       <c r="G9" s="3">
-        <v>39100</v>
+        <v>93000</v>
       </c>
       <c r="H9" s="3">
-        <v>28500</v>
+        <v>40500</v>
       </c>
       <c r="I9" s="3">
-        <v>21500</v>
+        <v>29600</v>
       </c>
       <c r="J9" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K9" s="3">
         <v>11500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>161600</v>
+        <v>138100</v>
       </c>
       <c r="E10" s="3">
-        <v>127500</v>
+        <v>167700</v>
       </c>
       <c r="F10" s="3">
-        <v>260900</v>
+        <v>132300</v>
       </c>
       <c r="G10" s="3">
-        <v>117500</v>
+        <v>270700</v>
       </c>
       <c r="H10" s="3">
-        <v>157200</v>
+        <v>121900</v>
       </c>
       <c r="I10" s="3">
-        <v>115300</v>
+        <v>163100</v>
       </c>
       <c r="J10" s="3">
+        <v>119600</v>
+      </c>
+      <c r="K10" s="3">
         <v>55900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>30700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,46 +907,47 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>40300</v>
+        <v>40800</v>
       </c>
       <c r="E12" s="3">
-        <v>36600</v>
+        <v>41800</v>
       </c>
       <c r="F12" s="3">
-        <v>52700</v>
+        <v>38000</v>
       </c>
       <c r="G12" s="3">
-        <v>21700</v>
+        <v>54700</v>
       </c>
       <c r="H12" s="3">
-        <v>17800</v>
+        <v>22600</v>
       </c>
       <c r="I12" s="3">
-        <v>11200</v>
+        <v>18400</v>
       </c>
       <c r="J12" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K12" s="3">
         <v>6000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>300</v>
-      </c>
-      <c r="O12" s="3">
-        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,28 +1005,31 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1600</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-100</v>
       </c>
       <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>16</v>
+      <c r="I14" s="3">
+        <v>-100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>16</v>
@@ -1017,8 +1037,8 @@
       <c r="K14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>309900</v>
+        <v>278300</v>
       </c>
       <c r="E17" s="3">
-        <v>322800</v>
+        <v>321600</v>
       </c>
       <c r="F17" s="3">
-        <v>528000</v>
+        <v>334900</v>
       </c>
       <c r="G17" s="3">
-        <v>254100</v>
+        <v>547900</v>
       </c>
       <c r="H17" s="3">
-        <v>244000</v>
+        <v>263700</v>
       </c>
       <c r="I17" s="3">
-        <v>282800</v>
+        <v>253200</v>
       </c>
       <c r="J17" s="3">
+        <v>293500</v>
+      </c>
+      <c r="K17" s="3">
         <v>98100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>77300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>45600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-77800</v>
+        <v>-73300</v>
       </c>
       <c r="E18" s="3">
-        <v>-125900</v>
+        <v>-80700</v>
       </c>
       <c r="F18" s="3">
-        <v>-177500</v>
+        <v>-130600</v>
       </c>
       <c r="G18" s="3">
-        <v>-97500</v>
+        <v>-184200</v>
       </c>
       <c r="H18" s="3">
-        <v>-58300</v>
+        <v>-101200</v>
       </c>
       <c r="I18" s="3">
-        <v>-146000</v>
+        <v>-60500</v>
       </c>
       <c r="J18" s="3">
+        <v>-151500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-30700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-43400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1211,35 +1244,36 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2400</v>
-      </c>
       <c r="G20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1258,8 +1292,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1275,38 +1312,41 @@
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="3">
-        <v>-54900</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3">
         <v>-29400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
         <v>-8100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>-2400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,75 +1392,81 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-76200</v>
+        <v>-77100</v>
       </c>
       <c r="E23" s="3">
-        <v>-124400</v>
+        <v>-79100</v>
       </c>
       <c r="F23" s="3">
-        <v>-175000</v>
+        <v>-129100</v>
       </c>
       <c r="G23" s="3">
-        <v>-96400</v>
+        <v>-181600</v>
       </c>
       <c r="H23" s="3">
-        <v>-55800</v>
+        <v>-100000</v>
       </c>
       <c r="I23" s="3">
-        <v>-144600</v>
+        <v>-57900</v>
       </c>
       <c r="J23" s="3">
+        <v>-150100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-29600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-43400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-100</v>
       </c>
       <c r="H24" s="3">
         <v>-100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1542,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1502,93 +1554,99 @@
         <v>-77200</v>
       </c>
       <c r="E26" s="3">
-        <v>-124300</v>
+        <v>-80100</v>
       </c>
       <c r="F26" s="3">
-        <v>-174900</v>
+        <v>-129000</v>
       </c>
       <c r="G26" s="3">
-        <v>-96300</v>
+        <v>-181500</v>
       </c>
       <c r="H26" s="3">
-        <v>-55700</v>
+        <v>-99900</v>
       </c>
       <c r="I26" s="3">
-        <v>-144600</v>
+        <v>-57800</v>
       </c>
       <c r="J26" s="3">
+        <v>-150100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-29600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-43400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-78800</v>
+        <v>-78900</v>
       </c>
       <c r="E27" s="3">
-        <v>-124800</v>
+        <v>-81700</v>
       </c>
       <c r="F27" s="3">
-        <v>-175600</v>
+        <v>-129500</v>
       </c>
       <c r="G27" s="3">
-        <v>-96600</v>
+        <v>-182200</v>
       </c>
       <c r="H27" s="3">
-        <v>-55800</v>
+        <v>-100300</v>
       </c>
       <c r="I27" s="3">
-        <v>-147700</v>
+        <v>-57900</v>
       </c>
       <c r="J27" s="3">
+        <v>-153200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-35800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-45800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,35 +1842,38 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-2400</v>
-      </c>
       <c r="G32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1822,55 +1892,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-78800</v>
+        <v>-78900</v>
       </c>
       <c r="E33" s="3">
-        <v>-124800</v>
+        <v>-81700</v>
       </c>
       <c r="F33" s="3">
-        <v>-175600</v>
+        <v>-129500</v>
       </c>
       <c r="G33" s="3">
-        <v>-96600</v>
+        <v>-182200</v>
       </c>
       <c r="H33" s="3">
-        <v>-55800</v>
+        <v>-100300</v>
       </c>
       <c r="I33" s="3">
-        <v>-147700</v>
+        <v>-57900</v>
       </c>
       <c r="J33" s="3">
+        <v>-153200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-35800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-45800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-78800</v>
+        <v>-78900</v>
       </c>
       <c r="E35" s="3">
-        <v>-124800</v>
+        <v>-81700</v>
       </c>
       <c r="F35" s="3">
-        <v>-175600</v>
+        <v>-129500</v>
       </c>
       <c r="G35" s="3">
-        <v>-96600</v>
+        <v>-182200</v>
       </c>
       <c r="H35" s="3">
-        <v>-55800</v>
+        <v>-100300</v>
       </c>
       <c r="I35" s="3">
-        <v>-147700</v>
+        <v>-57900</v>
       </c>
       <c r="J35" s="3">
+        <v>-153200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-35800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-45800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,35 +2139,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>48700</v>
+        <v>27600</v>
       </c>
       <c r="E41" s="3">
-        <v>73500</v>
+        <v>50500</v>
       </c>
       <c r="F41" s="3">
-        <v>294400</v>
+        <v>76300</v>
       </c>
       <c r="G41" s="3">
-        <v>190100</v>
+        <v>305500</v>
       </c>
       <c r="H41" s="3">
-        <v>306000</v>
+        <v>197200</v>
       </c>
       <c r="I41" s="3">
-        <v>325400</v>
+        <v>317500</v>
       </c>
       <c r="J41" s="3">
+        <v>337700</v>
+      </c>
+      <c r="K41" s="3">
         <v>247200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2100,35 +2187,38 @@
       <c r="Q41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>178700</v>
+        <v>136300</v>
       </c>
       <c r="E42" s="3">
-        <v>223200</v>
+        <v>185400</v>
       </c>
       <c r="F42" s="3">
-        <v>25800</v>
+        <v>231600</v>
       </c>
       <c r="G42" s="3">
-        <v>39200</v>
+        <v>26700</v>
       </c>
       <c r="H42" s="3">
-        <v>16200</v>
+        <v>40700</v>
       </c>
       <c r="I42" s="3">
-        <v>21200</v>
+        <v>16800</v>
       </c>
       <c r="J42" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K42" s="3">
         <v>1400</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2147,35 +2237,38 @@
       <c r="Q42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>112700</v>
+        <v>123800</v>
       </c>
       <c r="E43" s="3">
-        <v>69000</v>
+        <v>116900</v>
       </c>
       <c r="F43" s="3">
-        <v>72000</v>
+        <v>71600</v>
       </c>
       <c r="G43" s="3">
-        <v>39200</v>
+        <v>74700</v>
       </c>
       <c r="H43" s="3">
-        <v>31400</v>
+        <v>40600</v>
       </c>
       <c r="I43" s="3">
-        <v>6000</v>
+        <v>32600</v>
       </c>
       <c r="J43" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K43" s="3">
         <v>5500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,35 +2337,38 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36800</v>
+        <v>27600</v>
       </c>
       <c r="E45" s="3">
-        <v>33500</v>
+        <v>38100</v>
       </c>
       <c r="F45" s="3">
-        <v>19900</v>
+        <v>34800</v>
       </c>
       <c r="G45" s="3">
-        <v>15800</v>
+        <v>20700</v>
       </c>
       <c r="H45" s="3">
-        <v>14000</v>
+        <v>16400</v>
       </c>
       <c r="I45" s="3">
-        <v>26300</v>
+        <v>14500</v>
       </c>
       <c r="J45" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K45" s="3">
         <v>8000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2288,35 +2387,38 @@
       <c r="Q45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>376800</v>
+        <v>315200</v>
       </c>
       <c r="E46" s="3">
-        <v>399200</v>
+        <v>391000</v>
       </c>
       <c r="F46" s="3">
-        <v>412100</v>
+        <v>414300</v>
       </c>
       <c r="G46" s="3">
-        <v>284300</v>
+        <v>427600</v>
       </c>
       <c r="H46" s="3">
-        <v>367500</v>
+        <v>295000</v>
       </c>
       <c r="I46" s="3">
-        <v>379000</v>
+        <v>381400</v>
       </c>
       <c r="J46" s="3">
+        <v>393300</v>
+      </c>
+      <c r="K46" s="3">
         <v>262200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2335,26 +2437,29 @@
       <c r="Q46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5300</v>
+        <v>18200</v>
       </c>
       <c r="E47" s="3">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="F47" s="3">
-        <v>4500</v>
+        <v>5200</v>
       </c>
       <c r="G47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H47" s="3">
         <v>700</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2364,8 +2469,8 @@
       <c r="K47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2382,35 +2487,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16000</v>
+        <v>13800</v>
       </c>
       <c r="E48" s="3">
-        <v>19000</v>
+        <v>16600</v>
       </c>
       <c r="F48" s="3">
-        <v>15500</v>
+        <v>19700</v>
       </c>
       <c r="G48" s="3">
-        <v>10900</v>
+        <v>16100</v>
       </c>
       <c r="H48" s="3">
-        <v>1900</v>
+        <v>11300</v>
       </c>
       <c r="I48" s="3">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="J48" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2429,35 +2537,38 @@
       <c r="Q48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="E49" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="F49" s="3">
-        <v>13900</v>
+        <v>14100</v>
       </c>
       <c r="G49" s="3">
-        <v>13900</v>
+        <v>14500</v>
       </c>
       <c r="H49" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="I49" s="3">
+        <v>14800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1000</v>
       </c>
-      <c r="J49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2587,18 +2707,18 @@
       <c r="G52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="3">
         <v>1500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="3">
         <v>7500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,35 +2787,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>411500</v>
+        <v>360700</v>
       </c>
       <c r="E54" s="3">
-        <v>436800</v>
+        <v>427000</v>
       </c>
       <c r="F54" s="3">
-        <v>446100</v>
+        <v>453200</v>
       </c>
       <c r="G54" s="3">
-        <v>309800</v>
+        <v>462900</v>
       </c>
       <c r="H54" s="3">
-        <v>385200</v>
+        <v>321500</v>
       </c>
       <c r="I54" s="3">
-        <v>388500</v>
+        <v>399700</v>
       </c>
       <c r="J54" s="3">
+        <v>403100</v>
+      </c>
+      <c r="K54" s="3">
         <v>271900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,35 +2879,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>45900</v>
+        <v>60000</v>
       </c>
       <c r="E57" s="3">
-        <v>40000</v>
+        <v>47700</v>
       </c>
       <c r="F57" s="3">
-        <v>36600</v>
+        <v>41500</v>
       </c>
       <c r="G57" s="3">
-        <v>22500</v>
+        <v>38000</v>
       </c>
       <c r="H57" s="3">
-        <v>18400</v>
+        <v>23300</v>
       </c>
       <c r="I57" s="3">
-        <v>12600</v>
+        <v>19100</v>
       </c>
       <c r="J57" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,35 +2977,38 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>216600</v>
+        <v>202100</v>
       </c>
       <c r="E59" s="3">
-        <v>179300</v>
+        <v>224700</v>
       </c>
       <c r="F59" s="3">
-        <v>150700</v>
+        <v>186100</v>
       </c>
       <c r="G59" s="3">
-        <v>143100</v>
+        <v>156400</v>
       </c>
       <c r="H59" s="3">
-        <v>137100</v>
+        <v>148500</v>
       </c>
       <c r="I59" s="3">
-        <v>112700</v>
+        <v>142300</v>
       </c>
       <c r="J59" s="3">
+        <v>116900</v>
+      </c>
+      <c r="K59" s="3">
         <v>73100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2890,35 +3027,38 @@
       <c r="Q59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>262500</v>
+        <v>262200</v>
       </c>
       <c r="E60" s="3">
-        <v>219300</v>
+        <v>272400</v>
       </c>
       <c r="F60" s="3">
-        <v>187300</v>
+        <v>227600</v>
       </c>
       <c r="G60" s="3">
-        <v>165600</v>
+        <v>194400</v>
       </c>
       <c r="H60" s="3">
-        <v>155500</v>
+        <v>171800</v>
       </c>
       <c r="I60" s="3">
-        <v>125300</v>
+        <v>161300</v>
       </c>
       <c r="J60" s="3">
+        <v>130000</v>
+      </c>
+      <c r="K60" s="3">
         <v>76300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2937,23 +3077,26 @@
       <c r="Q60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>181100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>177000</v>
+      </c>
+      <c r="F61" s="3">
+        <v>178100</v>
+      </c>
+      <c r="G61" s="3">
         <v>170600</v>
       </c>
-      <c r="E61" s="3">
-        <v>171700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>164400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2984,28 +3127,31 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7700</v>
+        <v>6500</v>
       </c>
       <c r="E62" s="3">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="F62" s="3">
-        <v>8000</v>
+        <v>9300</v>
       </c>
       <c r="G62" s="3">
-        <v>7300</v>
+        <v>8300</v>
       </c>
       <c r="H62" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>16</v>
+        <v>7600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>4800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>16</v>
@@ -3022,8 +3168,8 @@
       <c r="N62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,35 +3327,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>509700</v>
+        <v>524000</v>
       </c>
       <c r="E66" s="3">
-        <v>468200</v>
+        <v>528900</v>
       </c>
       <c r="F66" s="3">
-        <v>377500</v>
+        <v>485900</v>
       </c>
       <c r="G66" s="3">
-        <v>189800</v>
+        <v>391700</v>
       </c>
       <c r="H66" s="3">
-        <v>173300</v>
+        <v>196900</v>
       </c>
       <c r="I66" s="3">
-        <v>124900</v>
+        <v>179800</v>
       </c>
       <c r="J66" s="3">
+        <v>129600</v>
+      </c>
+      <c r="K66" s="3">
         <v>76300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3356,11 +3524,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>266900</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,35 +3597,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-680600</v>
+        <v>-786100</v>
       </c>
       <c r="E72" s="3">
-        <v>-601800</v>
+        <v>-706200</v>
       </c>
       <c r="F72" s="3">
-        <v>-477000</v>
+        <v>-624400</v>
       </c>
       <c r="G72" s="3">
-        <v>-398000</v>
+        <v>-494900</v>
       </c>
       <c r="H72" s="3">
-        <v>-301400</v>
+        <v>-413000</v>
       </c>
       <c r="I72" s="3">
-        <v>-245600</v>
+        <v>-312700</v>
       </c>
       <c r="J72" s="3">
+        <v>-254800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-97900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,35 +3797,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-98200</v>
+        <v>-163300</v>
       </c>
       <c r="E76" s="3">
-        <v>-31500</v>
+        <v>-101900</v>
       </c>
       <c r="F76" s="3">
-        <v>68600</v>
+        <v>-32600</v>
       </c>
       <c r="G76" s="3">
-        <v>120000</v>
+        <v>71100</v>
       </c>
       <c r="H76" s="3">
-        <v>212000</v>
+        <v>124600</v>
       </c>
       <c r="I76" s="3">
-        <v>263600</v>
+        <v>220000</v>
       </c>
       <c r="J76" s="3">
+        <v>273500</v>
+      </c>
+      <c r="K76" s="3">
         <v>-71300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-78800</v>
+        <v>-78900</v>
       </c>
       <c r="E81" s="3">
-        <v>-124800</v>
+        <v>-81700</v>
       </c>
       <c r="F81" s="3">
-        <v>-175600</v>
+        <v>-129500</v>
       </c>
       <c r="G81" s="3">
-        <v>-96600</v>
+        <v>-182200</v>
       </c>
       <c r="H81" s="3">
-        <v>-55800</v>
+        <v>-100300</v>
       </c>
       <c r="I81" s="3">
-        <v>-147700</v>
+        <v>-57900</v>
       </c>
       <c r="J81" s="3">
+        <v>-153200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-35800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-45800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>QTT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>205000</v>
+        <v>219200</v>
       </c>
       <c r="E8" s="3">
-        <v>240800</v>
+        <v>214800</v>
       </c>
       <c r="F8" s="3">
-        <v>204300</v>
+        <v>252300</v>
       </c>
       <c r="G8" s="3">
-        <v>363800</v>
+        <v>214000</v>
       </c>
       <c r="H8" s="3">
-        <v>162500</v>
+        <v>210800</v>
       </c>
       <c r="I8" s="3">
-        <v>192700</v>
+        <v>170200</v>
       </c>
       <c r="J8" s="3">
+        <v>201900</v>
+      </c>
+      <c r="K8" s="3">
         <v>141900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>67400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>37400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>23400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>66900</v>
+        <v>60900</v>
       </c>
       <c r="E9" s="3">
-        <v>73200</v>
+        <v>70100</v>
       </c>
       <c r="F9" s="3">
-        <v>72000</v>
+        <v>76700</v>
       </c>
       <c r="G9" s="3">
-        <v>93000</v>
+        <v>75500</v>
       </c>
       <c r="H9" s="3">
-        <v>40500</v>
+        <v>55000</v>
       </c>
       <c r="I9" s="3">
-        <v>29600</v>
+        <v>42500</v>
       </c>
       <c r="J9" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K9" s="3">
         <v>22300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>138100</v>
+        <v>158300</v>
       </c>
       <c r="E10" s="3">
-        <v>167700</v>
+        <v>144700</v>
       </c>
       <c r="F10" s="3">
-        <v>132300</v>
+        <v>175600</v>
       </c>
       <c r="G10" s="3">
-        <v>270700</v>
+        <v>138600</v>
       </c>
       <c r="H10" s="3">
-        <v>121900</v>
+        <v>155800</v>
       </c>
       <c r="I10" s="3">
-        <v>163100</v>
+        <v>127700</v>
       </c>
       <c r="J10" s="3">
+        <v>170900</v>
+      </c>
+      <c r="K10" s="3">
         <v>119600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>55900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>30700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>20300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,49 +921,50 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>40800</v>
+        <v>34100</v>
       </c>
       <c r="E12" s="3">
-        <v>41800</v>
+        <v>42700</v>
       </c>
       <c r="F12" s="3">
-        <v>38000</v>
+        <v>43800</v>
       </c>
       <c r="G12" s="3">
-        <v>54700</v>
+        <v>39800</v>
       </c>
       <c r="H12" s="3">
-        <v>22600</v>
+        <v>33700</v>
       </c>
       <c r="I12" s="3">
-        <v>18400</v>
+        <v>23600</v>
       </c>
       <c r="J12" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K12" s="3">
         <v>11700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
-      </c>
-      <c r="P12" s="3">
-        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
@@ -958,8 +972,11 @@
       <c r="R12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,31 +1025,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-1000</v>
+        <v>-3800</v>
       </c>
       <c r="E14" s="3">
         <v>-1100</v>
       </c>
       <c r="F14" s="3">
-        <v>-1700</v>
+        <v>-1200</v>
       </c>
       <c r="G14" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1600</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-100</v>
       </c>
       <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>16</v>
+      <c r="J14" s="3">
+        <v>-100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>16</v>
@@ -1040,8 +1060,8 @@
       <c r="L14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>278300</v>
+        <v>248000</v>
       </c>
       <c r="E17" s="3">
-        <v>321600</v>
+        <v>291500</v>
       </c>
       <c r="F17" s="3">
-        <v>334900</v>
+        <v>336800</v>
       </c>
       <c r="G17" s="3">
-        <v>547900</v>
+        <v>350800</v>
       </c>
       <c r="H17" s="3">
-        <v>263700</v>
+        <v>297700</v>
       </c>
       <c r="I17" s="3">
-        <v>253200</v>
+        <v>276200</v>
       </c>
       <c r="J17" s="3">
+        <v>265200</v>
+      </c>
+      <c r="K17" s="3">
         <v>293500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>98100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>77300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>45600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-73300</v>
+        <v>-28800</v>
       </c>
       <c r="E18" s="3">
-        <v>-80700</v>
+        <v>-76800</v>
       </c>
       <c r="F18" s="3">
-        <v>-130600</v>
+        <v>-84500</v>
       </c>
       <c r="G18" s="3">
-        <v>-184200</v>
+        <v>-136800</v>
       </c>
       <c r="H18" s="3">
-        <v>-101200</v>
+        <v>-86900</v>
       </c>
       <c r="I18" s="3">
-        <v>-60500</v>
+        <v>-106000</v>
       </c>
       <c r="J18" s="3">
+        <v>-63300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-151500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-30700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-43400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,38 +1278,39 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-3800</v>
+        <v>-4900</v>
       </c>
       <c r="E20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2500</v>
-      </c>
       <c r="H20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
-        <v>2600</v>
-      </c>
       <c r="J20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1315,38 +1352,41 @@
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="3">
-        <v>-57000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>-29400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>-8100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3">
         <v>-2400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,72 +1435,78 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-77100</v>
+        <v>-33700</v>
       </c>
       <c r="E23" s="3">
-        <v>-79100</v>
+        <v>-80700</v>
       </c>
       <c r="F23" s="3">
-        <v>-129100</v>
+        <v>-82900</v>
       </c>
       <c r="G23" s="3">
-        <v>-181600</v>
+        <v>-135200</v>
       </c>
       <c r="H23" s="3">
-        <v>-100000</v>
+        <v>-85500</v>
       </c>
       <c r="I23" s="3">
-        <v>-57900</v>
+        <v>-104800</v>
       </c>
       <c r="J23" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-150100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-29600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-43400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-200</v>
       </c>
       <c r="H24" s="3">
         <v>-100</v>
@@ -1469,7 +1515,7 @@
         <v>-100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-77200</v>
+        <v>-33800</v>
       </c>
       <c r="E26" s="3">
-        <v>-80100</v>
+        <v>-80900</v>
       </c>
       <c r="F26" s="3">
-        <v>-129000</v>
+        <v>-83900</v>
       </c>
       <c r="G26" s="3">
-        <v>-181500</v>
+        <v>-135100</v>
       </c>
       <c r="H26" s="3">
-        <v>-99900</v>
+        <v>-85400</v>
       </c>
       <c r="I26" s="3">
-        <v>-57800</v>
+        <v>-104700</v>
       </c>
       <c r="J26" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-150100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-29600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-43400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-78900</v>
+        <v>-35600</v>
       </c>
       <c r="E27" s="3">
-        <v>-81700</v>
+        <v>-82700</v>
       </c>
       <c r="F27" s="3">
-        <v>-129500</v>
+        <v>-85600</v>
       </c>
       <c r="G27" s="3">
-        <v>-182200</v>
+        <v>-135700</v>
       </c>
       <c r="H27" s="3">
-        <v>-100300</v>
+        <v>-85800</v>
       </c>
       <c r="I27" s="3">
-        <v>-57900</v>
+        <v>-105000</v>
       </c>
       <c r="J27" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-153200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-35800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-45800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,38 +1912,41 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3800</v>
+        <v>4900</v>
       </c>
       <c r="E32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-2500</v>
-      </c>
       <c r="H32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
-        <v>-2600</v>
-      </c>
       <c r="J32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-78900</v>
+        <v>-35600</v>
       </c>
       <c r="E33" s="3">
-        <v>-81700</v>
+        <v>-82700</v>
       </c>
       <c r="F33" s="3">
-        <v>-129500</v>
+        <v>-85600</v>
       </c>
       <c r="G33" s="3">
-        <v>-182200</v>
+        <v>-135700</v>
       </c>
       <c r="H33" s="3">
-        <v>-100300</v>
+        <v>-85800</v>
       </c>
       <c r="I33" s="3">
-        <v>-57900</v>
+        <v>-105000</v>
       </c>
       <c r="J33" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-153200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-35800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-45800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-78900</v>
+        <v>-35600</v>
       </c>
       <c r="E35" s="3">
-        <v>-81700</v>
+        <v>-82700</v>
       </c>
       <c r="F35" s="3">
-        <v>-129500</v>
+        <v>-85600</v>
       </c>
       <c r="G35" s="3">
-        <v>-182200</v>
+        <v>-135700</v>
       </c>
       <c r="H35" s="3">
-        <v>-100300</v>
+        <v>-85800</v>
       </c>
       <c r="I35" s="3">
-        <v>-57900</v>
+        <v>-105000</v>
       </c>
       <c r="J35" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-153200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-35800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-45800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,38 +2226,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>27600</v>
+        <v>24400</v>
       </c>
       <c r="E41" s="3">
-        <v>50500</v>
+        <v>28900</v>
       </c>
       <c r="F41" s="3">
-        <v>76300</v>
+        <v>52900</v>
       </c>
       <c r="G41" s="3">
-        <v>305500</v>
+        <v>79900</v>
       </c>
       <c r="H41" s="3">
-        <v>197200</v>
+        <v>320000</v>
       </c>
       <c r="I41" s="3">
-        <v>317500</v>
+        <v>206600</v>
       </c>
       <c r="J41" s="3">
+        <v>332600</v>
+      </c>
+      <c r="K41" s="3">
         <v>337700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>247200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2190,38 +2277,41 @@
       <c r="R41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>136300</v>
+        <v>109200</v>
       </c>
       <c r="E42" s="3">
-        <v>185400</v>
+        <v>142800</v>
       </c>
       <c r="F42" s="3">
-        <v>231600</v>
+        <v>194200</v>
       </c>
       <c r="G42" s="3">
-        <v>26700</v>
+        <v>242600</v>
       </c>
       <c r="H42" s="3">
-        <v>40700</v>
+        <v>28000</v>
       </c>
       <c r="I42" s="3">
-        <v>16800</v>
+        <v>42700</v>
       </c>
       <c r="J42" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K42" s="3">
         <v>22000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1400</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2240,38 +2330,41 @@
       <c r="R42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>123800</v>
+        <v>121000</v>
       </c>
       <c r="E43" s="3">
-        <v>116900</v>
+        <v>129600</v>
       </c>
       <c r="F43" s="3">
-        <v>71600</v>
+        <v>122500</v>
       </c>
       <c r="G43" s="3">
-        <v>74700</v>
+        <v>75000</v>
       </c>
       <c r="H43" s="3">
-        <v>40600</v>
+        <v>78300</v>
       </c>
       <c r="I43" s="3">
-        <v>32600</v>
+        <v>42600</v>
       </c>
       <c r="J43" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K43" s="3">
         <v>6200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,38 +2436,41 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>27600</v>
+        <v>34900</v>
       </c>
       <c r="E45" s="3">
-        <v>38100</v>
+        <v>28900</v>
       </c>
       <c r="F45" s="3">
-        <v>34800</v>
+        <v>39900</v>
       </c>
       <c r="G45" s="3">
-        <v>20700</v>
+        <v>36400</v>
       </c>
       <c r="H45" s="3">
-        <v>16400</v>
+        <v>21700</v>
       </c>
       <c r="I45" s="3">
-        <v>14500</v>
+        <v>17200</v>
       </c>
       <c r="J45" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K45" s="3">
         <v>27300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2390,38 +2489,41 @@
       <c r="R45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>315200</v>
+        <v>289500</v>
       </c>
       <c r="E46" s="3">
-        <v>391000</v>
+        <v>330200</v>
       </c>
       <c r="F46" s="3">
-        <v>414300</v>
+        <v>409500</v>
       </c>
       <c r="G46" s="3">
-        <v>427600</v>
+        <v>433900</v>
       </c>
       <c r="H46" s="3">
-        <v>295000</v>
+        <v>447900</v>
       </c>
       <c r="I46" s="3">
-        <v>381400</v>
+        <v>309000</v>
       </c>
       <c r="J46" s="3">
+        <v>399500</v>
+      </c>
+      <c r="K46" s="3">
         <v>393300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>262200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2440,28 +2542,31 @@
       <c r="R46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>18200</v>
+        <v>15300</v>
       </c>
       <c r="E47" s="3">
-        <v>5500</v>
+        <v>19000</v>
       </c>
       <c r="F47" s="3">
-        <v>5200</v>
+        <v>5700</v>
       </c>
       <c r="G47" s="3">
-        <v>4700</v>
+        <v>5400</v>
       </c>
       <c r="H47" s="3">
-        <v>700</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>16</v>
+        <v>4900</v>
+      </c>
+      <c r="I47" s="3">
+        <v>800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>16</v>
@@ -2472,8 +2577,8 @@
       <c r="L47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2490,38 +2595,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13800</v>
+        <v>12000</v>
       </c>
       <c r="E48" s="3">
-        <v>16600</v>
+        <v>14500</v>
       </c>
       <c r="F48" s="3">
-        <v>19700</v>
+        <v>17400</v>
       </c>
       <c r="G48" s="3">
-        <v>16100</v>
+        <v>20600</v>
       </c>
       <c r="H48" s="3">
-        <v>11300</v>
+        <v>16800</v>
       </c>
       <c r="I48" s="3">
-        <v>2000</v>
+        <v>11900</v>
       </c>
       <c r="J48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K48" s="3">
         <v>8800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2540,38 +2648,41 @@
       <c r="R48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13600</v>
+        <v>14800</v>
       </c>
       <c r="E49" s="3">
-        <v>14000</v>
+        <v>14200</v>
       </c>
       <c r="F49" s="3">
-        <v>14100</v>
+        <v>14600</v>
       </c>
       <c r="G49" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="H49" s="3">
-        <v>14400</v>
+        <v>15200</v>
       </c>
       <c r="I49" s="3">
-        <v>14800</v>
+        <v>15100</v>
       </c>
       <c r="J49" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2710,18 +2830,18 @@
       <c r="H52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I52" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="3">
         <v>7500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,38 +2913,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>360700</v>
+        <v>331600</v>
       </c>
       <c r="E54" s="3">
-        <v>427000</v>
+        <v>377800</v>
       </c>
       <c r="F54" s="3">
-        <v>453200</v>
+        <v>447300</v>
       </c>
       <c r="G54" s="3">
-        <v>462900</v>
+        <v>474700</v>
       </c>
       <c r="H54" s="3">
-        <v>321500</v>
+        <v>484800</v>
       </c>
       <c r="I54" s="3">
-        <v>399700</v>
+        <v>336700</v>
       </c>
       <c r="J54" s="3">
+        <v>418700</v>
+      </c>
+      <c r="K54" s="3">
         <v>403100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>271900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,38 +3010,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>60000</v>
+        <v>56400</v>
       </c>
       <c r="E57" s="3">
-        <v>47700</v>
+        <v>62900</v>
       </c>
       <c r="F57" s="3">
-        <v>41500</v>
+        <v>49900</v>
       </c>
       <c r="G57" s="3">
-        <v>38000</v>
+        <v>43500</v>
       </c>
       <c r="H57" s="3">
-        <v>23300</v>
+        <v>39800</v>
       </c>
       <c r="I57" s="3">
-        <v>19100</v>
+        <v>24400</v>
       </c>
       <c r="J57" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K57" s="3">
         <v>13100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,38 +3114,41 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>202100</v>
+        <v>197900</v>
       </c>
       <c r="E59" s="3">
-        <v>224700</v>
+        <v>211700</v>
       </c>
       <c r="F59" s="3">
-        <v>186100</v>
+        <v>235400</v>
       </c>
       <c r="G59" s="3">
-        <v>156400</v>
+        <v>194900</v>
       </c>
       <c r="H59" s="3">
-        <v>148500</v>
+        <v>163800</v>
       </c>
       <c r="I59" s="3">
-        <v>142300</v>
+        <v>155500</v>
       </c>
       <c r="J59" s="3">
+        <v>149000</v>
+      </c>
+      <c r="K59" s="3">
         <v>116900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>73100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3030,38 +3167,41 @@
       <c r="R59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>262200</v>
+        <v>254300</v>
       </c>
       <c r="E60" s="3">
-        <v>272400</v>
+        <v>274600</v>
       </c>
       <c r="F60" s="3">
-        <v>227600</v>
+        <v>285300</v>
       </c>
       <c r="G60" s="3">
-        <v>194400</v>
+        <v>238400</v>
       </c>
       <c r="H60" s="3">
-        <v>171800</v>
+        <v>203600</v>
       </c>
       <c r="I60" s="3">
-        <v>161300</v>
+        <v>179900</v>
       </c>
       <c r="J60" s="3">
+        <v>169000</v>
+      </c>
+      <c r="K60" s="3">
         <v>130000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>76300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3080,25 +3220,28 @@
       <c r="R60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>181100</v>
+        <v>191000</v>
       </c>
       <c r="E61" s="3">
-        <v>177000</v>
+        <v>189700</v>
       </c>
       <c r="F61" s="3">
-        <v>178100</v>
+        <v>185400</v>
       </c>
       <c r="G61" s="3">
-        <v>170600</v>
+        <v>186600</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>178700</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3130,31 +3273,34 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6500</v>
+        <v>5900</v>
       </c>
       <c r="E62" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G62" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H62" s="3">
+        <v>8700</v>
+      </c>
+      <c r="I62" s="3">
         <v>8000</v>
       </c>
-      <c r="F62" s="3">
-        <v>9300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>8300</v>
-      </c>
-      <c r="H62" s="3">
-        <v>7600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>16</v>
+      <c r="J62" s="3">
+        <v>5100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>16</v>
@@ -3171,8 +3317,8 @@
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,38 +3485,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>524000</v>
+        <v>530800</v>
       </c>
       <c r="E66" s="3">
-        <v>528900</v>
+        <v>548900</v>
       </c>
       <c r="F66" s="3">
-        <v>485900</v>
+        <v>554000</v>
       </c>
       <c r="G66" s="3">
-        <v>391700</v>
+        <v>508900</v>
       </c>
       <c r="H66" s="3">
-        <v>196900</v>
+        <v>410300</v>
       </c>
       <c r="I66" s="3">
-        <v>179800</v>
+        <v>206200</v>
       </c>
       <c r="J66" s="3">
+        <v>188300</v>
+      </c>
+      <c r="K66" s="3">
         <v>129600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>76300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3527,11 +3695,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>266900</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,38 +3771,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-786100</v>
+        <v>-859000</v>
       </c>
       <c r="E72" s="3">
-        <v>-706200</v>
+        <v>-823400</v>
       </c>
       <c r="F72" s="3">
-        <v>-624400</v>
+        <v>-739700</v>
       </c>
       <c r="G72" s="3">
-        <v>-494900</v>
+        <v>-654100</v>
       </c>
       <c r="H72" s="3">
-        <v>-413000</v>
+        <v>-518400</v>
       </c>
       <c r="I72" s="3">
-        <v>-312700</v>
+        <v>-432600</v>
       </c>
       <c r="J72" s="3">
+        <v>-327600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-254800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-97900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,38 +3983,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-163300</v>
+        <v>-199200</v>
       </c>
       <c r="E76" s="3">
-        <v>-101900</v>
+        <v>-171000</v>
       </c>
       <c r="F76" s="3">
-        <v>-32600</v>
+        <v>-106700</v>
       </c>
       <c r="G76" s="3">
-        <v>71100</v>
+        <v>-34200</v>
       </c>
       <c r="H76" s="3">
-        <v>124600</v>
+        <v>74500</v>
       </c>
       <c r="I76" s="3">
-        <v>220000</v>
+        <v>130500</v>
       </c>
       <c r="J76" s="3">
+        <v>230400</v>
+      </c>
+      <c r="K76" s="3">
         <v>273500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-71300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-78900</v>
+        <v>-35600</v>
       </c>
       <c r="E81" s="3">
-        <v>-81700</v>
+        <v>-82700</v>
       </c>
       <c r="F81" s="3">
-        <v>-129500</v>
+        <v>-85600</v>
       </c>
       <c r="G81" s="3">
-        <v>-182200</v>
+        <v>-135700</v>
       </c>
       <c r="H81" s="3">
-        <v>-100300</v>
+        <v>-85800</v>
       </c>
       <c r="I81" s="3">
-        <v>-57900</v>
+        <v>-105000</v>
       </c>
       <c r="J81" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-153200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-35800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-45800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>QTT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,269 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>219200</v>
+        <v>199000</v>
       </c>
       <c r="E8" s="3">
-        <v>214800</v>
+        <v>172600</v>
       </c>
       <c r="F8" s="3">
-        <v>252300</v>
+        <v>220200</v>
       </c>
       <c r="G8" s="3">
-        <v>214000</v>
+        <v>215700</v>
       </c>
       <c r="H8" s="3">
-        <v>210800</v>
+        <v>253400</v>
       </c>
       <c r="I8" s="3">
+        <v>214900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>211700</v>
+      </c>
+      <c r="K8" s="3">
         <v>170200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>201900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>141900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>67400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>33900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>37400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>23400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>10500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>60900</v>
+        <v>67500</v>
       </c>
       <c r="E9" s="3">
-        <v>70100</v>
+        <v>56800</v>
       </c>
       <c r="F9" s="3">
-        <v>76700</v>
+        <v>61100</v>
       </c>
       <c r="G9" s="3">
-        <v>75500</v>
+        <v>70400</v>
       </c>
       <c r="H9" s="3">
-        <v>55000</v>
+        <v>77000</v>
       </c>
       <c r="I9" s="3">
+        <v>75800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>55200</v>
+      </c>
+      <c r="K9" s="3">
         <v>42500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>31000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>22300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>11500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>9200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>6700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>158300</v>
+        <v>131500</v>
       </c>
       <c r="E10" s="3">
-        <v>144700</v>
+        <v>115800</v>
       </c>
       <c r="F10" s="3">
-        <v>175600</v>
+        <v>159000</v>
       </c>
       <c r="G10" s="3">
-        <v>138600</v>
+        <v>145300</v>
       </c>
       <c r="H10" s="3">
-        <v>155800</v>
+        <v>176400</v>
       </c>
       <c r="I10" s="3">
+        <v>139200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>156500</v>
+      </c>
+      <c r="K10" s="3">
         <v>127700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>170900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>119600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>55900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>24700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>30700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>20300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>9500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>4800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>3000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +947,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>34100</v>
+        <v>30500</v>
       </c>
       <c r="E12" s="3">
-        <v>42700</v>
+        <v>37100</v>
       </c>
       <c r="F12" s="3">
-        <v>43800</v>
+        <v>34300</v>
       </c>
       <c r="G12" s="3">
-        <v>39800</v>
+        <v>42900</v>
       </c>
       <c r="H12" s="3">
-        <v>33700</v>
+        <v>44000</v>
       </c>
       <c r="I12" s="3">
+        <v>40000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>33800</v>
+      </c>
+      <c r="K12" s="3">
         <v>23600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>19300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>11700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>6000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>2800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>300</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>100</v>
-      </c>
-      <c r="R12" s="3">
-        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,46 +1061,52 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F14" s="3">
         <v>-3800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-1200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-1800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-1600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1081,8 +1120,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1203,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>248000</v>
+        <v>212700</v>
       </c>
       <c r="E17" s="3">
-        <v>291500</v>
+        <v>210500</v>
       </c>
       <c r="F17" s="3">
-        <v>336800</v>
+        <v>249100</v>
       </c>
       <c r="G17" s="3">
-        <v>350800</v>
+        <v>292800</v>
       </c>
       <c r="H17" s="3">
-        <v>297700</v>
+        <v>338300</v>
       </c>
       <c r="I17" s="3">
+        <v>352400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>299000</v>
+      </c>
+      <c r="K17" s="3">
         <v>276200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>265200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>293500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>98100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>77300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>45600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>25100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>13000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>7100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>4600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-28800</v>
+        <v>-13800</v>
       </c>
       <c r="E18" s="3">
-        <v>-76800</v>
+        <v>-37900</v>
       </c>
       <c r="F18" s="3">
-        <v>-84500</v>
+        <v>-28900</v>
       </c>
       <c r="G18" s="3">
-        <v>-136800</v>
+        <v>-77100</v>
       </c>
       <c r="H18" s="3">
-        <v>-86900</v>
+        <v>-84900</v>
       </c>
       <c r="I18" s="3">
+        <v>-137400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-106000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-63300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-151500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-30700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-43400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-8200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,44 +1344,46 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1332,8 +1399,14 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,38 +1428,44 @@
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>-59700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>-29400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3">
         <v>-8100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,78 +1517,90 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-33700</v>
+        <v>-12600</v>
       </c>
       <c r="E23" s="3">
-        <v>-80700</v>
+        <v>-41500</v>
       </c>
       <c r="F23" s="3">
-        <v>-82900</v>
+        <v>-33900</v>
       </c>
       <c r="G23" s="3">
-        <v>-135200</v>
+        <v>-81100</v>
       </c>
       <c r="H23" s="3">
-        <v>-85500</v>
+        <v>-83200</v>
       </c>
       <c r="I23" s="3">
+        <v>-135800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-85800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-104800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-60600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-150100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-29600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-43400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-8100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-100</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
@@ -1518,10 +1609,10 @@
         <v>-100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-33800</v>
+        <v>-12500</v>
       </c>
       <c r="E26" s="3">
-        <v>-80900</v>
+        <v>-41200</v>
       </c>
       <c r="F26" s="3">
-        <v>-83900</v>
+        <v>-33900</v>
       </c>
       <c r="G26" s="3">
-        <v>-135100</v>
+        <v>-81300</v>
       </c>
       <c r="H26" s="3">
-        <v>-85400</v>
+        <v>-84200</v>
       </c>
       <c r="I26" s="3">
+        <v>-135700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-85800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-104700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-60500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-150100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-29600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-43400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-8100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-35600</v>
+        <v>-12000</v>
       </c>
       <c r="E27" s="3">
-        <v>-82700</v>
+        <v>-43000</v>
       </c>
       <c r="F27" s="3">
-        <v>-85600</v>
+        <v>-35800</v>
       </c>
       <c r="G27" s="3">
-        <v>-135700</v>
+        <v>-83000</v>
       </c>
       <c r="H27" s="3">
-        <v>-85800</v>
+        <v>-86000</v>
       </c>
       <c r="I27" s="3">
+        <v>-136300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-86200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-105000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-60600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-153200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-35800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-45800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-9000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,44 +2048,50 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F32" s="3">
         <v>4900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2107,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-35600</v>
+        <v>-12000</v>
       </c>
       <c r="E33" s="3">
-        <v>-82700</v>
+        <v>-43000</v>
       </c>
       <c r="F33" s="3">
-        <v>-85600</v>
+        <v>-35800</v>
       </c>
       <c r="G33" s="3">
-        <v>-135700</v>
+        <v>-83000</v>
       </c>
       <c r="H33" s="3">
-        <v>-85800</v>
+        <v>-86000</v>
       </c>
       <c r="I33" s="3">
+        <v>-136300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-86200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-105000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-60600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-153200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-35800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-45800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-9000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-35600</v>
+        <v>-12000</v>
       </c>
       <c r="E35" s="3">
-        <v>-82700</v>
+        <v>-43000</v>
       </c>
       <c r="F35" s="3">
-        <v>-85600</v>
+        <v>-35800</v>
       </c>
       <c r="G35" s="3">
-        <v>-135700</v>
+        <v>-83000</v>
       </c>
       <c r="H35" s="3">
-        <v>-85800</v>
+        <v>-86000</v>
       </c>
       <c r="I35" s="3">
+        <v>-136300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-86200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-105000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-60600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-153200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-35800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-45800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-9000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,44 +2398,46 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24400</v>
+        <v>75500</v>
       </c>
       <c r="E41" s="3">
-        <v>28900</v>
+        <v>39700</v>
       </c>
       <c r="F41" s="3">
-        <v>52900</v>
+        <v>24500</v>
       </c>
       <c r="G41" s="3">
-        <v>79900</v>
+        <v>29000</v>
       </c>
       <c r="H41" s="3">
-        <v>320000</v>
+        <v>53100</v>
       </c>
       <c r="I41" s="3">
+        <v>80300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>321400</v>
+      </c>
+      <c r="K41" s="3">
         <v>206600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>332600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>337700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>247200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2280,44 +2453,50 @@
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>109200</v>
+        <v>59700</v>
       </c>
       <c r="E42" s="3">
-        <v>142800</v>
+        <v>29000</v>
       </c>
       <c r="F42" s="3">
-        <v>194200</v>
+        <v>109700</v>
       </c>
       <c r="G42" s="3">
-        <v>242600</v>
+        <v>143400</v>
       </c>
       <c r="H42" s="3">
-        <v>28000</v>
+        <v>195100</v>
       </c>
       <c r="I42" s="3">
+        <v>243600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K42" s="3">
         <v>42700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>17600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>22000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1400</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2333,44 +2512,50 @@
       <c r="S42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>121000</v>
+        <v>171300</v>
       </c>
       <c r="E43" s="3">
-        <v>129600</v>
+        <v>156600</v>
       </c>
       <c r="F43" s="3">
-        <v>122500</v>
+        <v>121600</v>
       </c>
       <c r="G43" s="3">
-        <v>75000</v>
+        <v>130200</v>
       </c>
       <c r="H43" s="3">
-        <v>78300</v>
+        <v>123000</v>
       </c>
       <c r="I43" s="3">
+        <v>75300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>78600</v>
+      </c>
+      <c r="K43" s="3">
         <v>42600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>34200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>6200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>5500</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2386,8 +2571,14 @@
       <c r="S43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,44 +2630,50 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34900</v>
+        <v>71100</v>
       </c>
       <c r="E45" s="3">
-        <v>28900</v>
+        <v>37500</v>
       </c>
       <c r="F45" s="3">
-        <v>39900</v>
+        <v>35000</v>
       </c>
       <c r="G45" s="3">
-        <v>36400</v>
+        <v>29000</v>
       </c>
       <c r="H45" s="3">
-        <v>21700</v>
+        <v>40100</v>
       </c>
       <c r="I45" s="3">
+        <v>36600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K45" s="3">
         <v>17200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>15200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>27300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>8000</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2492,44 +2689,50 @@
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>289500</v>
+        <v>377700</v>
       </c>
       <c r="E46" s="3">
-        <v>330200</v>
+        <v>262800</v>
       </c>
       <c r="F46" s="3">
-        <v>409500</v>
+        <v>290800</v>
       </c>
       <c r="G46" s="3">
-        <v>433900</v>
+        <v>331600</v>
       </c>
       <c r="H46" s="3">
-        <v>447900</v>
+        <v>411300</v>
       </c>
       <c r="I46" s="3">
+        <v>435800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>449900</v>
+      </c>
+      <c r="K46" s="3">
         <v>309000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>399500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>393300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>262200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2545,46 +2748,52 @@
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F47" s="3">
         <v>15300</v>
       </c>
-      <c r="E47" s="3">
-        <v>19000</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
+        <v>19100</v>
+      </c>
+      <c r="H47" s="3">
         <v>5700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>5400</v>
       </c>
-      <c r="H47" s="3">
-        <v>4900</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K47" s="3">
         <v>800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2598,44 +2807,50 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12000</v>
+        <v>32900</v>
       </c>
       <c r="E48" s="3">
+        <v>30600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>12100</v>
+      </c>
+      <c r="G48" s="3">
         <v>14500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>17400</v>
       </c>
-      <c r="G48" s="3">
-        <v>20600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>16800</v>
-      </c>
       <c r="I48" s="3">
+        <v>20700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K48" s="3">
         <v>11900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>8800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2651,44 +2866,50 @@
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>14900</v>
+      </c>
+      <c r="G49" s="3">
+        <v>14300</v>
+      </c>
+      <c r="H49" s="3">
+        <v>14700</v>
+      </c>
+      <c r="I49" s="3">
         <v>14800</v>
       </c>
-      <c r="E49" s="3">
-        <v>14200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>14600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>14800</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>15200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>15100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>15500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2704,8 +2925,14 @@
       <c r="S49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,44 +3043,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>16</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="3">
         <v>1600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N52" s="3">
         <v>7500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2863,8 +3102,14 @@
       <c r="S52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,44 +3161,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>331600</v>
+        <v>445500</v>
       </c>
       <c r="E54" s="3">
-        <v>377800</v>
+        <v>320300</v>
       </c>
       <c r="F54" s="3">
-        <v>447300</v>
+        <v>333000</v>
       </c>
       <c r="G54" s="3">
-        <v>474700</v>
+        <v>379500</v>
       </c>
       <c r="H54" s="3">
-        <v>484800</v>
+        <v>449200</v>
       </c>
       <c r="I54" s="3">
+        <v>476800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>486900</v>
+      </c>
+      <c r="K54" s="3">
         <v>336700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>418700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>403100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>271900</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2969,8 +3220,14 @@
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,44 +3270,46 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>56400</v>
+        <v>68600</v>
       </c>
       <c r="E57" s="3">
-        <v>62900</v>
+        <v>60500</v>
       </c>
       <c r="F57" s="3">
-        <v>49900</v>
+        <v>56600</v>
       </c>
       <c r="G57" s="3">
-        <v>43500</v>
+        <v>63200</v>
       </c>
       <c r="H57" s="3">
-        <v>39800</v>
+        <v>50200</v>
       </c>
       <c r="I57" s="3">
+        <v>43700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K57" s="3">
         <v>24400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>20000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>13100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3064,31 +3325,37 @@
       <c r="S57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>10700</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>3100</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3117,44 +3384,50 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>197900</v>
+        <v>208900</v>
       </c>
       <c r="E59" s="3">
-        <v>211700</v>
+        <v>201400</v>
       </c>
       <c r="F59" s="3">
-        <v>235400</v>
+        <v>198800</v>
       </c>
       <c r="G59" s="3">
-        <v>194900</v>
+        <v>212600</v>
       </c>
       <c r="H59" s="3">
-        <v>163800</v>
+        <v>236400</v>
       </c>
       <c r="I59" s="3">
+        <v>195800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>164500</v>
+      </c>
+      <c r="K59" s="3">
         <v>155500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>149000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>116900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>73100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3170,44 +3443,50 @@
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>254300</v>
+        <v>288100</v>
       </c>
       <c r="E60" s="3">
-        <v>274600</v>
+        <v>264900</v>
       </c>
       <c r="F60" s="3">
-        <v>285300</v>
+        <v>255400</v>
       </c>
       <c r="G60" s="3">
-        <v>238400</v>
+        <v>275800</v>
       </c>
       <c r="H60" s="3">
-        <v>203600</v>
+        <v>286600</v>
       </c>
       <c r="I60" s="3">
+        <v>239400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>204500</v>
+      </c>
+      <c r="K60" s="3">
         <v>179900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>169000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>130000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>76300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3223,31 +3502,37 @@
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>191000</v>
+        <v>179500</v>
       </c>
       <c r="E61" s="3">
-        <v>189700</v>
+        <v>185900</v>
       </c>
       <c r="F61" s="3">
-        <v>185400</v>
+        <v>191800</v>
       </c>
       <c r="G61" s="3">
-        <v>186600</v>
+        <v>190600</v>
       </c>
       <c r="H61" s="3">
-        <v>178700</v>
+        <v>186200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>187400</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>179500</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3276,38 +3561,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F62" s="3">
         <v>5900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>6800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>8400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>9800</v>
       </c>
-      <c r="H62" s="3">
-        <v>8700</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K62" s="3">
         <v>8000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3320,17 +3611,23 @@
       <c r="P62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,44 +3797,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>530800</v>
+        <v>641200</v>
       </c>
       <c r="E66" s="3">
-        <v>548900</v>
+        <v>534600</v>
       </c>
       <c r="F66" s="3">
-        <v>554000</v>
+        <v>533100</v>
       </c>
       <c r="G66" s="3">
-        <v>508900</v>
+        <v>551300</v>
       </c>
       <c r="H66" s="3">
-        <v>410300</v>
+        <v>556400</v>
       </c>
       <c r="I66" s="3">
+        <v>511100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>412100</v>
+      </c>
+      <c r="K66" s="3">
         <v>206200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>188300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>129600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>76300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3541,8 +3856,14 @@
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3698,14 +4033,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>266900</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,44 +4115,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-859000</v>
+        <v>-917800</v>
       </c>
       <c r="E72" s="3">
-        <v>-823400</v>
+        <v>-905800</v>
       </c>
       <c r="F72" s="3">
-        <v>-739700</v>
+        <v>-862800</v>
       </c>
       <c r="G72" s="3">
-        <v>-654100</v>
+        <v>-827000</v>
       </c>
       <c r="H72" s="3">
-        <v>-518400</v>
+        <v>-742900</v>
       </c>
       <c r="I72" s="3">
+        <v>-656900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-520600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-432600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-327600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-254800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-97900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3827,8 +4174,14 @@
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,44 +4351,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-199200</v>
+        <v>-195700</v>
       </c>
       <c r="E76" s="3">
-        <v>-171000</v>
+        <v>-214300</v>
       </c>
       <c r="F76" s="3">
-        <v>-106700</v>
+        <v>-200100</v>
       </c>
       <c r="G76" s="3">
-        <v>-34200</v>
+        <v>-171800</v>
       </c>
       <c r="H76" s="3">
-        <v>74500</v>
+        <v>-107200</v>
       </c>
       <c r="I76" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>74800</v>
+      </c>
+      <c r="K76" s="3">
         <v>130500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>230400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>273500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-71300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4039,8 +4410,14 @@
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-35600</v>
+        <v>-12000</v>
       </c>
       <c r="E81" s="3">
-        <v>-82700</v>
+        <v>-43000</v>
       </c>
       <c r="F81" s="3">
-        <v>-85600</v>
+        <v>-35800</v>
       </c>
       <c r="G81" s="3">
-        <v>-135700</v>
+        <v>-83000</v>
       </c>
       <c r="H81" s="3">
-        <v>-85800</v>
+        <v>-86000</v>
       </c>
       <c r="I81" s="3">
+        <v>-136300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-86200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-105000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-60600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-153200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-35800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-45800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-9000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4619,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4674,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4969,14 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +5028,14 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5055,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +5110,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5228,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5287,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5546,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5605,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5664,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5721,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
@@ -755,25 +755,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>199000</v>
+        <v>203200</v>
       </c>
       <c r="E8" s="3">
-        <v>172600</v>
+        <v>176300</v>
       </c>
       <c r="F8" s="3">
-        <v>220200</v>
+        <v>224800</v>
       </c>
       <c r="G8" s="3">
-        <v>215700</v>
+        <v>220300</v>
       </c>
       <c r="H8" s="3">
-        <v>253400</v>
+        <v>258700</v>
       </c>
       <c r="I8" s="3">
-        <v>214900</v>
+        <v>219500</v>
       </c>
       <c r="J8" s="3">
-        <v>211700</v>
+        <v>216200</v>
       </c>
       <c r="K8" s="3">
         <v>170200</v>
@@ -814,25 +814,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>67500</v>
+        <v>68900</v>
       </c>
       <c r="E9" s="3">
-        <v>56800</v>
+        <v>58000</v>
       </c>
       <c r="F9" s="3">
-        <v>61100</v>
+        <v>62400</v>
       </c>
       <c r="G9" s="3">
-        <v>70400</v>
+        <v>71900</v>
       </c>
       <c r="H9" s="3">
-        <v>77000</v>
+        <v>78600</v>
       </c>
       <c r="I9" s="3">
-        <v>75800</v>
+        <v>77400</v>
       </c>
       <c r="J9" s="3">
-        <v>55200</v>
+        <v>56400</v>
       </c>
       <c r="K9" s="3">
         <v>42500</v>
@@ -873,25 +873,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>131500</v>
+        <v>134300</v>
       </c>
       <c r="E10" s="3">
-        <v>115800</v>
+        <v>118300</v>
       </c>
       <c r="F10" s="3">
-        <v>159000</v>
+        <v>162400</v>
       </c>
       <c r="G10" s="3">
-        <v>145300</v>
+        <v>148400</v>
       </c>
       <c r="H10" s="3">
-        <v>176400</v>
+        <v>180100</v>
       </c>
       <c r="I10" s="3">
-        <v>139200</v>
+        <v>142100</v>
       </c>
       <c r="J10" s="3">
-        <v>156500</v>
+        <v>159800</v>
       </c>
       <c r="K10" s="3">
         <v>127700</v>
@@ -955,25 +955,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>30500</v>
+        <v>31200</v>
       </c>
       <c r="E12" s="3">
-        <v>37100</v>
+        <v>37900</v>
       </c>
       <c r="F12" s="3">
-        <v>34300</v>
+        <v>35000</v>
       </c>
       <c r="G12" s="3">
-        <v>42900</v>
+        <v>43800</v>
       </c>
       <c r="H12" s="3">
-        <v>44000</v>
+        <v>44900</v>
       </c>
       <c r="I12" s="3">
-        <v>40000</v>
+        <v>40800</v>
       </c>
       <c r="J12" s="3">
-        <v>33800</v>
+        <v>34500</v>
       </c>
       <c r="K12" s="3">
         <v>23600</v>
@@ -1073,13 +1073,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="E14" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="F14" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="G14" s="3">
         <v>-1100</v>
@@ -1091,7 +1091,7 @@
         <v>-1800</v>
       </c>
       <c r="J14" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="K14" s="3">
         <v>-100</v>
@@ -1211,25 +1211,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>212700</v>
+        <v>217200</v>
       </c>
       <c r="E17" s="3">
-        <v>210500</v>
+        <v>215000</v>
       </c>
       <c r="F17" s="3">
-        <v>249100</v>
+        <v>254400</v>
       </c>
       <c r="G17" s="3">
-        <v>292800</v>
+        <v>299000</v>
       </c>
       <c r="H17" s="3">
-        <v>338300</v>
+        <v>345400</v>
       </c>
       <c r="I17" s="3">
-        <v>352400</v>
+        <v>359800</v>
       </c>
       <c r="J17" s="3">
-        <v>299000</v>
+        <v>305400</v>
       </c>
       <c r="K17" s="3">
         <v>276200</v>
@@ -1270,25 +1270,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-13800</v>
+        <v>-14100</v>
       </c>
       <c r="E18" s="3">
-        <v>-37900</v>
+        <v>-38700</v>
       </c>
       <c r="F18" s="3">
-        <v>-28900</v>
+        <v>-29500</v>
       </c>
       <c r="G18" s="3">
-        <v>-77100</v>
+        <v>-78700</v>
       </c>
       <c r="H18" s="3">
-        <v>-84900</v>
+        <v>-86700</v>
       </c>
       <c r="I18" s="3">
-        <v>-137400</v>
+        <v>-140300</v>
       </c>
       <c r="J18" s="3">
-        <v>-87300</v>
+        <v>-89100</v>
       </c>
       <c r="K18" s="3">
         <v>-106000</v>
@@ -1355,13 +1355,13 @@
         <v>1200</v>
       </c>
       <c r="E20" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="F20" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="G20" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="H20" s="3">
         <v>1700</v>
@@ -1370,7 +1370,7 @@
         <v>1600</v>
       </c>
       <c r="J20" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K20" s="3">
         <v>1200</v>
@@ -1529,25 +1529,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-12600</v>
+        <v>-12800</v>
       </c>
       <c r="E23" s="3">
-        <v>-41500</v>
+        <v>-42400</v>
       </c>
       <c r="F23" s="3">
-        <v>-33900</v>
+        <v>-34600</v>
       </c>
       <c r="G23" s="3">
-        <v>-81100</v>
+        <v>-82800</v>
       </c>
       <c r="H23" s="3">
-        <v>-83200</v>
+        <v>-85000</v>
       </c>
       <c r="I23" s="3">
-        <v>-135800</v>
+        <v>-138700</v>
       </c>
       <c r="J23" s="3">
-        <v>-85800</v>
+        <v>-87700</v>
       </c>
       <c r="K23" s="3">
         <v>-104800</v>
@@ -1594,7 +1594,7 @@
         <v>-300</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
@@ -1706,25 +1706,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-12500</v>
+        <v>-12800</v>
       </c>
       <c r="E26" s="3">
-        <v>-41200</v>
+        <v>-42000</v>
       </c>
       <c r="F26" s="3">
-        <v>-33900</v>
+        <v>-34600</v>
       </c>
       <c r="G26" s="3">
-        <v>-81300</v>
+        <v>-83000</v>
       </c>
       <c r="H26" s="3">
-        <v>-84200</v>
+        <v>-86000</v>
       </c>
       <c r="I26" s="3">
-        <v>-135700</v>
+        <v>-138600</v>
       </c>
       <c r="J26" s="3">
-        <v>-85800</v>
+        <v>-87600</v>
       </c>
       <c r="K26" s="3">
         <v>-104700</v>
@@ -1765,25 +1765,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-12000</v>
+        <v>-12300</v>
       </c>
       <c r="E27" s="3">
-        <v>-43000</v>
+        <v>-43900</v>
       </c>
       <c r="F27" s="3">
-        <v>-35800</v>
+        <v>-36600</v>
       </c>
       <c r="G27" s="3">
-        <v>-83000</v>
+        <v>-84800</v>
       </c>
       <c r="H27" s="3">
-        <v>-86000</v>
+        <v>-87800</v>
       </c>
       <c r="I27" s="3">
-        <v>-136300</v>
+        <v>-139100</v>
       </c>
       <c r="J27" s="3">
-        <v>-86200</v>
+        <v>-88000</v>
       </c>
       <c r="K27" s="3">
         <v>-105000</v>
@@ -2063,13 +2063,13 @@
         <v>-1200</v>
       </c>
       <c r="E32" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F32" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="G32" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="H32" s="3">
         <v>-1700</v>
@@ -2078,7 +2078,7 @@
         <v>-1600</v>
       </c>
       <c r="J32" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="K32" s="3">
         <v>-1200</v>
@@ -2119,25 +2119,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-12000</v>
+        <v>-12300</v>
       </c>
       <c r="E33" s="3">
-        <v>-43000</v>
+        <v>-43900</v>
       </c>
       <c r="F33" s="3">
-        <v>-35800</v>
+        <v>-36600</v>
       </c>
       <c r="G33" s="3">
-        <v>-83000</v>
+        <v>-84800</v>
       </c>
       <c r="H33" s="3">
-        <v>-86000</v>
+        <v>-87800</v>
       </c>
       <c r="I33" s="3">
-        <v>-136300</v>
+        <v>-139100</v>
       </c>
       <c r="J33" s="3">
-        <v>-86200</v>
+        <v>-88000</v>
       </c>
       <c r="K33" s="3">
         <v>-105000</v>
@@ -2237,25 +2237,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-12000</v>
+        <v>-12300</v>
       </c>
       <c r="E35" s="3">
-        <v>-43000</v>
+        <v>-43900</v>
       </c>
       <c r="F35" s="3">
-        <v>-35800</v>
+        <v>-36600</v>
       </c>
       <c r="G35" s="3">
-        <v>-83000</v>
+        <v>-84800</v>
       </c>
       <c r="H35" s="3">
-        <v>-86000</v>
+        <v>-87800</v>
       </c>
       <c r="I35" s="3">
-        <v>-136300</v>
+        <v>-139100</v>
       </c>
       <c r="J35" s="3">
-        <v>-86200</v>
+        <v>-88000</v>
       </c>
       <c r="K35" s="3">
         <v>-105000</v>
@@ -2406,25 +2406,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>75500</v>
+        <v>77100</v>
       </c>
       <c r="E41" s="3">
-        <v>39700</v>
+        <v>40600</v>
       </c>
       <c r="F41" s="3">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="G41" s="3">
-        <v>29000</v>
+        <v>29600</v>
       </c>
       <c r="H41" s="3">
-        <v>53100</v>
+        <v>54300</v>
       </c>
       <c r="I41" s="3">
-        <v>80300</v>
+        <v>82000</v>
       </c>
       <c r="J41" s="3">
-        <v>321400</v>
+        <v>328200</v>
       </c>
       <c r="K41" s="3">
         <v>206600</v>
@@ -2465,25 +2465,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>59700</v>
+        <v>61000</v>
       </c>
       <c r="E42" s="3">
-        <v>29000</v>
+        <v>29600</v>
       </c>
       <c r="F42" s="3">
-        <v>109700</v>
+        <v>112000</v>
       </c>
       <c r="G42" s="3">
-        <v>143400</v>
+        <v>146400</v>
       </c>
       <c r="H42" s="3">
-        <v>195100</v>
+        <v>199200</v>
       </c>
       <c r="I42" s="3">
-        <v>243600</v>
+        <v>248800</v>
       </c>
       <c r="J42" s="3">
-        <v>28100</v>
+        <v>28700</v>
       </c>
       <c r="K42" s="3">
         <v>42700</v>
@@ -2524,25 +2524,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>171300</v>
+        <v>174900</v>
       </c>
       <c r="E43" s="3">
-        <v>156600</v>
+        <v>159900</v>
       </c>
       <c r="F43" s="3">
-        <v>121600</v>
+        <v>124100</v>
       </c>
       <c r="G43" s="3">
-        <v>130200</v>
+        <v>133000</v>
       </c>
       <c r="H43" s="3">
-        <v>123000</v>
+        <v>125600</v>
       </c>
       <c r="I43" s="3">
-        <v>75300</v>
+        <v>76900</v>
       </c>
       <c r="J43" s="3">
-        <v>78600</v>
+        <v>80300</v>
       </c>
       <c r="K43" s="3">
         <v>42600</v>
@@ -2642,25 +2642,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>71100</v>
+        <v>72600</v>
       </c>
       <c r="E45" s="3">
-        <v>37500</v>
+        <v>38300</v>
       </c>
       <c r="F45" s="3">
-        <v>35000</v>
+        <v>35800</v>
       </c>
       <c r="G45" s="3">
-        <v>29000</v>
+        <v>29600</v>
       </c>
       <c r="H45" s="3">
-        <v>40100</v>
+        <v>41000</v>
       </c>
       <c r="I45" s="3">
-        <v>36600</v>
+        <v>37300</v>
       </c>
       <c r="J45" s="3">
-        <v>21800</v>
+        <v>22200</v>
       </c>
       <c r="K45" s="3">
         <v>17200</v>
@@ -2701,25 +2701,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>377700</v>
+        <v>385700</v>
       </c>
       <c r="E46" s="3">
-        <v>262800</v>
+        <v>268300</v>
       </c>
       <c r="F46" s="3">
-        <v>290800</v>
+        <v>296900</v>
       </c>
       <c r="G46" s="3">
-        <v>331600</v>
+        <v>338600</v>
       </c>
       <c r="H46" s="3">
-        <v>411300</v>
+        <v>420000</v>
       </c>
       <c r="I46" s="3">
-        <v>435800</v>
+        <v>445000</v>
       </c>
       <c r="J46" s="3">
-        <v>449900</v>
+        <v>459400</v>
       </c>
       <c r="K46" s="3">
         <v>309000</v>
@@ -2760,25 +2760,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="E47" s="3">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="F47" s="3">
-        <v>15300</v>
+        <v>15600</v>
       </c>
       <c r="G47" s="3">
-        <v>19100</v>
+        <v>19500</v>
       </c>
       <c r="H47" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="I47" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="J47" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="K47" s="3">
         <v>800</v>
@@ -2819,25 +2819,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>32900</v>
+        <v>33600</v>
       </c>
       <c r="E48" s="3">
-        <v>30600</v>
+        <v>31200</v>
       </c>
       <c r="F48" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="G48" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="H48" s="3">
-        <v>17400</v>
+        <v>17800</v>
       </c>
       <c r="I48" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="J48" s="3">
-        <v>16900</v>
+        <v>17300</v>
       </c>
       <c r="K48" s="3">
         <v>11900</v>
@@ -2878,25 +2878,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13800</v>
+        <v>14100</v>
       </c>
       <c r="E49" s="3">
-        <v>14300</v>
+        <v>14600</v>
       </c>
       <c r="F49" s="3">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="G49" s="3">
-        <v>14300</v>
+        <v>14600</v>
       </c>
       <c r="H49" s="3">
-        <v>14700</v>
+        <v>15000</v>
       </c>
       <c r="I49" s="3">
-        <v>14800</v>
+        <v>15100</v>
       </c>
       <c r="J49" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="K49" s="3">
         <v>15100</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>445500</v>
+        <v>454900</v>
       </c>
       <c r="E54" s="3">
-        <v>320300</v>
+        <v>327100</v>
       </c>
       <c r="F54" s="3">
-        <v>333000</v>
+        <v>340100</v>
       </c>
       <c r="G54" s="3">
-        <v>379500</v>
+        <v>387500</v>
       </c>
       <c r="H54" s="3">
-        <v>449200</v>
+        <v>458700</v>
       </c>
       <c r="I54" s="3">
-        <v>476800</v>
+        <v>486900</v>
       </c>
       <c r="J54" s="3">
-        <v>486900</v>
+        <v>497200</v>
       </c>
       <c r="K54" s="3">
         <v>336700</v>
@@ -3278,25 +3278,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>68600</v>
+        <v>72100</v>
       </c>
       <c r="E57" s="3">
-        <v>60500</v>
+        <v>61800</v>
       </c>
       <c r="F57" s="3">
-        <v>56600</v>
+        <v>57800</v>
       </c>
       <c r="G57" s="3">
-        <v>63200</v>
+        <v>64500</v>
       </c>
       <c r="H57" s="3">
-        <v>50200</v>
+        <v>51200</v>
       </c>
       <c r="I57" s="3">
-        <v>43700</v>
+        <v>44600</v>
       </c>
       <c r="J57" s="3">
-        <v>39900</v>
+        <v>40800</v>
       </c>
       <c r="K57" s="3">
         <v>24400</v>
@@ -3337,7 +3337,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="E58" s="3">
         <v>3100</v>
@@ -3396,25 +3396,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>208900</v>
+        <v>211200</v>
       </c>
       <c r="E59" s="3">
-        <v>201400</v>
+        <v>205600</v>
       </c>
       <c r="F59" s="3">
-        <v>198800</v>
+        <v>203000</v>
       </c>
       <c r="G59" s="3">
-        <v>212600</v>
+        <v>217100</v>
       </c>
       <c r="H59" s="3">
-        <v>236400</v>
+        <v>241400</v>
       </c>
       <c r="I59" s="3">
-        <v>195800</v>
+        <v>199900</v>
       </c>
       <c r="J59" s="3">
-        <v>164500</v>
+        <v>168000</v>
       </c>
       <c r="K59" s="3">
         <v>155500</v>
@@ -3455,25 +3455,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>288100</v>
+        <v>294200</v>
       </c>
       <c r="E60" s="3">
-        <v>264900</v>
+        <v>270500</v>
       </c>
       <c r="F60" s="3">
-        <v>255400</v>
+        <v>260800</v>
       </c>
       <c r="G60" s="3">
-        <v>275800</v>
+        <v>281600</v>
       </c>
       <c r="H60" s="3">
-        <v>286600</v>
+        <v>292600</v>
       </c>
       <c r="I60" s="3">
-        <v>239400</v>
+        <v>244500</v>
       </c>
       <c r="J60" s="3">
-        <v>204500</v>
+        <v>208800</v>
       </c>
       <c r="K60" s="3">
         <v>179900</v>
@@ -3514,25 +3514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>179500</v>
+        <v>183300</v>
       </c>
       <c r="E61" s="3">
-        <v>185900</v>
+        <v>189900</v>
       </c>
       <c r="F61" s="3">
-        <v>191800</v>
+        <v>195900</v>
       </c>
       <c r="G61" s="3">
-        <v>190600</v>
+        <v>194600</v>
       </c>
       <c r="H61" s="3">
-        <v>186200</v>
+        <v>190200</v>
       </c>
       <c r="I61" s="3">
-        <v>187400</v>
+        <v>191300</v>
       </c>
       <c r="J61" s="3">
-        <v>179500</v>
+        <v>183300</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3573,25 +3573,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="E62" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="F62" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="G62" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="H62" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="I62" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="J62" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="K62" s="3">
         <v>8000</v>
@@ -3809,25 +3809,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>641200</v>
+        <v>654700</v>
       </c>
       <c r="E66" s="3">
-        <v>534600</v>
+        <v>545900</v>
       </c>
       <c r="F66" s="3">
-        <v>533100</v>
+        <v>544400</v>
       </c>
       <c r="G66" s="3">
-        <v>551300</v>
+        <v>562900</v>
       </c>
       <c r="H66" s="3">
-        <v>556400</v>
+        <v>568100</v>
       </c>
       <c r="I66" s="3">
-        <v>511100</v>
+        <v>521900</v>
       </c>
       <c r="J66" s="3">
-        <v>412100</v>
+        <v>420800</v>
       </c>
       <c r="K66" s="3">
         <v>206200</v>
@@ -4127,25 +4127,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-917800</v>
+        <v>-937200</v>
       </c>
       <c r="E72" s="3">
-        <v>-905800</v>
+        <v>-924900</v>
       </c>
       <c r="F72" s="3">
-        <v>-862800</v>
+        <v>-881000</v>
       </c>
       <c r="G72" s="3">
-        <v>-827000</v>
+        <v>-844500</v>
       </c>
       <c r="H72" s="3">
-        <v>-742900</v>
+        <v>-758600</v>
       </c>
       <c r="I72" s="3">
-        <v>-656900</v>
+        <v>-670800</v>
       </c>
       <c r="J72" s="3">
-        <v>-520600</v>
+        <v>-531700</v>
       </c>
       <c r="K72" s="3">
         <v>-432600</v>
@@ -4363,25 +4363,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-195700</v>
+        <v>-199800</v>
       </c>
       <c r="E76" s="3">
-        <v>-214300</v>
+        <v>-218800</v>
       </c>
       <c r="F76" s="3">
-        <v>-200100</v>
+        <v>-204300</v>
       </c>
       <c r="G76" s="3">
-        <v>-171800</v>
+        <v>-175400</v>
       </c>
       <c r="H76" s="3">
-        <v>-107200</v>
+        <v>-109400</v>
       </c>
       <c r="I76" s="3">
-        <v>-34300</v>
+        <v>-35100</v>
       </c>
       <c r="J76" s="3">
-        <v>74800</v>
+        <v>76400</v>
       </c>
       <c r="K76" s="3">
         <v>130500</v>
@@ -4545,25 +4545,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-12000</v>
+        <v>-12300</v>
       </c>
       <c r="E81" s="3">
-        <v>-43000</v>
+        <v>-43900</v>
       </c>
       <c r="F81" s="3">
-        <v>-35800</v>
+        <v>-36600</v>
       </c>
       <c r="G81" s="3">
-        <v>-83000</v>
+        <v>-84800</v>
       </c>
       <c r="H81" s="3">
-        <v>-86000</v>
+        <v>-87800</v>
       </c>
       <c r="I81" s="3">
-        <v>-136300</v>
+        <v>-139100</v>
       </c>
       <c r="J81" s="3">
-        <v>-86200</v>
+        <v>-88000</v>
       </c>
       <c r="K81" s="3">
         <v>-105000</v>

--- a/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>QTT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>203200</v>
+        <v>198800</v>
       </c>
       <c r="E8" s="3">
-        <v>176300</v>
+        <v>200500</v>
       </c>
       <c r="F8" s="3">
-        <v>224800</v>
+        <v>174000</v>
       </c>
       <c r="G8" s="3">
-        <v>220300</v>
+        <v>221900</v>
       </c>
       <c r="H8" s="3">
-        <v>258700</v>
+        <v>217400</v>
       </c>
       <c r="I8" s="3">
-        <v>219500</v>
+        <v>255400</v>
       </c>
       <c r="J8" s="3">
+        <v>216600</v>
+      </c>
+      <c r="K8" s="3">
         <v>216200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>170200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>201900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>141900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>67400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>37400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>23400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>68900</v>
+        <v>58700</v>
       </c>
       <c r="E9" s="3">
-        <v>58000</v>
+        <v>68000</v>
       </c>
       <c r="F9" s="3">
-        <v>62400</v>
+        <v>57200</v>
       </c>
       <c r="G9" s="3">
-        <v>71900</v>
+        <v>61600</v>
       </c>
       <c r="H9" s="3">
-        <v>78600</v>
+        <v>70900</v>
       </c>
       <c r="I9" s="3">
-        <v>77400</v>
+        <v>77600</v>
       </c>
       <c r="J9" s="3">
+        <v>76400</v>
+      </c>
+      <c r="K9" s="3">
         <v>56400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>42500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>31000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>134300</v>
+        <v>140100</v>
       </c>
       <c r="E10" s="3">
-        <v>118300</v>
+        <v>132500</v>
       </c>
       <c r="F10" s="3">
-        <v>162400</v>
+        <v>116800</v>
       </c>
       <c r="G10" s="3">
-        <v>148400</v>
+        <v>160300</v>
       </c>
       <c r="H10" s="3">
-        <v>180100</v>
+        <v>146400</v>
       </c>
       <c r="I10" s="3">
-        <v>142100</v>
+        <v>177800</v>
       </c>
       <c r="J10" s="3">
+        <v>140200</v>
+      </c>
+      <c r="K10" s="3">
         <v>159800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>127700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>170900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>119600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>55900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>30700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>20300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,58 +962,59 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>31200</v>
+        <v>28700</v>
       </c>
       <c r="E12" s="3">
-        <v>37900</v>
+        <v>30700</v>
       </c>
       <c r="F12" s="3">
-        <v>35000</v>
+        <v>37400</v>
       </c>
       <c r="G12" s="3">
-        <v>43800</v>
+        <v>34500</v>
       </c>
       <c r="H12" s="3">
-        <v>44900</v>
+        <v>43200</v>
       </c>
       <c r="I12" s="3">
-        <v>40800</v>
+        <v>44300</v>
       </c>
       <c r="J12" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K12" s="3">
         <v>34500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>19300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
-      </c>
-      <c r="S12" s="3">
-        <v>100</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,40 +1084,43 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F14" s="3">
         <v>-3700</v>
       </c>
-      <c r="E14" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-3900</v>
-      </c>
       <c r="G14" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-100</v>
       </c>
       <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>16</v>
+      <c r="M14" s="3">
+        <v>-100</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>16</v>
@@ -1108,8 +1128,8 @@
       <c r="O14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>217200</v>
+        <v>221500</v>
       </c>
       <c r="E17" s="3">
-        <v>215000</v>
+        <v>214400</v>
       </c>
       <c r="F17" s="3">
-        <v>254400</v>
+        <v>212200</v>
       </c>
       <c r="G17" s="3">
-        <v>299000</v>
+        <v>251100</v>
       </c>
       <c r="H17" s="3">
-        <v>345400</v>
+        <v>295100</v>
       </c>
       <c r="I17" s="3">
-        <v>359800</v>
+        <v>340900</v>
       </c>
       <c r="J17" s="3">
+        <v>355100</v>
+      </c>
+      <c r="K17" s="3">
         <v>305400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>276200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>265200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>293500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>98100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>77300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>45600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>25100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-14100</v>
+        <v>-22700</v>
       </c>
       <c r="E18" s="3">
-        <v>-38700</v>
+        <v>-13900</v>
       </c>
       <c r="F18" s="3">
-        <v>-29500</v>
+        <v>-38200</v>
       </c>
       <c r="G18" s="3">
-        <v>-78700</v>
+        <v>-29200</v>
       </c>
       <c r="H18" s="3">
-        <v>-86700</v>
+        <v>-77700</v>
       </c>
       <c r="I18" s="3">
-        <v>-140300</v>
+        <v>-85600</v>
       </c>
       <c r="J18" s="3">
+        <v>-138500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-89100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-106000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-63300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-151500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-30700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-43400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,47 +1379,48 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
-        <v>-3700</v>
-      </c>
       <c r="F20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-5000</v>
       </c>
-      <c r="G20" s="3">
-        <v>-4100</v>
-      </c>
       <c r="H20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1434,38 +1471,41 @@
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
         <v>-59700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>-29400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>-2400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,87 +1563,93 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-12800</v>
+        <v>-23000</v>
       </c>
       <c r="E23" s="3">
-        <v>-42400</v>
+        <v>-12700</v>
       </c>
       <c r="F23" s="3">
-        <v>-34600</v>
+        <v>-41800</v>
       </c>
       <c r="G23" s="3">
-        <v>-82800</v>
+        <v>-34100</v>
       </c>
       <c r="H23" s="3">
-        <v>-85000</v>
+        <v>-81700</v>
       </c>
       <c r="I23" s="3">
-        <v>-138700</v>
+        <v>-83900</v>
       </c>
       <c r="J23" s="3">
+        <v>-136900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-87700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-104800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-60600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-150100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-29600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-43400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
-        <v>100</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-100</v>
       </c>
       <c r="J24" s="3">
         <v>-100</v>
@@ -1615,7 +1661,7 @@
         <v>-100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-12800</v>
+        <v>-22900</v>
       </c>
       <c r="E26" s="3">
-        <v>-42000</v>
+        <v>-12600</v>
       </c>
       <c r="F26" s="3">
-        <v>-34600</v>
+        <v>-41500</v>
       </c>
       <c r="G26" s="3">
-        <v>-83000</v>
+        <v>-34200</v>
       </c>
       <c r="H26" s="3">
-        <v>-86000</v>
+        <v>-81900</v>
       </c>
       <c r="I26" s="3">
-        <v>-138600</v>
+        <v>-84900</v>
       </c>
       <c r="J26" s="3">
+        <v>-136800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-87600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-104700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-60500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-150100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-29600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-43400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-12300</v>
+        <v>-26900</v>
       </c>
       <c r="E27" s="3">
-        <v>-43900</v>
+        <v>-12100</v>
       </c>
       <c r="F27" s="3">
-        <v>-36600</v>
+        <v>-43300</v>
       </c>
       <c r="G27" s="3">
-        <v>-84800</v>
+        <v>-36100</v>
       </c>
       <c r="H27" s="3">
-        <v>-87800</v>
+        <v>-83700</v>
       </c>
       <c r="I27" s="3">
-        <v>-139100</v>
+        <v>-86700</v>
       </c>
       <c r="J27" s="3">
+        <v>-137300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-88000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-105000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-60600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-153200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-35800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-45800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,47 +2121,50 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
-        <v>3700</v>
-      </c>
       <c r="F32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G32" s="3">
         <v>5000</v>
       </c>
-      <c r="G32" s="3">
-        <v>4100</v>
-      </c>
       <c r="H32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2113,67 +2183,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-12300</v>
+        <v>-26900</v>
       </c>
       <c r="E33" s="3">
-        <v>-43900</v>
+        <v>-12100</v>
       </c>
       <c r="F33" s="3">
-        <v>-36600</v>
+        <v>-43300</v>
       </c>
       <c r="G33" s="3">
-        <v>-84800</v>
+        <v>-36100</v>
       </c>
       <c r="H33" s="3">
-        <v>-87800</v>
+        <v>-83700</v>
       </c>
       <c r="I33" s="3">
-        <v>-139100</v>
+        <v>-86700</v>
       </c>
       <c r="J33" s="3">
+        <v>-137300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-88000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-105000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-60600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-153200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-35800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-45800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-12300</v>
+        <v>-26900</v>
       </c>
       <c r="E35" s="3">
-        <v>-43900</v>
+        <v>-12100</v>
       </c>
       <c r="F35" s="3">
-        <v>-36600</v>
+        <v>-43300</v>
       </c>
       <c r="G35" s="3">
-        <v>-84800</v>
+        <v>-36100</v>
       </c>
       <c r="H35" s="3">
-        <v>-87800</v>
+        <v>-83700</v>
       </c>
       <c r="I35" s="3">
-        <v>-139100</v>
+        <v>-86700</v>
       </c>
       <c r="J35" s="3">
+        <v>-137300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-88000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-105000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-60600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-153200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-35800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-45800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,47 +2486,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>77100</v>
+        <v>112400</v>
       </c>
       <c r="E41" s="3">
-        <v>40600</v>
+        <v>76100</v>
       </c>
       <c r="F41" s="3">
-        <v>25000</v>
+        <v>40100</v>
       </c>
       <c r="G41" s="3">
-        <v>29600</v>
+        <v>24700</v>
       </c>
       <c r="H41" s="3">
-        <v>54300</v>
+        <v>29200</v>
       </c>
       <c r="I41" s="3">
-        <v>82000</v>
+        <v>53600</v>
       </c>
       <c r="J41" s="3">
+        <v>80900</v>
+      </c>
+      <c r="K41" s="3">
         <v>328200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>206600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>332600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>337700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>247200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2459,47 +2546,50 @@
       <c r="U41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>61000</v>
+        <v>42200</v>
       </c>
       <c r="E42" s="3">
-        <v>29600</v>
+        <v>60200</v>
       </c>
       <c r="F42" s="3">
-        <v>112000</v>
+        <v>29200</v>
       </c>
       <c r="G42" s="3">
-        <v>146400</v>
+        <v>110500</v>
       </c>
       <c r="H42" s="3">
-        <v>199200</v>
+        <v>144500</v>
       </c>
       <c r="I42" s="3">
-        <v>248800</v>
+        <v>196600</v>
       </c>
       <c r="J42" s="3">
+        <v>245500</v>
+      </c>
+      <c r="K42" s="3">
         <v>28700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>42700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>17600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>22000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1400</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2518,47 +2608,50 @@
       <c r="U42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>174900</v>
+        <v>187800</v>
       </c>
       <c r="E43" s="3">
-        <v>159900</v>
+        <v>172700</v>
       </c>
       <c r="F43" s="3">
-        <v>124100</v>
+        <v>157800</v>
       </c>
       <c r="G43" s="3">
-        <v>133000</v>
+        <v>122500</v>
       </c>
       <c r="H43" s="3">
-        <v>125600</v>
+        <v>131200</v>
       </c>
       <c r="I43" s="3">
-        <v>76900</v>
+        <v>124000</v>
       </c>
       <c r="J43" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K43" s="3">
         <v>80300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>42600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>34200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5500</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,47 +2732,50 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>72600</v>
+        <v>64800</v>
       </c>
       <c r="E45" s="3">
-        <v>38300</v>
+        <v>71700</v>
       </c>
       <c r="F45" s="3">
-        <v>35800</v>
+        <v>37800</v>
       </c>
       <c r="G45" s="3">
-        <v>29600</v>
+        <v>35300</v>
       </c>
       <c r="H45" s="3">
-        <v>41000</v>
+        <v>29200</v>
       </c>
       <c r="I45" s="3">
-        <v>37300</v>
+        <v>40400</v>
       </c>
       <c r="J45" s="3">
+        <v>36900</v>
+      </c>
+      <c r="K45" s="3">
         <v>22200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>27300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8000</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2695,47 +2794,50 @@
       <c r="U45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>385700</v>
+        <v>407200</v>
       </c>
       <c r="E46" s="3">
-        <v>268300</v>
+        <v>380700</v>
       </c>
       <c r="F46" s="3">
-        <v>296900</v>
+        <v>264800</v>
       </c>
       <c r="G46" s="3">
-        <v>338600</v>
+        <v>293100</v>
       </c>
       <c r="H46" s="3">
-        <v>420000</v>
+        <v>334200</v>
       </c>
       <c r="I46" s="3">
-        <v>445000</v>
+        <v>414500</v>
       </c>
       <c r="J46" s="3">
+        <v>439200</v>
+      </c>
+      <c r="K46" s="3">
         <v>459400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>309000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>399500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>393300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>262200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2754,38 +2856,41 @@
       <c r="U46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>21500</v>
+        <v>17600</v>
       </c>
       <c r="E47" s="3">
-        <v>12900</v>
+        <v>21200</v>
       </c>
       <c r="F47" s="3">
-        <v>15600</v>
+        <v>12700</v>
       </c>
       <c r="G47" s="3">
-        <v>19500</v>
+        <v>15400</v>
       </c>
       <c r="H47" s="3">
-        <v>5900</v>
+        <v>19300</v>
       </c>
       <c r="I47" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="J47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K47" s="3">
         <v>5100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2795,8 +2900,8 @@
       <c r="O47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2813,47 +2918,50 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33600</v>
+        <v>9100</v>
       </c>
       <c r="E48" s="3">
-        <v>31200</v>
+        <v>33200</v>
       </c>
       <c r="F48" s="3">
-        <v>12300</v>
+        <v>30800</v>
       </c>
       <c r="G48" s="3">
-        <v>14800</v>
+        <v>12200</v>
       </c>
       <c r="H48" s="3">
-        <v>17800</v>
+        <v>14600</v>
       </c>
       <c r="I48" s="3">
-        <v>21200</v>
+        <v>17600</v>
       </c>
       <c r="J48" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K48" s="3">
         <v>17300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2872,47 +2980,50 @@
       <c r="U48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14100</v>
+        <v>33200</v>
       </c>
       <c r="E49" s="3">
-        <v>14600</v>
+        <v>13900</v>
       </c>
       <c r="F49" s="3">
-        <v>15200</v>
+        <v>14400</v>
       </c>
       <c r="G49" s="3">
-        <v>14600</v>
+        <v>15000</v>
       </c>
       <c r="H49" s="3">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="I49" s="3">
+        <v>14800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K49" s="3">
+        <v>15500</v>
+      </c>
+      <c r="L49" s="3">
         <v>15100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>15500</v>
       </c>
-      <c r="K49" s="3">
-        <v>15100</v>
-      </c>
-      <c r="L49" s="3">
-        <v>15500</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3075,21 +3195,21 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="3">
         <v>1600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O52" s="3">
         <v>7500</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,47 +3290,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>454900</v>
+        <v>467100</v>
       </c>
       <c r="E54" s="3">
-        <v>327100</v>
+        <v>449000</v>
       </c>
       <c r="F54" s="3">
-        <v>340100</v>
+        <v>322800</v>
       </c>
       <c r="G54" s="3">
-        <v>387500</v>
+        <v>335600</v>
       </c>
       <c r="H54" s="3">
-        <v>458700</v>
+        <v>382500</v>
       </c>
       <c r="I54" s="3">
-        <v>486900</v>
+        <v>452700</v>
       </c>
       <c r="J54" s="3">
+        <v>480500</v>
+      </c>
+      <c r="K54" s="3">
         <v>497200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>336700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>418700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>403100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>271900</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,47 +3402,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>72100</v>
+        <v>71000</v>
       </c>
       <c r="E57" s="3">
-        <v>61800</v>
+        <v>71100</v>
       </c>
       <c r="F57" s="3">
-        <v>57800</v>
+        <v>61000</v>
       </c>
       <c r="G57" s="3">
-        <v>64500</v>
+        <v>57100</v>
       </c>
       <c r="H57" s="3">
-        <v>51200</v>
+        <v>63600</v>
       </c>
       <c r="I57" s="3">
-        <v>44600</v>
+        <v>50500</v>
       </c>
       <c r="J57" s="3">
+        <v>44000</v>
+      </c>
+      <c r="K57" s="3">
         <v>40800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>24400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3331,20 +3462,23 @@
       <c r="U57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10900</v>
+        <v>7700</v>
       </c>
       <c r="E58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F58" s="3">
         <v>3100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3357,8 +3491,8 @@
       <c r="J58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3390,47 +3524,50 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>211200</v>
+        <v>237500</v>
       </c>
       <c r="E59" s="3">
-        <v>205600</v>
+        <v>208500</v>
       </c>
       <c r="F59" s="3">
-        <v>203000</v>
+        <v>202900</v>
       </c>
       <c r="G59" s="3">
-        <v>217100</v>
+        <v>200300</v>
       </c>
       <c r="H59" s="3">
-        <v>241400</v>
+        <v>214300</v>
       </c>
       <c r="I59" s="3">
-        <v>199900</v>
+        <v>238300</v>
       </c>
       <c r="J59" s="3">
+        <v>197300</v>
+      </c>
+      <c r="K59" s="3">
         <v>168000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>155500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>149000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>116900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>73100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3449,47 +3586,50 @@
       <c r="U59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>294200</v>
+        <v>316300</v>
       </c>
       <c r="E60" s="3">
-        <v>270500</v>
+        <v>290400</v>
       </c>
       <c r="F60" s="3">
-        <v>260800</v>
+        <v>267000</v>
       </c>
       <c r="G60" s="3">
-        <v>281600</v>
+        <v>257400</v>
       </c>
       <c r="H60" s="3">
-        <v>292600</v>
+        <v>278000</v>
       </c>
       <c r="I60" s="3">
-        <v>244500</v>
+        <v>288800</v>
       </c>
       <c r="J60" s="3">
+        <v>241300</v>
+      </c>
+      <c r="K60" s="3">
         <v>208800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>179900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>169000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>130000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>76300</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3508,35 +3648,38 @@
       <c r="U60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>183500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>180900</v>
+      </c>
+      <c r="F61" s="3">
+        <v>187400</v>
+      </c>
+      <c r="G61" s="3">
+        <v>193300</v>
+      </c>
+      <c r="H61" s="3">
+        <v>192000</v>
+      </c>
+      <c r="I61" s="3">
+        <v>187700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>188900</v>
+      </c>
+      <c r="K61" s="3">
         <v>183300</v>
       </c>
-      <c r="E61" s="3">
-        <v>189900</v>
-      </c>
-      <c r="F61" s="3">
-        <v>195900</v>
-      </c>
-      <c r="G61" s="3">
-        <v>194600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>190200</v>
-      </c>
-      <c r="I61" s="3">
-        <v>191300</v>
-      </c>
-      <c r="J61" s="3">
-        <v>183300</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3567,41 +3710,44 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7300</v>
+        <v>6200</v>
       </c>
       <c r="E62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I62" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K62" s="3">
+        <v>9000</v>
+      </c>
+      <c r="L62" s="3">
+        <v>8000</v>
+      </c>
+      <c r="M62" s="3">
         <v>5100</v>
       </c>
-      <c r="F62" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>7000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>8600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>9000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>8000</v>
-      </c>
-      <c r="L62" s="3">
-        <v>5100</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3617,8 +3763,8 @@
       <c r="R62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,47 +3958,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>654700</v>
+        <v>678800</v>
       </c>
       <c r="E66" s="3">
-        <v>545900</v>
+        <v>646200</v>
       </c>
       <c r="F66" s="3">
-        <v>544400</v>
+        <v>538800</v>
       </c>
       <c r="G66" s="3">
-        <v>562900</v>
+        <v>537300</v>
       </c>
       <c r="H66" s="3">
-        <v>568100</v>
+        <v>555600</v>
       </c>
       <c r="I66" s="3">
-        <v>521900</v>
+        <v>560700</v>
       </c>
       <c r="J66" s="3">
+        <v>515200</v>
+      </c>
+      <c r="K66" s="3">
         <v>420800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>206200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>188300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>129600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>76300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4039,11 +4207,11 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>266900</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,47 +4292,50 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-937200</v>
+        <v>-951900</v>
       </c>
       <c r="E72" s="3">
-        <v>-924900</v>
+        <v>-925000</v>
       </c>
       <c r="F72" s="3">
-        <v>-881000</v>
+        <v>-912900</v>
       </c>
       <c r="G72" s="3">
-        <v>-844500</v>
+        <v>-869500</v>
       </c>
       <c r="H72" s="3">
-        <v>-758600</v>
+        <v>-833500</v>
       </c>
       <c r="I72" s="3">
-        <v>-670800</v>
+        <v>-748700</v>
       </c>
       <c r="J72" s="3">
+        <v>-662100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-531700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-432600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-327600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-254800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-97900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,47 +4540,50 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-199800</v>
+        <v>-211700</v>
       </c>
       <c r="E76" s="3">
-        <v>-218800</v>
+        <v>-197200</v>
       </c>
       <c r="F76" s="3">
-        <v>-204300</v>
+        <v>-216000</v>
       </c>
       <c r="G76" s="3">
-        <v>-175400</v>
+        <v>-201600</v>
       </c>
       <c r="H76" s="3">
-        <v>-109400</v>
+        <v>-173100</v>
       </c>
       <c r="I76" s="3">
-        <v>-35100</v>
+        <v>-108000</v>
       </c>
       <c r="J76" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="K76" s="3">
         <v>76400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>130500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>230400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>273500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-71300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-12300</v>
+        <v>-26900</v>
       </c>
       <c r="E81" s="3">
-        <v>-43900</v>
+        <v>-12100</v>
       </c>
       <c r="F81" s="3">
-        <v>-36600</v>
+        <v>-43300</v>
       </c>
       <c r="G81" s="3">
-        <v>-84800</v>
+        <v>-36100</v>
       </c>
       <c r="H81" s="3">
-        <v>-87800</v>
+        <v>-83700</v>
       </c>
       <c r="I81" s="3">
-        <v>-139100</v>
+        <v>-86700</v>
       </c>
       <c r="J81" s="3">
+        <v>-137300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-88000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-105000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-60600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-153200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-35800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-45800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>QTT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>198800</v>
+        <v>188200</v>
       </c>
       <c r="E8" s="3">
-        <v>200500</v>
+        <v>202100</v>
       </c>
       <c r="F8" s="3">
-        <v>174000</v>
+        <v>203900</v>
       </c>
       <c r="G8" s="3">
-        <v>221900</v>
+        <v>176900</v>
       </c>
       <c r="H8" s="3">
-        <v>217400</v>
+        <v>225600</v>
       </c>
       <c r="I8" s="3">
-        <v>255400</v>
+        <v>221000</v>
       </c>
       <c r="J8" s="3">
+        <v>259600</v>
+      </c>
+      <c r="K8" s="3">
         <v>216600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>216200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>170200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>201900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>141900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>67400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>33900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>37400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>23400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>58700</v>
+        <v>51300</v>
       </c>
       <c r="E9" s="3">
-        <v>68000</v>
+        <v>59700</v>
       </c>
       <c r="F9" s="3">
-        <v>57200</v>
+        <v>69200</v>
       </c>
       <c r="G9" s="3">
-        <v>61600</v>
+        <v>58200</v>
       </c>
       <c r="H9" s="3">
-        <v>70900</v>
+        <v>62700</v>
       </c>
       <c r="I9" s="3">
-        <v>77600</v>
+        <v>72100</v>
       </c>
       <c r="J9" s="3">
+        <v>78900</v>
+      </c>
+      <c r="K9" s="3">
         <v>76400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>56400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>42500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>31000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>140100</v>
+        <v>136900</v>
       </c>
       <c r="E10" s="3">
-        <v>132500</v>
+        <v>142400</v>
       </c>
       <c r="F10" s="3">
-        <v>116800</v>
+        <v>134800</v>
       </c>
       <c r="G10" s="3">
-        <v>160300</v>
+        <v>118700</v>
       </c>
       <c r="H10" s="3">
-        <v>146400</v>
+        <v>162900</v>
       </c>
       <c r="I10" s="3">
-        <v>177800</v>
+        <v>148900</v>
       </c>
       <c r="J10" s="3">
+        <v>180700</v>
+      </c>
+      <c r="K10" s="3">
         <v>140200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>159800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>127700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>170900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>119600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>55900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>30700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>20300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,61 +976,62 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>28700</v>
+        <v>21300</v>
       </c>
       <c r="E12" s="3">
-        <v>30700</v>
+        <v>29200</v>
       </c>
       <c r="F12" s="3">
-        <v>37400</v>
+        <v>31300</v>
       </c>
       <c r="G12" s="3">
+        <v>38100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>35100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>44000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>45100</v>
+      </c>
+      <c r="K12" s="3">
+        <v>40300</v>
+      </c>
+      <c r="L12" s="3">
         <v>34500</v>
       </c>
-      <c r="H12" s="3">
-        <v>43200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>44300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>40300</v>
-      </c>
-      <c r="K12" s="3">
-        <v>34500</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>19300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>300</v>
-      </c>
-      <c r="T12" s="3">
-        <v>100</v>
       </c>
       <c r="U12" s="3">
         <v>100</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,43 +1104,46 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-4900</v>
+        <v>-5100</v>
       </c>
       <c r="E14" s="3">
-        <v>-3600</v>
+        <v>-5000</v>
       </c>
       <c r="F14" s="3">
         <v>-3700</v>
       </c>
       <c r="G14" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="H14" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1700</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-100</v>
       </c>
       <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>16</v>
+      <c r="N14" s="3">
+        <v>-100</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>16</v>
@@ -1131,8 +1151,8 @@
       <c r="P14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>221500</v>
+        <v>223200</v>
       </c>
       <c r="E17" s="3">
-        <v>214400</v>
+        <v>225200</v>
       </c>
       <c r="F17" s="3">
-        <v>212200</v>
+        <v>218000</v>
       </c>
       <c r="G17" s="3">
-        <v>251100</v>
+        <v>215700</v>
       </c>
       <c r="H17" s="3">
-        <v>295100</v>
+        <v>255300</v>
       </c>
       <c r="I17" s="3">
-        <v>340900</v>
+        <v>300100</v>
       </c>
       <c r="J17" s="3">
+        <v>346600</v>
+      </c>
+      <c r="K17" s="3">
         <v>355100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>305400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>276200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>265200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>293500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>98100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>77300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>45600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>25100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-22700</v>
+        <v>-35100</v>
       </c>
       <c r="E18" s="3">
-        <v>-13900</v>
+        <v>-23100</v>
       </c>
       <c r="F18" s="3">
-        <v>-38200</v>
+        <v>-14100</v>
       </c>
       <c r="G18" s="3">
-        <v>-29200</v>
+        <v>-38800</v>
       </c>
       <c r="H18" s="3">
-        <v>-77700</v>
+        <v>-29700</v>
       </c>
       <c r="I18" s="3">
-        <v>-85600</v>
+        <v>-79000</v>
       </c>
       <c r="J18" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-138500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-89100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-106000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-63300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-151500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-30700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-43400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,50 +1413,51 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
-        <v>-3600</v>
-      </c>
       <c r="G20" s="3">
-        <v>-5000</v>
+        <v>-3700</v>
       </c>
       <c r="H20" s="3">
-        <v>-4000</v>
+        <v>-5100</v>
       </c>
       <c r="I20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1474,38 +1511,41 @@
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>-59700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3">
         <v>-29400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>-8100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3">
         <v>-2400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-23000</v>
+        <v>-32800</v>
       </c>
       <c r="E23" s="3">
-        <v>-12700</v>
+        <v>-23400</v>
       </c>
       <c r="F23" s="3">
-        <v>-41800</v>
+        <v>-12900</v>
       </c>
       <c r="G23" s="3">
-        <v>-34100</v>
+        <v>-42500</v>
       </c>
       <c r="H23" s="3">
-        <v>-81700</v>
+        <v>-34700</v>
       </c>
       <c r="I23" s="3">
-        <v>-83900</v>
+        <v>-83100</v>
       </c>
       <c r="J23" s="3">
+        <v>-85300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-136900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-87700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-104800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-60600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-150100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-29600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-43400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1637,22 +1683,22 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-100</v>
       </c>
       <c r="K24" s="3">
         <v>-100</v>
@@ -1664,7 +1710,7 @@
         <v>-100</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-22900</v>
+        <v>-32800</v>
       </c>
       <c r="E26" s="3">
-        <v>-12600</v>
+        <v>-23300</v>
       </c>
       <c r="F26" s="3">
-        <v>-41500</v>
+        <v>-12800</v>
       </c>
       <c r="G26" s="3">
-        <v>-34200</v>
+        <v>-42200</v>
       </c>
       <c r="H26" s="3">
-        <v>-81900</v>
+        <v>-34800</v>
       </c>
       <c r="I26" s="3">
-        <v>-84900</v>
+        <v>-83300</v>
       </c>
       <c r="J26" s="3">
+        <v>-86300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-136800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-87600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-104700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-60500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-150100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-29600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-43400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-26900</v>
+        <v>-37000</v>
       </c>
       <c r="E27" s="3">
-        <v>-12100</v>
+        <v>-27400</v>
       </c>
       <c r="F27" s="3">
-        <v>-43300</v>
+        <v>-12300</v>
       </c>
       <c r="G27" s="3">
-        <v>-36100</v>
+        <v>-44100</v>
       </c>
       <c r="H27" s="3">
-        <v>-83700</v>
+        <v>-36700</v>
       </c>
       <c r="I27" s="3">
-        <v>-86700</v>
+        <v>-85100</v>
       </c>
       <c r="J27" s="3">
+        <v>-88100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-137300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-88000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-105000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-60600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-153200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-35800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-45800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,50 +2191,53 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
-        <v>3600</v>
-      </c>
       <c r="G32" s="3">
-        <v>5000</v>
+        <v>3700</v>
       </c>
       <c r="H32" s="3">
-        <v>4000</v>
+        <v>5100</v>
       </c>
       <c r="I32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-26900</v>
+        <v>-37000</v>
       </c>
       <c r="E33" s="3">
-        <v>-12100</v>
+        <v>-27400</v>
       </c>
       <c r="F33" s="3">
-        <v>-43300</v>
+        <v>-12300</v>
       </c>
       <c r="G33" s="3">
-        <v>-36100</v>
+        <v>-44100</v>
       </c>
       <c r="H33" s="3">
-        <v>-83700</v>
+        <v>-36700</v>
       </c>
       <c r="I33" s="3">
-        <v>-86700</v>
+        <v>-85100</v>
       </c>
       <c r="J33" s="3">
+        <v>-88100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-137300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-88000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-105000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-60600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-153200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-35800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-45800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-26900</v>
+        <v>-37000</v>
       </c>
       <c r="E35" s="3">
-        <v>-12100</v>
+        <v>-27400</v>
       </c>
       <c r="F35" s="3">
-        <v>-43300</v>
+        <v>-12300</v>
       </c>
       <c r="G35" s="3">
-        <v>-36100</v>
+        <v>-44100</v>
       </c>
       <c r="H35" s="3">
-        <v>-83700</v>
+        <v>-36700</v>
       </c>
       <c r="I35" s="3">
-        <v>-86700</v>
+        <v>-85100</v>
       </c>
       <c r="J35" s="3">
+        <v>-88100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-137300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-88000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-105000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-60600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-153200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-35800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-45800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,50 +2573,51 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>112400</v>
+        <v>62600</v>
       </c>
       <c r="E41" s="3">
-        <v>76100</v>
+        <v>114300</v>
       </c>
       <c r="F41" s="3">
-        <v>40100</v>
+        <v>77400</v>
       </c>
       <c r="G41" s="3">
-        <v>24700</v>
+        <v>40700</v>
       </c>
       <c r="H41" s="3">
-        <v>29200</v>
+        <v>25100</v>
       </c>
       <c r="I41" s="3">
-        <v>53600</v>
+        <v>29700</v>
       </c>
       <c r="J41" s="3">
+        <v>54500</v>
+      </c>
+      <c r="K41" s="3">
         <v>80900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>328200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>206600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>332600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>337700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>247200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2549,50 +2636,53 @@
       <c r="V41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>42200</v>
+        <v>91200</v>
       </c>
       <c r="E42" s="3">
-        <v>60200</v>
+        <v>42900</v>
       </c>
       <c r="F42" s="3">
-        <v>29200</v>
+        <v>61200</v>
       </c>
       <c r="G42" s="3">
-        <v>110500</v>
+        <v>29700</v>
       </c>
       <c r="H42" s="3">
-        <v>144500</v>
+        <v>112400</v>
       </c>
       <c r="I42" s="3">
-        <v>196600</v>
+        <v>146900</v>
       </c>
       <c r="J42" s="3">
+        <v>199900</v>
+      </c>
+      <c r="K42" s="3">
         <v>245500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>28700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>42700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>17600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>22000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1400</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2611,50 +2701,53 @@
       <c r="V42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>187800</v>
+        <v>201400</v>
       </c>
       <c r="E43" s="3">
-        <v>172700</v>
+        <v>190900</v>
       </c>
       <c r="F43" s="3">
-        <v>157800</v>
+        <v>175600</v>
       </c>
       <c r="G43" s="3">
-        <v>122500</v>
+        <v>160400</v>
       </c>
       <c r="H43" s="3">
-        <v>131200</v>
+        <v>124600</v>
       </c>
       <c r="I43" s="3">
-        <v>124000</v>
+        <v>133400</v>
       </c>
       <c r="J43" s="3">
+        <v>126000</v>
+      </c>
+      <c r="K43" s="3">
         <v>75900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>80300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>42600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>34200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5500</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,50 +2831,53 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>64800</v>
+        <v>48400</v>
       </c>
       <c r="E45" s="3">
-        <v>71700</v>
+        <v>65900</v>
       </c>
       <c r="F45" s="3">
-        <v>37800</v>
+        <v>72900</v>
       </c>
       <c r="G45" s="3">
-        <v>35300</v>
+        <v>38400</v>
       </c>
       <c r="H45" s="3">
-        <v>29200</v>
+        <v>35900</v>
       </c>
       <c r="I45" s="3">
-        <v>40400</v>
+        <v>29700</v>
       </c>
       <c r="J45" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K45" s="3">
         <v>36900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>27300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8000</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2797,50 +2896,53 @@
       <c r="V45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>407200</v>
+        <v>403600</v>
       </c>
       <c r="E46" s="3">
-        <v>380700</v>
+        <v>414000</v>
       </c>
       <c r="F46" s="3">
-        <v>264800</v>
+        <v>387100</v>
       </c>
       <c r="G46" s="3">
-        <v>293100</v>
+        <v>269300</v>
       </c>
       <c r="H46" s="3">
-        <v>334200</v>
+        <v>298000</v>
       </c>
       <c r="I46" s="3">
-        <v>414500</v>
+        <v>339800</v>
       </c>
       <c r="J46" s="3">
+        <v>421500</v>
+      </c>
+      <c r="K46" s="3">
         <v>439200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>459400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>309000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>399500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>393300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>262200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2859,41 +2961,44 @@
       <c r="V46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17600</v>
+        <v>16900</v>
       </c>
       <c r="E47" s="3">
-        <v>21200</v>
+        <v>17900</v>
       </c>
       <c r="F47" s="3">
-        <v>12700</v>
+        <v>21500</v>
       </c>
       <c r="G47" s="3">
-        <v>15400</v>
+        <v>12900</v>
       </c>
       <c r="H47" s="3">
-        <v>19300</v>
+        <v>15700</v>
       </c>
       <c r="I47" s="3">
-        <v>5800</v>
+        <v>19600</v>
       </c>
       <c r="J47" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K47" s="3">
         <v>5500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2903,8 +3008,8 @@
       <c r="P47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2921,50 +3026,53 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9100</v>
+        <v>7500</v>
       </c>
       <c r="E48" s="3">
-        <v>33200</v>
+        <v>7800</v>
       </c>
       <c r="F48" s="3">
-        <v>30800</v>
+        <v>10600</v>
       </c>
       <c r="G48" s="3">
-        <v>12200</v>
+        <v>8100</v>
       </c>
       <c r="H48" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>11600</v>
+      </c>
+      <c r="J48" s="3">
         <v>14600</v>
       </c>
-      <c r="I48" s="3">
-        <v>17600</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>20900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2983,50 +3091,53 @@
       <c r="V48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>33200</v>
+        <v>31500</v>
       </c>
       <c r="E49" s="3">
-        <v>13900</v>
+        <v>33800</v>
       </c>
       <c r="F49" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="G49" s="3">
-        <v>15000</v>
+        <v>14700</v>
       </c>
       <c r="H49" s="3">
-        <v>14400</v>
+        <v>15200</v>
       </c>
       <c r="I49" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="J49" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K49" s="3">
         <v>14900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,50 +3286,53 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>23200</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>23200</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N52" s="3">
         <v>1600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P52" s="3">
         <v>7500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,50 +3416,53 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>467100</v>
+        <v>460400</v>
       </c>
       <c r="E54" s="3">
-        <v>449000</v>
+        <v>474900</v>
       </c>
       <c r="F54" s="3">
-        <v>322800</v>
+        <v>456500</v>
       </c>
       <c r="G54" s="3">
-        <v>335600</v>
+        <v>328200</v>
       </c>
       <c r="H54" s="3">
-        <v>382500</v>
+        <v>341300</v>
       </c>
       <c r="I54" s="3">
-        <v>452700</v>
+        <v>388900</v>
       </c>
       <c r="J54" s="3">
+        <v>460300</v>
+      </c>
+      <c r="K54" s="3">
         <v>480500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>497200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>336700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>418700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>403100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>271900</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,50 +3533,51 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>71000</v>
+        <v>64200</v>
       </c>
       <c r="E57" s="3">
-        <v>71100</v>
+        <v>72200</v>
       </c>
       <c r="F57" s="3">
-        <v>61000</v>
+        <v>72300</v>
       </c>
       <c r="G57" s="3">
-        <v>57100</v>
+        <v>62000</v>
       </c>
       <c r="H57" s="3">
-        <v>63600</v>
+        <v>58000</v>
       </c>
       <c r="I57" s="3">
-        <v>50500</v>
+        <v>64700</v>
       </c>
       <c r="J57" s="3">
+        <v>51400</v>
+      </c>
+      <c r="K57" s="3">
         <v>44000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>40800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>24400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3465,23 +3596,26 @@
       <c r="V57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7700</v>
+        <v>184800</v>
       </c>
       <c r="E58" s="3">
-        <v>10800</v>
+        <v>7800</v>
       </c>
       <c r="F58" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G58" s="3">
         <v>3100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3494,8 +3628,8 @@
       <c r="K58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3527,50 +3661,53 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>237500</v>
+        <v>272700</v>
       </c>
       <c r="E59" s="3">
-        <v>208500</v>
+        <v>241500</v>
       </c>
       <c r="F59" s="3">
-        <v>202900</v>
+        <v>212000</v>
       </c>
       <c r="G59" s="3">
-        <v>200300</v>
+        <v>206300</v>
       </c>
       <c r="H59" s="3">
-        <v>214300</v>
+        <v>203700</v>
       </c>
       <c r="I59" s="3">
-        <v>238300</v>
+        <v>217900</v>
       </c>
       <c r="J59" s="3">
+        <v>242300</v>
+      </c>
+      <c r="K59" s="3">
         <v>197300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>168000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>155500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>149000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>116900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>73100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3589,50 +3726,53 @@
       <c r="V59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>316300</v>
+        <v>521800</v>
       </c>
       <c r="E60" s="3">
-        <v>290400</v>
+        <v>321600</v>
       </c>
       <c r="F60" s="3">
-        <v>267000</v>
+        <v>295300</v>
       </c>
       <c r="G60" s="3">
-        <v>257400</v>
+        <v>271500</v>
       </c>
       <c r="H60" s="3">
-        <v>278000</v>
+        <v>261700</v>
       </c>
       <c r="I60" s="3">
-        <v>288800</v>
+        <v>282600</v>
       </c>
       <c r="J60" s="3">
+        <v>293700</v>
+      </c>
+      <c r="K60" s="3">
         <v>241300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>208800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>179900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>169000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>130000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>76300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3651,38 +3791,41 @@
       <c r="V60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>183500</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>180900</v>
+        <v>186600</v>
       </c>
       <c r="F61" s="3">
-        <v>187400</v>
+        <v>183900</v>
       </c>
       <c r="G61" s="3">
-        <v>193300</v>
+        <v>190500</v>
       </c>
       <c r="H61" s="3">
-        <v>192000</v>
+        <v>196600</v>
       </c>
       <c r="I61" s="3">
-        <v>187700</v>
+        <v>195300</v>
       </c>
       <c r="J61" s="3">
+        <v>190800</v>
+      </c>
+      <c r="K61" s="3">
         <v>188900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>183300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3713,44 +3856,47 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6200</v>
+        <v>5600</v>
       </c>
       <c r="E62" s="3">
-        <v>7200</v>
+        <v>6300</v>
       </c>
       <c r="F62" s="3">
-        <v>5000</v>
+        <v>7300</v>
       </c>
       <c r="G62" s="3">
-        <v>5900</v>
+        <v>5100</v>
       </c>
       <c r="H62" s="3">
-        <v>6900</v>
+        <v>6000</v>
       </c>
       <c r="I62" s="3">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="J62" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K62" s="3">
         <v>9900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3766,8 +3912,8 @@
       <c r="S62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,50 +4116,53 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>678800</v>
+        <v>704000</v>
       </c>
       <c r="E66" s="3">
-        <v>646200</v>
+        <v>690200</v>
       </c>
       <c r="F66" s="3">
-        <v>538800</v>
+        <v>657000</v>
       </c>
       <c r="G66" s="3">
-        <v>537300</v>
+        <v>547800</v>
       </c>
       <c r="H66" s="3">
-        <v>555600</v>
+        <v>546300</v>
       </c>
       <c r="I66" s="3">
-        <v>560700</v>
+        <v>564900</v>
       </c>
       <c r="J66" s="3">
+        <v>570100</v>
+      </c>
+      <c r="K66" s="3">
         <v>515200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>420800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>206200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>188300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>129600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>76300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4210,11 +4378,11 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>266900</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,50 +4466,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-951900</v>
+        <v>-1004800</v>
       </c>
       <c r="E72" s="3">
-        <v>-925000</v>
+        <v>-967900</v>
       </c>
       <c r="F72" s="3">
-        <v>-912900</v>
+        <v>-940500</v>
       </c>
       <c r="G72" s="3">
-        <v>-869500</v>
+        <v>-928200</v>
       </c>
       <c r="H72" s="3">
-        <v>-833500</v>
+        <v>-884100</v>
       </c>
       <c r="I72" s="3">
-        <v>-748700</v>
+        <v>-847400</v>
       </c>
       <c r="J72" s="3">
+        <v>-761300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-662100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-531700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-432600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-327600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-254800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-97900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,50 +4726,53 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-211700</v>
+        <v>-243500</v>
       </c>
       <c r="E76" s="3">
-        <v>-197200</v>
+        <v>-215300</v>
       </c>
       <c r="F76" s="3">
-        <v>-216000</v>
+        <v>-200500</v>
       </c>
       <c r="G76" s="3">
-        <v>-201600</v>
+        <v>-219600</v>
       </c>
       <c r="H76" s="3">
-        <v>-173100</v>
+        <v>-205000</v>
       </c>
       <c r="I76" s="3">
-        <v>-108000</v>
+        <v>-176000</v>
       </c>
       <c r="J76" s="3">
+        <v>-109800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-34600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>76400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>130500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>230400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>273500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-71300</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-26900</v>
+        <v>-37000</v>
       </c>
       <c r="E81" s="3">
-        <v>-12100</v>
+        <v>-27400</v>
       </c>
       <c r="F81" s="3">
-        <v>-43300</v>
+        <v>-12300</v>
       </c>
       <c r="G81" s="3">
-        <v>-36100</v>
+        <v>-44100</v>
       </c>
       <c r="H81" s="3">
-        <v>-83700</v>
+        <v>-36700</v>
       </c>
       <c r="I81" s="3">
-        <v>-86700</v>
+        <v>-85100</v>
       </c>
       <c r="J81" s="3">
+        <v>-88100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-137300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-88000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-105000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-60600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-153200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-35800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-45800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>QTT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>188200</v>
+        <v>152300</v>
       </c>
       <c r="E8" s="3">
-        <v>202100</v>
+        <v>189600</v>
       </c>
       <c r="F8" s="3">
-        <v>203900</v>
+        <v>203700</v>
       </c>
       <c r="G8" s="3">
-        <v>176900</v>
+        <v>205500</v>
       </c>
       <c r="H8" s="3">
-        <v>225600</v>
+        <v>178300</v>
       </c>
       <c r="I8" s="3">
-        <v>221000</v>
+        <v>227300</v>
       </c>
       <c r="J8" s="3">
+        <v>222700</v>
+      </c>
+      <c r="K8" s="3">
         <v>259600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>216600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>216200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>170200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>201900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>141900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>67400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>33900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>37400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>23400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>51300</v>
+        <v>42400</v>
       </c>
       <c r="E9" s="3">
-        <v>59700</v>
+        <v>51700</v>
       </c>
       <c r="F9" s="3">
-        <v>69200</v>
+        <v>60100</v>
       </c>
       <c r="G9" s="3">
-        <v>58200</v>
+        <v>69700</v>
       </c>
       <c r="H9" s="3">
-        <v>62700</v>
+        <v>58600</v>
       </c>
       <c r="I9" s="3">
-        <v>72100</v>
+        <v>63100</v>
       </c>
       <c r="J9" s="3">
+        <v>72700</v>
+      </c>
+      <c r="K9" s="3">
         <v>78900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>76400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>56400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>42500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>31000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>22300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>136900</v>
+        <v>109900</v>
       </c>
       <c r="E10" s="3">
-        <v>142400</v>
+        <v>137900</v>
       </c>
       <c r="F10" s="3">
-        <v>134800</v>
+        <v>143500</v>
       </c>
       <c r="G10" s="3">
-        <v>118700</v>
+        <v>135800</v>
       </c>
       <c r="H10" s="3">
-        <v>162900</v>
+        <v>119600</v>
       </c>
       <c r="I10" s="3">
-        <v>148900</v>
+        <v>164200</v>
       </c>
       <c r="J10" s="3">
+        <v>150000</v>
+      </c>
+      <c r="K10" s="3">
         <v>180700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>140200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>159800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>127700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>170900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>119600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>55900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>24700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>30700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>20300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>9500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,64 +990,65 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>21300</v>
+        <v>22100</v>
       </c>
       <c r="E12" s="3">
-        <v>29200</v>
+        <v>21500</v>
       </c>
       <c r="F12" s="3">
-        <v>31300</v>
+        <v>29500</v>
       </c>
       <c r="G12" s="3">
-        <v>38100</v>
+        <v>31500</v>
       </c>
       <c r="H12" s="3">
-        <v>35100</v>
+        <v>38400</v>
       </c>
       <c r="I12" s="3">
-        <v>44000</v>
+        <v>35400</v>
       </c>
       <c r="J12" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K12" s="3">
         <v>45100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>40300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>34500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>19300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>300</v>
-      </c>
-      <c r="U12" s="3">
-        <v>100</v>
       </c>
       <c r="V12" s="3">
         <v>100</v>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,46 +1124,49 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-5100</v>
+        <v>-3800</v>
       </c>
       <c r="E14" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F14" s="3">
         <v>-5000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-3700</v>
       </c>
       <c r="G14" s="3">
         <v>-3700</v>
       </c>
       <c r="H14" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I14" s="3">
         <v>-3900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1700</v>
-      </c>
-      <c r="M14" s="3">
-        <v>-100</v>
       </c>
       <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>16</v>
+      <c r="O14" s="3">
+        <v>-100</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>16</v>
@@ -1154,8 +1174,8 @@
       <c r="Q14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>223200</v>
+        <v>242900</v>
       </c>
       <c r="E17" s="3">
-        <v>225200</v>
+        <v>225000</v>
       </c>
       <c r="F17" s="3">
-        <v>218000</v>
+        <v>226900</v>
       </c>
       <c r="G17" s="3">
-        <v>215700</v>
+        <v>219700</v>
       </c>
       <c r="H17" s="3">
-        <v>255300</v>
+        <v>217400</v>
       </c>
       <c r="I17" s="3">
-        <v>300100</v>
+        <v>257200</v>
       </c>
       <c r="J17" s="3">
+        <v>302400</v>
+      </c>
+      <c r="K17" s="3">
         <v>346600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>355100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>305400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>276200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>265200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>293500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>98100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>77300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>45600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>25100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-35100</v>
+        <v>-90600</v>
       </c>
       <c r="E18" s="3">
-        <v>-23100</v>
+        <v>-35300</v>
       </c>
       <c r="F18" s="3">
-        <v>-14100</v>
+        <v>-23200</v>
       </c>
       <c r="G18" s="3">
-        <v>-38800</v>
+        <v>-14200</v>
       </c>
       <c r="H18" s="3">
-        <v>-29700</v>
+        <v>-39100</v>
       </c>
       <c r="I18" s="3">
-        <v>-79000</v>
+        <v>-29900</v>
       </c>
       <c r="J18" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-87000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-138500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-89100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-106000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-63300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-151500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-30700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-43400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,53 +1447,54 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1514,38 +1551,41 @@
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>-59700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-29400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>-8100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="3">
         <v>-2400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,99 +1649,105 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-32800</v>
+        <v>-91900</v>
       </c>
       <c r="E23" s="3">
-        <v>-23400</v>
+        <v>-33100</v>
       </c>
       <c r="F23" s="3">
-        <v>-12900</v>
+        <v>-23500</v>
       </c>
       <c r="G23" s="3">
-        <v>-42500</v>
+        <v>-13000</v>
       </c>
       <c r="H23" s="3">
-        <v>-34700</v>
+        <v>-42800</v>
       </c>
       <c r="I23" s="3">
-        <v>-83100</v>
+        <v>-35000</v>
       </c>
       <c r="J23" s="3">
+        <v>-83700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-85300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-136900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-87700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-104800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-60600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-150100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-29600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-43400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-100</v>
       </c>
       <c r="L24" s="3">
         <v>-100</v>
@@ -1713,7 +1759,7 @@
         <v>-100</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-32800</v>
+        <v>-92000</v>
       </c>
       <c r="E26" s="3">
-        <v>-23300</v>
+        <v>-33000</v>
       </c>
       <c r="F26" s="3">
-        <v>-12800</v>
+        <v>-23500</v>
       </c>
       <c r="G26" s="3">
-        <v>-42200</v>
+        <v>-12900</v>
       </c>
       <c r="H26" s="3">
-        <v>-34800</v>
+        <v>-42500</v>
       </c>
       <c r="I26" s="3">
-        <v>-83300</v>
+        <v>-35000</v>
       </c>
       <c r="J26" s="3">
+        <v>-83900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-86300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-136800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-87600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-104700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-60500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-150100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-29600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-43400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-96400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-37000</v>
       </c>
-      <c r="E27" s="3">
-        <v>-27400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-44100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-85100</v>
-      </c>
       <c r="J27" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-88100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-137300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-88000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-105000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-60600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-153200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-35800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-45800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,53 +2261,56 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>5100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-96400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-37000</v>
       </c>
-      <c r="E33" s="3">
-        <v>-27400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-44100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-85100</v>
-      </c>
       <c r="J33" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-88100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-137300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-88000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-105000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-60600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-153200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-35800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-45800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-96400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-37000</v>
       </c>
-      <c r="E35" s="3">
-        <v>-27400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-44100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-85100</v>
-      </c>
       <c r="J35" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-88100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-137300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-88000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-105000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-60600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-153200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-35800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-45800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,53 +2660,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>62600</v>
+        <v>34900</v>
       </c>
       <c r="E41" s="3">
-        <v>114300</v>
+        <v>63100</v>
       </c>
       <c r="F41" s="3">
-        <v>77400</v>
+        <v>115200</v>
       </c>
       <c r="G41" s="3">
-        <v>40700</v>
+        <v>78000</v>
       </c>
       <c r="H41" s="3">
-        <v>25100</v>
+        <v>41000</v>
       </c>
       <c r="I41" s="3">
-        <v>29700</v>
+        <v>25300</v>
       </c>
       <c r="J41" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K41" s="3">
         <v>54500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>80900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>328200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>206600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>332600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>337700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>247200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2639,53 +2726,56 @@
       <c r="W41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>91200</v>
+        <v>95400</v>
       </c>
       <c r="E42" s="3">
-        <v>42900</v>
+        <v>91900</v>
       </c>
       <c r="F42" s="3">
-        <v>61200</v>
+        <v>43300</v>
       </c>
       <c r="G42" s="3">
-        <v>29700</v>
+        <v>61700</v>
       </c>
       <c r="H42" s="3">
-        <v>112400</v>
+        <v>29900</v>
       </c>
       <c r="I42" s="3">
-        <v>146900</v>
+        <v>113300</v>
       </c>
       <c r="J42" s="3">
+        <v>148000</v>
+      </c>
+      <c r="K42" s="3">
         <v>199900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>245500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>28700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>42700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>17600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>22000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1400</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2704,53 +2794,56 @@
       <c r="W42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>201400</v>
+        <v>180700</v>
       </c>
       <c r="E43" s="3">
-        <v>190900</v>
+        <v>202900</v>
       </c>
       <c r="F43" s="3">
-        <v>175600</v>
+        <v>192400</v>
       </c>
       <c r="G43" s="3">
-        <v>160400</v>
+        <v>176900</v>
       </c>
       <c r="H43" s="3">
-        <v>124600</v>
+        <v>161700</v>
       </c>
       <c r="I43" s="3">
-        <v>133400</v>
+        <v>125500</v>
       </c>
       <c r="J43" s="3">
+        <v>134500</v>
+      </c>
+      <c r="K43" s="3">
         <v>126000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>75900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>80300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>42600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>34200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5500</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,53 +2930,56 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>48400</v>
+        <v>38600</v>
       </c>
       <c r="E45" s="3">
-        <v>65900</v>
+        <v>48700</v>
       </c>
       <c r="F45" s="3">
-        <v>72900</v>
+        <v>66400</v>
       </c>
       <c r="G45" s="3">
-        <v>38400</v>
+        <v>73400</v>
       </c>
       <c r="H45" s="3">
-        <v>35900</v>
+        <v>38700</v>
       </c>
       <c r="I45" s="3">
-        <v>29700</v>
+        <v>36200</v>
       </c>
       <c r="J45" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K45" s="3">
         <v>41100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>36900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>27300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8000</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2899,53 +2998,56 @@
       <c r="W45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>403600</v>
+        <v>349600</v>
       </c>
       <c r="E46" s="3">
-        <v>414000</v>
+        <v>406700</v>
       </c>
       <c r="F46" s="3">
-        <v>387100</v>
+        <v>417200</v>
       </c>
       <c r="G46" s="3">
-        <v>269300</v>
+        <v>390000</v>
       </c>
       <c r="H46" s="3">
-        <v>298000</v>
+        <v>271300</v>
       </c>
       <c r="I46" s="3">
-        <v>339800</v>
+        <v>300300</v>
       </c>
       <c r="J46" s="3">
+        <v>342400</v>
+      </c>
+      <c r="K46" s="3">
         <v>421500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>439200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>459400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>309000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>399500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>393300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>262200</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2964,44 +3066,47 @@
       <c r="W46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16900</v>
+        <v>13900</v>
       </c>
       <c r="E47" s="3">
-        <v>17900</v>
+        <v>17000</v>
       </c>
       <c r="F47" s="3">
-        <v>21500</v>
+        <v>18000</v>
       </c>
       <c r="G47" s="3">
-        <v>12900</v>
+        <v>21700</v>
       </c>
       <c r="H47" s="3">
-        <v>15700</v>
+        <v>13000</v>
       </c>
       <c r="I47" s="3">
-        <v>19600</v>
+        <v>15800</v>
       </c>
       <c r="J47" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K47" s="3">
         <v>5900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>800</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3011,8 +3116,8 @@
       <c r="Q47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3029,53 +3134,56 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E48" s="3">
         <v>7500</v>
       </c>
-      <c r="E48" s="3">
-        <v>7800</v>
-      </c>
       <c r="F48" s="3">
-        <v>10600</v>
+        <v>7900</v>
       </c>
       <c r="G48" s="3">
-        <v>8100</v>
+        <v>10700</v>
       </c>
       <c r="H48" s="3">
-        <v>10200</v>
+        <v>8200</v>
       </c>
       <c r="I48" s="3">
-        <v>11600</v>
+        <v>10300</v>
       </c>
       <c r="J48" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K48" s="3">
         <v>14600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1200</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3094,53 +3202,56 @@
       <c r="W48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>31500</v>
+        <v>29500</v>
       </c>
       <c r="E49" s="3">
-        <v>33800</v>
+        <v>31800</v>
       </c>
       <c r="F49" s="3">
-        <v>14200</v>
+        <v>34000</v>
       </c>
       <c r="G49" s="3">
+        <v>14300</v>
+      </c>
+      <c r="H49" s="3">
+        <v>14800</v>
+      </c>
+      <c r="I49" s="3">
+        <v>15300</v>
+      </c>
+      <c r="J49" s="3">
         <v>14700</v>
       </c>
-      <c r="H49" s="3">
-        <v>15200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>14600</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>15100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1000</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,53 +3406,56 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1400</v>
       </c>
-      <c r="F52" s="3">
-        <v>23200</v>
-      </c>
       <c r="G52" s="3">
-        <v>23200</v>
+        <v>23400</v>
       </c>
       <c r="H52" s="3">
+        <v>23400</v>
+      </c>
+      <c r="I52" s="3">
         <v>2200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3300</v>
       </c>
       <c r="J52" s="3">
         <v>3300</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O52" s="3">
         <v>1600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q52" s="3">
         <v>7500</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,53 +3542,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>460400</v>
+        <v>400700</v>
       </c>
       <c r="E54" s="3">
-        <v>474900</v>
+        <v>464000</v>
       </c>
       <c r="F54" s="3">
-        <v>456500</v>
+        <v>478600</v>
       </c>
       <c r="G54" s="3">
-        <v>328200</v>
+        <v>460000</v>
       </c>
       <c r="H54" s="3">
-        <v>341300</v>
+        <v>330700</v>
       </c>
       <c r="I54" s="3">
-        <v>388900</v>
+        <v>343900</v>
       </c>
       <c r="J54" s="3">
+        <v>391800</v>
+      </c>
+      <c r="K54" s="3">
         <v>460300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>480500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>497200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>336700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>418700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>403100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>271900</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,53 +3664,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>64200</v>
+        <v>64600</v>
       </c>
       <c r="E57" s="3">
-        <v>72200</v>
+        <v>64700</v>
       </c>
       <c r="F57" s="3">
-        <v>72300</v>
+        <v>72800</v>
       </c>
       <c r="G57" s="3">
-        <v>62000</v>
+        <v>72900</v>
       </c>
       <c r="H57" s="3">
-        <v>58000</v>
+        <v>62500</v>
       </c>
       <c r="I57" s="3">
-        <v>64700</v>
+        <v>58500</v>
       </c>
       <c r="J57" s="3">
+        <v>65200</v>
+      </c>
+      <c r="K57" s="3">
         <v>51400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>44000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>40800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>24400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3599,25 +3730,28 @@
       <c r="W57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>184800</v>
+        <v>188400</v>
       </c>
       <c r="E58" s="3">
-        <v>7800</v>
+        <v>186300</v>
       </c>
       <c r="F58" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G58" s="3">
         <v>11000</v>
       </c>
-      <c r="G58" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>16</v>
+      <c r="H58" s="3">
+        <v>3200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>16</v>
@@ -3631,8 +3765,8 @@
       <c r="L58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3664,53 +3798,56 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>272700</v>
+        <v>292800</v>
       </c>
       <c r="E59" s="3">
-        <v>241500</v>
+        <v>274800</v>
       </c>
       <c r="F59" s="3">
-        <v>212000</v>
+        <v>243400</v>
       </c>
       <c r="G59" s="3">
-        <v>206300</v>
+        <v>213600</v>
       </c>
       <c r="H59" s="3">
-        <v>203700</v>
+        <v>207900</v>
       </c>
       <c r="I59" s="3">
-        <v>217900</v>
+        <v>205300</v>
       </c>
       <c r="J59" s="3">
+        <v>219600</v>
+      </c>
+      <c r="K59" s="3">
         <v>242300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>197300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>168000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>155500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>149000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>116900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>73100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3729,53 +3866,56 @@
       <c r="W59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>521800</v>
+        <v>545800</v>
       </c>
       <c r="E60" s="3">
-        <v>321600</v>
+        <v>525800</v>
       </c>
       <c r="F60" s="3">
-        <v>295300</v>
+        <v>324000</v>
       </c>
       <c r="G60" s="3">
-        <v>271500</v>
+        <v>297500</v>
       </c>
       <c r="H60" s="3">
-        <v>261700</v>
+        <v>273500</v>
       </c>
       <c r="I60" s="3">
-        <v>282600</v>
+        <v>263700</v>
       </c>
       <c r="J60" s="3">
+        <v>284800</v>
+      </c>
+      <c r="K60" s="3">
         <v>293700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>241300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>208800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>179900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>169000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>130000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>76300</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3803,32 +3946,32 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>186600</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>183900</v>
+        <v>188100</v>
       </c>
       <c r="G61" s="3">
-        <v>190500</v>
+        <v>185300</v>
       </c>
       <c r="H61" s="3">
-        <v>196600</v>
+        <v>192000</v>
       </c>
       <c r="I61" s="3">
-        <v>195300</v>
+        <v>198100</v>
       </c>
       <c r="J61" s="3">
+        <v>196800</v>
+      </c>
+      <c r="K61" s="3">
         <v>190800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>188900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>183300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3859,47 +4002,50 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E62" s="3">
         <v>5600</v>
       </c>
-      <c r="E62" s="3">
-        <v>6300</v>
-      </c>
       <c r="F62" s="3">
-        <v>7300</v>
+        <v>6400</v>
       </c>
       <c r="G62" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H62" s="3">
         <v>5100</v>
       </c>
-      <c r="H62" s="3">
-        <v>6000</v>
-      </c>
       <c r="I62" s="3">
-        <v>7000</v>
+        <v>6100</v>
       </c>
       <c r="J62" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K62" s="3">
         <v>8600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3915,8 +4061,8 @@
       <c r="T62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,53 +4274,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>704000</v>
+        <v>734300</v>
       </c>
       <c r="E66" s="3">
-        <v>690200</v>
+        <v>709400</v>
       </c>
       <c r="F66" s="3">
-        <v>657000</v>
+        <v>695500</v>
       </c>
       <c r="G66" s="3">
-        <v>547800</v>
+        <v>662100</v>
       </c>
       <c r="H66" s="3">
-        <v>546300</v>
+        <v>552000</v>
       </c>
       <c r="I66" s="3">
-        <v>564900</v>
+        <v>550500</v>
       </c>
       <c r="J66" s="3">
+        <v>569200</v>
+      </c>
+      <c r="K66" s="3">
         <v>570100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>515200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>420800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>206200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>188300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>129600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>76300</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4381,11 +4549,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>266900</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,53 +4640,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1004800</v>
+        <v>-1109000</v>
       </c>
       <c r="E72" s="3">
-        <v>-967900</v>
+        <v>-1012500</v>
       </c>
       <c r="F72" s="3">
-        <v>-940500</v>
+        <v>-975300</v>
       </c>
       <c r="G72" s="3">
-        <v>-928200</v>
+        <v>-947700</v>
       </c>
       <c r="H72" s="3">
-        <v>-884100</v>
+        <v>-935300</v>
       </c>
       <c r="I72" s="3">
-        <v>-847400</v>
+        <v>-890900</v>
       </c>
       <c r="J72" s="3">
+        <v>-853900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-761300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-662100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-531700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-432600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-327600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-254800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-97900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,53 +4912,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-243500</v>
+        <v>-333700</v>
       </c>
       <c r="E76" s="3">
-        <v>-215300</v>
+        <v>-245400</v>
       </c>
       <c r="F76" s="3">
-        <v>-200500</v>
+        <v>-216900</v>
       </c>
       <c r="G76" s="3">
-        <v>-219600</v>
+        <v>-202100</v>
       </c>
       <c r="H76" s="3">
-        <v>-205000</v>
+        <v>-221300</v>
       </c>
       <c r="I76" s="3">
-        <v>-176000</v>
+        <v>-206600</v>
       </c>
       <c r="J76" s="3">
+        <v>-177400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-109800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-34600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>76400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>130500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>230400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>273500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-71300</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-96400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-37000</v>
       </c>
-      <c r="E81" s="3">
-        <v>-27400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-44100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-85100</v>
-      </c>
       <c r="J81" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-88100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-137300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-88000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-105000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-60600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-153200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-35800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-45800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>QTT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>152300</v>
+        <v>129800</v>
       </c>
       <c r="E8" s="3">
-        <v>189600</v>
+        <v>142300</v>
       </c>
       <c r="F8" s="3">
-        <v>203700</v>
+        <v>177100</v>
       </c>
       <c r="G8" s="3">
-        <v>205500</v>
+        <v>190200</v>
       </c>
       <c r="H8" s="3">
-        <v>178300</v>
+        <v>191900</v>
       </c>
       <c r="I8" s="3">
-        <v>227300</v>
+        <v>166500</v>
       </c>
       <c r="J8" s="3">
+        <v>212300</v>
+      </c>
+      <c r="K8" s="3">
         <v>222700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>259600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>216600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>216200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>170200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>201900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>141900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>67400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>33900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>37400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>23400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>42400</v>
+        <v>28600</v>
       </c>
       <c r="E9" s="3">
-        <v>51700</v>
+        <v>39600</v>
       </c>
       <c r="F9" s="3">
-        <v>60100</v>
+        <v>48300</v>
       </c>
       <c r="G9" s="3">
-        <v>69700</v>
+        <v>56200</v>
       </c>
       <c r="H9" s="3">
-        <v>58600</v>
+        <v>65100</v>
       </c>
       <c r="I9" s="3">
-        <v>63100</v>
+        <v>54800</v>
       </c>
       <c r="J9" s="3">
+        <v>59000</v>
+      </c>
+      <c r="K9" s="3">
         <v>72700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>78900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>76400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>56400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>42500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>31000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>22300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>109900</v>
+        <v>101200</v>
       </c>
       <c r="E10" s="3">
-        <v>137900</v>
+        <v>102700</v>
       </c>
       <c r="F10" s="3">
-        <v>143500</v>
+        <v>128800</v>
       </c>
       <c r="G10" s="3">
-        <v>135800</v>
+        <v>134100</v>
       </c>
       <c r="H10" s="3">
+        <v>126800</v>
+      </c>
+      <c r="I10" s="3">
+        <v>111700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>153400</v>
+      </c>
+      <c r="K10" s="3">
+        <v>150000</v>
+      </c>
+      <c r="L10" s="3">
+        <v>180700</v>
+      </c>
+      <c r="M10" s="3">
+        <v>140200</v>
+      </c>
+      <c r="N10" s="3">
+        <v>159800</v>
+      </c>
+      <c r="O10" s="3">
+        <v>127700</v>
+      </c>
+      <c r="P10" s="3">
+        <v>170900</v>
+      </c>
+      <c r="Q10" s="3">
         <v>119600</v>
       </c>
-      <c r="I10" s="3">
-        <v>164200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>150000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>180700</v>
-      </c>
-      <c r="L10" s="3">
-        <v>140200</v>
-      </c>
-      <c r="M10" s="3">
-        <v>159800</v>
-      </c>
-      <c r="N10" s="3">
-        <v>127700</v>
-      </c>
-      <c r="O10" s="3">
-        <v>170900</v>
-      </c>
-      <c r="P10" s="3">
-        <v>119600</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>55900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>24700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>30700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>20300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>9500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,67 +1003,68 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>22100</v>
+        <v>13100</v>
       </c>
       <c r="E12" s="3">
-        <v>21500</v>
+        <v>20600</v>
       </c>
       <c r="F12" s="3">
-        <v>29500</v>
+        <v>20100</v>
       </c>
       <c r="G12" s="3">
-        <v>31500</v>
+        <v>27500</v>
       </c>
       <c r="H12" s="3">
-        <v>38400</v>
+        <v>29400</v>
       </c>
       <c r="I12" s="3">
-        <v>35400</v>
+        <v>35800</v>
       </c>
       <c r="J12" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K12" s="3">
         <v>44300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>45100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>40300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>34500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>19300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>300</v>
-      </c>
-      <c r="V12" s="3">
-        <v>100</v>
       </c>
       <c r="W12" s="3">
         <v>100</v>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,49 +1143,52 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-3800</v>
+        <v>-2600</v>
       </c>
       <c r="E14" s="3">
-        <v>-5200</v>
+        <v>-3500</v>
       </c>
       <c r="F14" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="G14" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J14" s="3">
         <v>-3700</v>
       </c>
-      <c r="H14" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1700</v>
-      </c>
-      <c r="N14" s="3">
-        <v>-100</v>
       </c>
       <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>16</v>
+      <c r="P14" s="3">
+        <v>-100</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>16</v>
@@ -1177,8 +1196,8 @@
       <c r="R14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>242900</v>
+        <v>166400</v>
       </c>
       <c r="E17" s="3">
-        <v>225000</v>
+        <v>226900</v>
       </c>
       <c r="F17" s="3">
-        <v>226900</v>
+        <v>210100</v>
       </c>
       <c r="G17" s="3">
-        <v>219700</v>
+        <v>212000</v>
       </c>
       <c r="H17" s="3">
-        <v>217400</v>
+        <v>205200</v>
       </c>
       <c r="I17" s="3">
-        <v>257200</v>
+        <v>203100</v>
       </c>
       <c r="J17" s="3">
+        <v>240300</v>
+      </c>
+      <c r="K17" s="3">
         <v>302400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>346600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>355100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>305400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>276200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>265200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>293500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>98100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>77300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>45600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>25100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-90600</v>
+        <v>-36500</v>
       </c>
       <c r="E18" s="3">
-        <v>-35300</v>
+        <v>-84600</v>
       </c>
       <c r="F18" s="3">
-        <v>-23200</v>
+        <v>-33000</v>
       </c>
       <c r="G18" s="3">
-        <v>-14200</v>
+        <v>-21700</v>
       </c>
       <c r="H18" s="3">
-        <v>-39100</v>
+        <v>-13300</v>
       </c>
       <c r="I18" s="3">
-        <v>-29900</v>
+        <v>-36500</v>
       </c>
       <c r="J18" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-79600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-87000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-138500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-89100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-106000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-63300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-151500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-30700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-43400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1457,47 +1490,47 @@
         <v>-1300</v>
       </c>
       <c r="E20" s="3">
-        <v>2200</v>
+        <v>-1200</v>
       </c>
       <c r="F20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>1300</v>
-      </c>
       <c r="H20" s="3">
-        <v>-3700</v>
+        <v>1200</v>
       </c>
       <c r="I20" s="3">
-        <v>-5100</v>
+        <v>-3500</v>
       </c>
       <c r="J20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1516,8 +1549,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1554,61 +1590,64 @@
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3">
         <v>-59700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>-29400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3">
         <v>-8100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3">
         <v>-2400</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>5200</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1652,105 +1691,111 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-91900</v>
+        <v>-43100</v>
       </c>
       <c r="E23" s="3">
-        <v>-33100</v>
+        <v>-85800</v>
       </c>
       <c r="F23" s="3">
-        <v>-23500</v>
+        <v>-30900</v>
       </c>
       <c r="G23" s="3">
-        <v>-13000</v>
+        <v>-22000</v>
       </c>
       <c r="H23" s="3">
-        <v>-42800</v>
+        <v>-12100</v>
       </c>
       <c r="I23" s="3">
-        <v>-35000</v>
+        <v>-40000</v>
       </c>
       <c r="J23" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-83700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-85300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-136900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-87700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-104800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-60600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-150100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-29600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-43400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
-        <v>100</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-100</v>
       </c>
       <c r="M24" s="3">
         <v>-100</v>
@@ -1762,7 +1807,7 @@
         <v>-100</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-92000</v>
+        <v>-43500</v>
       </c>
       <c r="E26" s="3">
-        <v>-33000</v>
+        <v>-85900</v>
       </c>
       <c r="F26" s="3">
-        <v>-23500</v>
+        <v>-30900</v>
       </c>
       <c r="G26" s="3">
-        <v>-12900</v>
+        <v>-22000</v>
       </c>
       <c r="H26" s="3">
-        <v>-42500</v>
+        <v>-12100</v>
       </c>
       <c r="I26" s="3">
-        <v>-35000</v>
+        <v>-39700</v>
       </c>
       <c r="J26" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-83900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-86300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-136800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-87600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-104700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-60500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-150100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-29600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-43400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-96400</v>
+        <v>-48100</v>
       </c>
       <c r="E27" s="3">
-        <v>-37200</v>
+        <v>-90100</v>
       </c>
       <c r="F27" s="3">
-        <v>-27600</v>
+        <v>-34800</v>
       </c>
       <c r="G27" s="3">
-        <v>-12400</v>
+        <v>-25800</v>
       </c>
       <c r="H27" s="3">
-        <v>-44400</v>
+        <v>-11600</v>
       </c>
       <c r="I27" s="3">
-        <v>-37000</v>
+        <v>-41500</v>
       </c>
       <c r="J27" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-85700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-88100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-137300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-88000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-105000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-60600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-153200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-35800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-45800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,47 +2342,47 @@
         <v>1300</v>
       </c>
       <c r="E32" s="3">
-        <v>-2200</v>
+        <v>1200</v>
       </c>
       <c r="F32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H32" s="3">
-        <v>3700</v>
+        <v>-1200</v>
       </c>
       <c r="I32" s="3">
-        <v>5100</v>
+        <v>3500</v>
       </c>
       <c r="J32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K32" s="3">
         <v>4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2332,76 +2401,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-96400</v>
+        <v>-48100</v>
       </c>
       <c r="E33" s="3">
-        <v>-37200</v>
+        <v>-90100</v>
       </c>
       <c r="F33" s="3">
-        <v>-27600</v>
+        <v>-34800</v>
       </c>
       <c r="G33" s="3">
-        <v>-12400</v>
+        <v>-25800</v>
       </c>
       <c r="H33" s="3">
-        <v>-44400</v>
+        <v>-11600</v>
       </c>
       <c r="I33" s="3">
-        <v>-37000</v>
+        <v>-41500</v>
       </c>
       <c r="J33" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-85700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-88100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-137300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-88000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-105000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-60600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-153200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-35800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-45800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-96400</v>
+        <v>-48100</v>
       </c>
       <c r="E35" s="3">
-        <v>-37200</v>
+        <v>-90100</v>
       </c>
       <c r="F35" s="3">
-        <v>-27600</v>
+        <v>-34800</v>
       </c>
       <c r="G35" s="3">
-        <v>-12400</v>
+        <v>-25800</v>
       </c>
       <c r="H35" s="3">
-        <v>-44400</v>
+        <v>-11600</v>
       </c>
       <c r="I35" s="3">
-        <v>-37000</v>
+        <v>-41500</v>
       </c>
       <c r="J35" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-85700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-88100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-137300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-88000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-105000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-60600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-153200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-35800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-45800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,56 +2746,57 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34900</v>
+        <v>35400</v>
       </c>
       <c r="E41" s="3">
-        <v>63100</v>
+        <v>32600</v>
       </c>
       <c r="F41" s="3">
-        <v>115200</v>
+        <v>58900</v>
       </c>
       <c r="G41" s="3">
-        <v>78000</v>
+        <v>107600</v>
       </c>
       <c r="H41" s="3">
-        <v>41000</v>
+        <v>72900</v>
       </c>
       <c r="I41" s="3">
-        <v>25300</v>
+        <v>38300</v>
       </c>
       <c r="J41" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K41" s="3">
         <v>29900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>54500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>80900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>328200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>206600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>332600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>337700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>247200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2729,56 +2815,59 @@
       <c r="X41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>95400</v>
+        <v>50500</v>
       </c>
       <c r="E42" s="3">
-        <v>91900</v>
+        <v>89100</v>
       </c>
       <c r="F42" s="3">
-        <v>43300</v>
+        <v>85900</v>
       </c>
       <c r="G42" s="3">
-        <v>61700</v>
+        <v>40400</v>
       </c>
       <c r="H42" s="3">
-        <v>29900</v>
+        <v>57600</v>
       </c>
       <c r="I42" s="3">
-        <v>113300</v>
+        <v>27900</v>
       </c>
       <c r="J42" s="3">
+        <v>105800</v>
+      </c>
+      <c r="K42" s="3">
         <v>148000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>199900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>245500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>28700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>42700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>17600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>22000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1400</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2797,56 +2886,59 @@
       <c r="X42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>180700</v>
+        <v>151900</v>
       </c>
       <c r="E43" s="3">
-        <v>202900</v>
+        <v>168800</v>
       </c>
       <c r="F43" s="3">
-        <v>192400</v>
+        <v>189600</v>
       </c>
       <c r="G43" s="3">
-        <v>176900</v>
+        <v>179700</v>
       </c>
       <c r="H43" s="3">
-        <v>161700</v>
+        <v>165200</v>
       </c>
       <c r="I43" s="3">
-        <v>125500</v>
+        <v>151000</v>
       </c>
       <c r="J43" s="3">
+        <v>117300</v>
+      </c>
+      <c r="K43" s="3">
         <v>134500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>126000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>75900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>80300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>42600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>34200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5500</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,56 +3028,59 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>38600</v>
+        <v>36600</v>
       </c>
       <c r="E45" s="3">
-        <v>48700</v>
+        <v>36100</v>
       </c>
       <c r="F45" s="3">
-        <v>66400</v>
+        <v>45500</v>
       </c>
       <c r="G45" s="3">
-        <v>73400</v>
+        <v>62000</v>
       </c>
       <c r="H45" s="3">
-        <v>38700</v>
+        <v>68600</v>
       </c>
       <c r="I45" s="3">
         <v>36200</v>
       </c>
       <c r="J45" s="3">
+        <v>33800</v>
+      </c>
+      <c r="K45" s="3">
         <v>30000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>41100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>36900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>27300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8000</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3001,56 +3099,59 @@
       <c r="X45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>349600</v>
+        <v>274500</v>
       </c>
       <c r="E46" s="3">
-        <v>406700</v>
+        <v>326500</v>
       </c>
       <c r="F46" s="3">
-        <v>417200</v>
+        <v>379900</v>
       </c>
       <c r="G46" s="3">
-        <v>390000</v>
+        <v>389700</v>
       </c>
       <c r="H46" s="3">
-        <v>271300</v>
+        <v>364300</v>
       </c>
       <c r="I46" s="3">
-        <v>300300</v>
+        <v>253500</v>
       </c>
       <c r="J46" s="3">
+        <v>280500</v>
+      </c>
+      <c r="K46" s="3">
         <v>342400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>421500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>439200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>459400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>309000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>399500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>393300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>262200</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3069,47 +3170,50 @@
       <c r="X46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13900</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="F47" s="3">
-        <v>18000</v>
+        <v>15900</v>
       </c>
       <c r="G47" s="3">
-        <v>21700</v>
+        <v>16800</v>
       </c>
       <c r="H47" s="3">
-        <v>13000</v>
+        <v>20300</v>
       </c>
       <c r="I47" s="3">
-        <v>15800</v>
+        <v>12200</v>
       </c>
       <c r="J47" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K47" s="3">
         <v>19700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>800</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3119,8 +3223,8 @@
       <c r="R47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3137,56 +3241,59 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6900</v>
+        <v>5800</v>
       </c>
       <c r="E48" s="3">
-        <v>7500</v>
+        <v>6400</v>
       </c>
       <c r="F48" s="3">
-        <v>7900</v>
+        <v>7000</v>
       </c>
       <c r="G48" s="3">
-        <v>10700</v>
+        <v>7400</v>
       </c>
       <c r="H48" s="3">
-        <v>8200</v>
+        <v>10000</v>
       </c>
       <c r="I48" s="3">
-        <v>10300</v>
+        <v>7600</v>
       </c>
       <c r="J48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K48" s="3">
         <v>11700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1200</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3205,56 +3312,59 @@
       <c r="X48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>29500</v>
+        <v>25400</v>
       </c>
       <c r="E49" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F49" s="3">
+        <v>29700</v>
+      </c>
+      <c r="G49" s="3">
         <v>31800</v>
       </c>
-      <c r="F49" s="3">
-        <v>34000</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
+        <v>13300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J49" s="3">
         <v>14300</v>
       </c>
-      <c r="H49" s="3">
-        <v>14800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>15300</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,56 +3525,59 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
-        <v>1000</v>
-      </c>
       <c r="F52" s="3">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="G52" s="3">
-        <v>23400</v>
+        <v>1300</v>
       </c>
       <c r="H52" s="3">
-        <v>23400</v>
+        <v>21800</v>
       </c>
       <c r="I52" s="3">
-        <v>2200</v>
+        <v>21900</v>
       </c>
       <c r="J52" s="3">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="K52" s="3">
         <v>3300</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P52" s="3">
         <v>1600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R52" s="3">
         <v>7500</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,56 +3667,59 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>400700</v>
+        <v>306600</v>
       </c>
       <c r="E54" s="3">
-        <v>464000</v>
+        <v>374300</v>
       </c>
       <c r="F54" s="3">
-        <v>478600</v>
+        <v>433400</v>
       </c>
       <c r="G54" s="3">
-        <v>460000</v>
+        <v>447000</v>
       </c>
       <c r="H54" s="3">
-        <v>330700</v>
+        <v>429700</v>
       </c>
       <c r="I54" s="3">
-        <v>343900</v>
+        <v>308900</v>
       </c>
       <c r="J54" s="3">
+        <v>321200</v>
+      </c>
+      <c r="K54" s="3">
         <v>391800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>460300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>480500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>497200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>336700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>418700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>403100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>271900</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,56 +3794,57 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>64600</v>
+        <v>46200</v>
       </c>
       <c r="E57" s="3">
-        <v>64700</v>
+        <v>60400</v>
       </c>
       <c r="F57" s="3">
-        <v>72800</v>
+        <v>60500</v>
       </c>
       <c r="G57" s="3">
-        <v>72900</v>
+        <v>68000</v>
       </c>
       <c r="H57" s="3">
-        <v>62500</v>
+        <v>68100</v>
       </c>
       <c r="I57" s="3">
-        <v>58500</v>
+        <v>58400</v>
       </c>
       <c r="J57" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K57" s="3">
         <v>65200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>51400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>44000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>40800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>24400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>20000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3733,28 +3863,31 @@
       <c r="X57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>188400</v>
+        <v>177300</v>
       </c>
       <c r="E58" s="3">
-        <v>186300</v>
+        <v>176000</v>
       </c>
       <c r="F58" s="3">
-        <v>7900</v>
+        <v>174000</v>
       </c>
       <c r="G58" s="3">
-        <v>11000</v>
+        <v>7400</v>
       </c>
       <c r="H58" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>16</v>
+        <v>10300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>16</v>
@@ -3768,8 +3901,8 @@
       <c r="M58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3801,56 +3934,59 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>292800</v>
+        <v>257400</v>
       </c>
       <c r="E59" s="3">
-        <v>274800</v>
+        <v>273500</v>
       </c>
       <c r="F59" s="3">
-        <v>243400</v>
+        <v>256700</v>
       </c>
       <c r="G59" s="3">
-        <v>213600</v>
+        <v>227300</v>
       </c>
       <c r="H59" s="3">
-        <v>207900</v>
+        <v>199500</v>
       </c>
       <c r="I59" s="3">
-        <v>205300</v>
+        <v>194200</v>
       </c>
       <c r="J59" s="3">
+        <v>191700</v>
+      </c>
+      <c r="K59" s="3">
         <v>219600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>242300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>197300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>168000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>155500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>149000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>116900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>73100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3869,56 +4005,59 @@
       <c r="X59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>545800</v>
+        <v>480900</v>
       </c>
       <c r="E60" s="3">
-        <v>525800</v>
+        <v>509800</v>
       </c>
       <c r="F60" s="3">
-        <v>324000</v>
+        <v>491200</v>
       </c>
       <c r="G60" s="3">
-        <v>297500</v>
+        <v>302700</v>
       </c>
       <c r="H60" s="3">
-        <v>273500</v>
+        <v>277900</v>
       </c>
       <c r="I60" s="3">
-        <v>263700</v>
+        <v>255500</v>
       </c>
       <c r="J60" s="3">
+        <v>246400</v>
+      </c>
+      <c r="K60" s="3">
         <v>284800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>293700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>241300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>208800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>179900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>169000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>130000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>76300</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3937,8 +4076,11 @@
       <c r="X60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3949,32 +4091,32 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>188100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>185300</v>
+        <v>175700</v>
       </c>
       <c r="H61" s="3">
-        <v>192000</v>
+        <v>173100</v>
       </c>
       <c r="I61" s="3">
-        <v>198100</v>
+        <v>179300</v>
       </c>
       <c r="J61" s="3">
+        <v>185000</v>
+      </c>
+      <c r="K61" s="3">
         <v>196800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>190800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>188900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>183300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4005,50 +4147,53 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="E62" s="3">
-        <v>5600</v>
+        <v>5100</v>
       </c>
       <c r="F62" s="3">
-        <v>6400</v>
+        <v>5300</v>
       </c>
       <c r="G62" s="3">
-        <v>7400</v>
+        <v>6000</v>
       </c>
       <c r="H62" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I62" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K62" s="3">
+        <v>7100</v>
+      </c>
+      <c r="L62" s="3">
+        <v>8600</v>
+      </c>
+      <c r="M62" s="3">
+        <v>9900</v>
+      </c>
+      <c r="N62" s="3">
+        <v>9000</v>
+      </c>
+      <c r="O62" s="3">
+        <v>8000</v>
+      </c>
+      <c r="P62" s="3">
         <v>5100</v>
       </c>
-      <c r="I62" s="3">
-        <v>6100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>7100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>8600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>9900</v>
-      </c>
-      <c r="M62" s="3">
-        <v>9000</v>
-      </c>
-      <c r="N62" s="3">
-        <v>8000</v>
-      </c>
-      <c r="O62" s="3">
-        <v>5100</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4064,8 +4209,8 @@
       <c r="U62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,56 +4431,59 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>734300</v>
+        <v>658700</v>
       </c>
       <c r="E66" s="3">
-        <v>709400</v>
+        <v>685900</v>
       </c>
       <c r="F66" s="3">
-        <v>695500</v>
+        <v>662600</v>
       </c>
       <c r="G66" s="3">
-        <v>662100</v>
+        <v>649600</v>
       </c>
       <c r="H66" s="3">
-        <v>552000</v>
+        <v>618400</v>
       </c>
       <c r="I66" s="3">
-        <v>550500</v>
+        <v>515600</v>
       </c>
       <c r="J66" s="3">
+        <v>514200</v>
+      </c>
+      <c r="K66" s="3">
         <v>569200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>570100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>515200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>420800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>206200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>188300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>129600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>76300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4345,8 +4502,11 @@
       <c r="X66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4552,11 +4719,11 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>266900</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,56 +4813,59 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1109000</v>
+        <v>-1083900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1012500</v>
+        <v>-1035900</v>
       </c>
       <c r="F72" s="3">
-        <v>-975300</v>
+        <v>-945800</v>
       </c>
       <c r="G72" s="3">
-        <v>-947700</v>
+        <v>-911000</v>
       </c>
       <c r="H72" s="3">
-        <v>-935300</v>
+        <v>-885200</v>
       </c>
       <c r="I72" s="3">
-        <v>-890900</v>
+        <v>-873600</v>
       </c>
       <c r="J72" s="3">
+        <v>-832200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-853900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-761300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-662100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-531700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-432600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-327600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-254800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-97900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,56 +5097,59 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-333700</v>
+        <v>-352100</v>
       </c>
       <c r="E76" s="3">
-        <v>-245400</v>
+        <v>-311700</v>
       </c>
       <c r="F76" s="3">
-        <v>-216900</v>
+        <v>-229200</v>
       </c>
       <c r="G76" s="3">
-        <v>-202100</v>
+        <v>-202600</v>
       </c>
       <c r="H76" s="3">
-        <v>-221300</v>
+        <v>-188700</v>
       </c>
       <c r="I76" s="3">
-        <v>-206600</v>
+        <v>-206700</v>
       </c>
       <c r="J76" s="3">
+        <v>-193000</v>
+      </c>
+      <c r="K76" s="3">
         <v>-177400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-109800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-34600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>76400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>130500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>230400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>273500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-71300</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4983,8 +5168,11 @@
       <c r="X76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-96400</v>
+        <v>-48100</v>
       </c>
       <c r="E81" s="3">
-        <v>-37200</v>
+        <v>-90100</v>
       </c>
       <c r="F81" s="3">
-        <v>-27600</v>
+        <v>-34800</v>
       </c>
       <c r="G81" s="3">
-        <v>-12400</v>
+        <v>-25800</v>
       </c>
       <c r="H81" s="3">
-        <v>-44400</v>
+        <v>-11600</v>
       </c>
       <c r="I81" s="3">
-        <v>-37000</v>
+        <v>-41500</v>
       </c>
       <c r="J81" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-85700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-88100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-137300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-88000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-105000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-60600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-153200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-35800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-45800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
@@ -770,25 +770,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>129800</v>
+        <v>128700</v>
       </c>
       <c r="E8" s="3">
-        <v>142300</v>
+        <v>141000</v>
       </c>
       <c r="F8" s="3">
-        <v>177100</v>
+        <v>175500</v>
       </c>
       <c r="G8" s="3">
+        <v>188500</v>
+      </c>
+      <c r="H8" s="3">
         <v>190200</v>
       </c>
-      <c r="H8" s="3">
-        <v>191900</v>
-      </c>
       <c r="I8" s="3">
-        <v>166500</v>
+        <v>165000</v>
       </c>
       <c r="J8" s="3">
-        <v>212300</v>
+        <v>210400</v>
       </c>
       <c r="K8" s="3">
         <v>222700</v>
@@ -841,25 +841,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>28600</v>
+        <v>28300</v>
       </c>
       <c r="E9" s="3">
-        <v>39600</v>
+        <v>39200</v>
       </c>
       <c r="F9" s="3">
-        <v>48300</v>
+        <v>47900</v>
       </c>
       <c r="G9" s="3">
-        <v>56200</v>
+        <v>55700</v>
       </c>
       <c r="H9" s="3">
-        <v>65100</v>
+        <v>64500</v>
       </c>
       <c r="I9" s="3">
-        <v>54800</v>
+        <v>54300</v>
       </c>
       <c r="J9" s="3">
-        <v>59000</v>
+        <v>58400</v>
       </c>
       <c r="K9" s="3">
         <v>72700</v>
@@ -912,25 +912,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>101200</v>
+        <v>100300</v>
       </c>
       <c r="E10" s="3">
-        <v>102700</v>
+        <v>101800</v>
       </c>
       <c r="F10" s="3">
-        <v>128800</v>
+        <v>127700</v>
       </c>
       <c r="G10" s="3">
-        <v>134100</v>
+        <v>132800</v>
       </c>
       <c r="H10" s="3">
-        <v>126800</v>
+        <v>125700</v>
       </c>
       <c r="I10" s="3">
-        <v>111700</v>
+        <v>110700</v>
       </c>
       <c r="J10" s="3">
-        <v>153400</v>
+        <v>152000</v>
       </c>
       <c r="K10" s="3">
         <v>150000</v>
@@ -1010,25 +1010,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="E12" s="3">
-        <v>20600</v>
+        <v>20400</v>
       </c>
       <c r="F12" s="3">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="G12" s="3">
-        <v>27500</v>
+        <v>27300</v>
       </c>
       <c r="H12" s="3">
-        <v>29400</v>
+        <v>29200</v>
       </c>
       <c r="I12" s="3">
-        <v>35800</v>
+        <v>35500</v>
       </c>
       <c r="J12" s="3">
-        <v>33000</v>
+        <v>32700</v>
       </c>
       <c r="K12" s="3">
         <v>44300</v>
@@ -1164,13 +1164,13 @@
         <v>-4700</v>
       </c>
       <c r="H14" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="I14" s="3">
         <v>-3500</v>
       </c>
       <c r="J14" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="K14" s="3">
         <v>-1100</v>
@@ -1318,25 +1318,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>166400</v>
+        <v>164900</v>
       </c>
       <c r="E17" s="3">
-        <v>226900</v>
+        <v>224800</v>
       </c>
       <c r="F17" s="3">
-        <v>210100</v>
+        <v>208200</v>
       </c>
       <c r="G17" s="3">
-        <v>212000</v>
+        <v>210000</v>
       </c>
       <c r="H17" s="3">
-        <v>205200</v>
+        <v>203300</v>
       </c>
       <c r="I17" s="3">
-        <v>203100</v>
+        <v>201200</v>
       </c>
       <c r="J17" s="3">
-        <v>240300</v>
+        <v>238100</v>
       </c>
       <c r="K17" s="3">
         <v>302400</v>
@@ -1389,25 +1389,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-36500</v>
+        <v>-36200</v>
       </c>
       <c r="E18" s="3">
-        <v>-84600</v>
+        <v>-83800</v>
       </c>
       <c r="F18" s="3">
-        <v>-33000</v>
+        <v>-32700</v>
       </c>
       <c r="G18" s="3">
-        <v>-21700</v>
+        <v>-21500</v>
       </c>
       <c r="H18" s="3">
-        <v>-13300</v>
+        <v>-13200</v>
       </c>
       <c r="I18" s="3">
-        <v>-36500</v>
+        <v>-36200</v>
       </c>
       <c r="J18" s="3">
-        <v>-27900</v>
+        <v>-27700</v>
       </c>
       <c r="K18" s="3">
         <v>-79600</v>
@@ -1502,10 +1502,10 @@
         <v>1200</v>
       </c>
       <c r="I20" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="J20" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="K20" s="3">
         <v>-4100</v>
@@ -1700,25 +1700,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-43100</v>
+        <v>-42700</v>
       </c>
       <c r="E23" s="3">
-        <v>-85800</v>
+        <v>-85100</v>
       </c>
       <c r="F23" s="3">
-        <v>-30900</v>
+        <v>-30600</v>
       </c>
       <c r="G23" s="3">
-        <v>-22000</v>
+        <v>-21800</v>
       </c>
       <c r="H23" s="3">
-        <v>-12100</v>
+        <v>-12000</v>
       </c>
       <c r="I23" s="3">
-        <v>-40000</v>
+        <v>-39700</v>
       </c>
       <c r="J23" s="3">
-        <v>-32700</v>
+        <v>-32400</v>
       </c>
       <c r="K23" s="3">
         <v>-83700</v>
@@ -1913,25 +1913,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-43500</v>
+        <v>-43100</v>
       </c>
       <c r="E26" s="3">
-        <v>-85900</v>
+        <v>-85100</v>
       </c>
       <c r="F26" s="3">
-        <v>-30900</v>
+        <v>-30600</v>
       </c>
       <c r="G26" s="3">
-        <v>-22000</v>
+        <v>-21800</v>
       </c>
       <c r="H26" s="3">
-        <v>-12100</v>
+        <v>-11900</v>
       </c>
       <c r="I26" s="3">
-        <v>-39700</v>
+        <v>-39300</v>
       </c>
       <c r="J26" s="3">
-        <v>-32700</v>
+        <v>-32400</v>
       </c>
       <c r="K26" s="3">
         <v>-83900</v>
@@ -1984,25 +1984,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-48100</v>
+        <v>-47700</v>
       </c>
       <c r="E27" s="3">
-        <v>-90100</v>
+        <v>-89200</v>
       </c>
       <c r="F27" s="3">
-        <v>-34800</v>
+        <v>-34500</v>
       </c>
       <c r="G27" s="3">
-        <v>-25800</v>
+        <v>-25600</v>
       </c>
       <c r="H27" s="3">
-        <v>-11600</v>
+        <v>-11500</v>
       </c>
       <c r="I27" s="3">
-        <v>-41500</v>
+        <v>-41100</v>
       </c>
       <c r="J27" s="3">
-        <v>-34500</v>
+        <v>-34200</v>
       </c>
       <c r="K27" s="3">
         <v>-85700</v>
@@ -2354,10 +2354,10 @@
         <v>-1200</v>
       </c>
       <c r="I32" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J32" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="K32" s="3">
         <v>4100</v>
@@ -2410,25 +2410,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-48100</v>
+        <v>-47700</v>
       </c>
       <c r="E33" s="3">
-        <v>-90100</v>
+        <v>-89200</v>
       </c>
       <c r="F33" s="3">
-        <v>-34800</v>
+        <v>-34500</v>
       </c>
       <c r="G33" s="3">
-        <v>-25800</v>
+        <v>-25600</v>
       </c>
       <c r="H33" s="3">
-        <v>-11600</v>
+        <v>-11500</v>
       </c>
       <c r="I33" s="3">
-        <v>-41500</v>
+        <v>-41100</v>
       </c>
       <c r="J33" s="3">
-        <v>-34500</v>
+        <v>-34200</v>
       </c>
       <c r="K33" s="3">
         <v>-85700</v>
@@ -2552,25 +2552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-48100</v>
+        <v>-47700</v>
       </c>
       <c r="E35" s="3">
-        <v>-90100</v>
+        <v>-89200</v>
       </c>
       <c r="F35" s="3">
-        <v>-34800</v>
+        <v>-34500</v>
       </c>
       <c r="G35" s="3">
-        <v>-25800</v>
+        <v>-25600</v>
       </c>
       <c r="H35" s="3">
-        <v>-11600</v>
+        <v>-11500</v>
       </c>
       <c r="I35" s="3">
-        <v>-41500</v>
+        <v>-41100</v>
       </c>
       <c r="J35" s="3">
-        <v>-34500</v>
+        <v>-34200</v>
       </c>
       <c r="K35" s="3">
         <v>-85700</v>
@@ -2753,25 +2753,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>35400</v>
+        <v>35100</v>
       </c>
       <c r="E41" s="3">
-        <v>32600</v>
+        <v>32300</v>
       </c>
       <c r="F41" s="3">
-        <v>58900</v>
+        <v>58400</v>
       </c>
       <c r="G41" s="3">
-        <v>107600</v>
+        <v>106600</v>
       </c>
       <c r="H41" s="3">
-        <v>72900</v>
+        <v>72200</v>
       </c>
       <c r="I41" s="3">
-        <v>38300</v>
+        <v>38000</v>
       </c>
       <c r="J41" s="3">
-        <v>23600</v>
+        <v>23400</v>
       </c>
       <c r="K41" s="3">
         <v>29900</v>
@@ -2824,25 +2824,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>50500</v>
+        <v>50100</v>
       </c>
       <c r="E42" s="3">
-        <v>89100</v>
+        <v>88300</v>
       </c>
       <c r="F42" s="3">
-        <v>85900</v>
+        <v>85100</v>
       </c>
       <c r="G42" s="3">
-        <v>40400</v>
+        <v>40000</v>
       </c>
       <c r="H42" s="3">
-        <v>57600</v>
+        <v>57100</v>
       </c>
       <c r="I42" s="3">
-        <v>27900</v>
+        <v>27700</v>
       </c>
       <c r="J42" s="3">
-        <v>105800</v>
+        <v>104800</v>
       </c>
       <c r="K42" s="3">
         <v>148000</v>
@@ -2895,25 +2895,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>151900</v>
+        <v>150500</v>
       </c>
       <c r="E43" s="3">
-        <v>168800</v>
+        <v>167300</v>
       </c>
       <c r="F43" s="3">
-        <v>189600</v>
+        <v>187900</v>
       </c>
       <c r="G43" s="3">
-        <v>179700</v>
+        <v>178100</v>
       </c>
       <c r="H43" s="3">
-        <v>165200</v>
+        <v>163800</v>
       </c>
       <c r="I43" s="3">
-        <v>151000</v>
+        <v>149600</v>
       </c>
       <c r="J43" s="3">
-        <v>117300</v>
+        <v>116200</v>
       </c>
       <c r="K43" s="3">
         <v>134500</v>
@@ -3037,25 +3037,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36600</v>
+        <v>36300</v>
       </c>
       <c r="E45" s="3">
-        <v>36100</v>
+        <v>35700</v>
       </c>
       <c r="F45" s="3">
-        <v>45500</v>
+        <v>45100</v>
       </c>
       <c r="G45" s="3">
-        <v>62000</v>
+        <v>61400</v>
       </c>
       <c r="H45" s="3">
-        <v>68600</v>
+        <v>68000</v>
       </c>
       <c r="I45" s="3">
-        <v>36200</v>
+        <v>35800</v>
       </c>
       <c r="J45" s="3">
-        <v>33800</v>
+        <v>33500</v>
       </c>
       <c r="K45" s="3">
         <v>30000</v>
@@ -3108,25 +3108,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>274500</v>
+        <v>272000</v>
       </c>
       <c r="E46" s="3">
-        <v>326500</v>
+        <v>323600</v>
       </c>
       <c r="F46" s="3">
-        <v>379900</v>
+        <v>376500</v>
       </c>
       <c r="G46" s="3">
-        <v>389700</v>
+        <v>386200</v>
       </c>
       <c r="H46" s="3">
-        <v>364300</v>
+        <v>361000</v>
       </c>
       <c r="I46" s="3">
-        <v>253500</v>
+        <v>251200</v>
       </c>
       <c r="J46" s="3">
-        <v>280500</v>
+        <v>277900</v>
       </c>
       <c r="K46" s="3">
         <v>342400</v>
@@ -3182,22 +3182,22 @@
         <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="F47" s="3">
-        <v>15900</v>
+        <v>15700</v>
       </c>
       <c r="G47" s="3">
-        <v>16800</v>
+        <v>16700</v>
       </c>
       <c r="H47" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="I47" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="J47" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="K47" s="3">
         <v>19700</v>
@@ -3250,7 +3250,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="E48" s="3">
         <v>6400</v>
@@ -3259,16 +3259,16 @@
         <v>7000</v>
       </c>
       <c r="G48" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="H48" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="I48" s="3">
         <v>7600</v>
       </c>
       <c r="J48" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="K48" s="3">
         <v>11700</v>
@@ -3321,25 +3321,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25400</v>
+        <v>25200</v>
       </c>
       <c r="E49" s="3">
-        <v>27500</v>
+        <v>27300</v>
       </c>
       <c r="F49" s="3">
-        <v>29700</v>
+        <v>29400</v>
       </c>
       <c r="G49" s="3">
-        <v>31800</v>
+        <v>31500</v>
       </c>
       <c r="H49" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="I49" s="3">
-        <v>13800</v>
+        <v>13700</v>
       </c>
       <c r="J49" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="K49" s="3">
         <v>14700</v>
@@ -3537,7 +3537,7 @@
         <v>700</v>
       </c>
       <c r="E52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F52" s="3">
         <v>900</v>
@@ -3546,10 +3546,10 @@
         <v>1300</v>
       </c>
       <c r="H52" s="3">
-        <v>21800</v>
+        <v>21600</v>
       </c>
       <c r="I52" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="J52" s="3">
         <v>2000</v>
@@ -3676,25 +3676,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>306600</v>
+        <v>303800</v>
       </c>
       <c r="E54" s="3">
-        <v>374300</v>
+        <v>370900</v>
       </c>
       <c r="F54" s="3">
-        <v>433400</v>
+        <v>429500</v>
       </c>
       <c r="G54" s="3">
-        <v>447000</v>
+        <v>443000</v>
       </c>
       <c r="H54" s="3">
-        <v>429700</v>
+        <v>425800</v>
       </c>
       <c r="I54" s="3">
-        <v>308900</v>
+        <v>306100</v>
       </c>
       <c r="J54" s="3">
-        <v>321200</v>
+        <v>318300</v>
       </c>
       <c r="K54" s="3">
         <v>391800</v>
@@ -3801,25 +3801,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>46200</v>
+        <v>45800</v>
       </c>
       <c r="E57" s="3">
-        <v>60400</v>
+        <v>59800</v>
       </c>
       <c r="F57" s="3">
-        <v>60500</v>
+        <v>59900</v>
       </c>
       <c r="G57" s="3">
-        <v>68000</v>
+        <v>67300</v>
       </c>
       <c r="H57" s="3">
-        <v>68100</v>
+        <v>67500</v>
       </c>
       <c r="I57" s="3">
-        <v>58400</v>
+        <v>57800</v>
       </c>
       <c r="J57" s="3">
-        <v>54600</v>
+        <v>54100</v>
       </c>
       <c r="K57" s="3">
         <v>65200</v>
@@ -3872,19 +3872,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>177300</v>
+        <v>175700</v>
       </c>
       <c r="E58" s="3">
-        <v>176000</v>
+        <v>174400</v>
       </c>
       <c r="F58" s="3">
-        <v>174000</v>
+        <v>172400</v>
       </c>
       <c r="G58" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="H58" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="I58" s="3">
         <v>2900</v>
@@ -3943,25 +3943,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>257400</v>
+        <v>255100</v>
       </c>
       <c r="E59" s="3">
-        <v>273500</v>
+        <v>271000</v>
       </c>
       <c r="F59" s="3">
-        <v>256700</v>
+        <v>254400</v>
       </c>
       <c r="G59" s="3">
-        <v>227300</v>
+        <v>225300</v>
       </c>
       <c r="H59" s="3">
-        <v>199500</v>
+        <v>197700</v>
       </c>
       <c r="I59" s="3">
-        <v>194200</v>
+        <v>192500</v>
       </c>
       <c r="J59" s="3">
-        <v>191700</v>
+        <v>190000</v>
       </c>
       <c r="K59" s="3">
         <v>219600</v>
@@ -4014,25 +4014,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>480900</v>
+        <v>476600</v>
       </c>
       <c r="E60" s="3">
-        <v>509800</v>
+        <v>505200</v>
       </c>
       <c r="F60" s="3">
-        <v>491200</v>
+        <v>486700</v>
       </c>
       <c r="G60" s="3">
-        <v>302700</v>
+        <v>299900</v>
       </c>
       <c r="H60" s="3">
-        <v>277900</v>
+        <v>275400</v>
       </c>
       <c r="I60" s="3">
-        <v>255500</v>
+        <v>253200</v>
       </c>
       <c r="J60" s="3">
-        <v>246400</v>
+        <v>244100</v>
       </c>
       <c r="K60" s="3">
         <v>284800</v>
@@ -4094,16 +4094,16 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>175700</v>
+        <v>174100</v>
       </c>
       <c r="H61" s="3">
-        <v>173100</v>
+        <v>171600</v>
       </c>
       <c r="I61" s="3">
-        <v>179300</v>
+        <v>177700</v>
       </c>
       <c r="J61" s="3">
-        <v>185000</v>
+        <v>183400</v>
       </c>
       <c r="K61" s="3">
         <v>196800</v>
@@ -4159,22 +4159,22 @@
         <v>5000</v>
       </c>
       <c r="E62" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="F62" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G62" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="H62" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="I62" s="3">
         <v>4800</v>
       </c>
       <c r="J62" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="K62" s="3">
         <v>7100</v>
@@ -4440,25 +4440,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>658700</v>
+        <v>652800</v>
       </c>
       <c r="E66" s="3">
-        <v>685900</v>
+        <v>679700</v>
       </c>
       <c r="F66" s="3">
-        <v>662600</v>
+        <v>656600</v>
       </c>
       <c r="G66" s="3">
-        <v>649600</v>
+        <v>643800</v>
       </c>
       <c r="H66" s="3">
-        <v>618400</v>
+        <v>612800</v>
       </c>
       <c r="I66" s="3">
-        <v>515600</v>
+        <v>511000</v>
       </c>
       <c r="J66" s="3">
-        <v>514200</v>
+        <v>509500</v>
       </c>
       <c r="K66" s="3">
         <v>569200</v>
@@ -4822,25 +4822,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1083900</v>
+        <v>-1074200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1035900</v>
+        <v>-1026500</v>
       </c>
       <c r="F72" s="3">
-        <v>-945800</v>
+        <v>-937300</v>
       </c>
       <c r="G72" s="3">
-        <v>-911000</v>
+        <v>-902800</v>
       </c>
       <c r="H72" s="3">
-        <v>-885200</v>
+        <v>-877200</v>
       </c>
       <c r="I72" s="3">
-        <v>-873600</v>
+        <v>-865700</v>
       </c>
       <c r="J72" s="3">
-        <v>-832200</v>
+        <v>-824700</v>
       </c>
       <c r="K72" s="3">
         <v>-853900</v>
@@ -5106,25 +5106,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-352100</v>
+        <v>-348900</v>
       </c>
       <c r="E76" s="3">
-        <v>-311700</v>
+        <v>-308800</v>
       </c>
       <c r="F76" s="3">
-        <v>-229200</v>
+        <v>-227200</v>
       </c>
       <c r="G76" s="3">
-        <v>-202600</v>
+        <v>-200800</v>
       </c>
       <c r="H76" s="3">
-        <v>-188700</v>
+        <v>-187000</v>
       </c>
       <c r="I76" s="3">
-        <v>-206700</v>
+        <v>-204800</v>
       </c>
       <c r="J76" s="3">
-        <v>-193000</v>
+        <v>-191200</v>
       </c>
       <c r="K76" s="3">
         <v>-177400</v>
@@ -5324,25 +5324,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-48100</v>
+        <v>-47700</v>
       </c>
       <c r="E81" s="3">
-        <v>-90100</v>
+        <v>-89200</v>
       </c>
       <c r="F81" s="3">
-        <v>-34800</v>
+        <v>-34500</v>
       </c>
       <c r="G81" s="3">
-        <v>-25800</v>
+        <v>-25600</v>
       </c>
       <c r="H81" s="3">
-        <v>-11600</v>
+        <v>-11500</v>
       </c>
       <c r="I81" s="3">
-        <v>-41500</v>
+        <v>-41100</v>
       </c>
       <c r="J81" s="3">
-        <v>-34500</v>
+        <v>-34200</v>
       </c>
       <c r="K81" s="3">
         <v>-85700</v>

--- a/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
@@ -770,25 +770,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>128700</v>
+        <v>122600</v>
       </c>
       <c r="E8" s="3">
-        <v>141000</v>
+        <v>134400</v>
       </c>
       <c r="F8" s="3">
-        <v>175500</v>
+        <v>167300</v>
       </c>
       <c r="G8" s="3">
-        <v>188500</v>
+        <v>179700</v>
       </c>
       <c r="H8" s="3">
-        <v>190200</v>
+        <v>181300</v>
       </c>
       <c r="I8" s="3">
-        <v>165000</v>
+        <v>157300</v>
       </c>
       <c r="J8" s="3">
-        <v>210400</v>
+        <v>200600</v>
       </c>
       <c r="K8" s="3">
         <v>222700</v>
@@ -841,25 +841,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>28300</v>
+        <v>27000</v>
       </c>
       <c r="E9" s="3">
-        <v>39200</v>
+        <v>37400</v>
       </c>
       <c r="F9" s="3">
-        <v>47900</v>
+        <v>45600</v>
       </c>
       <c r="G9" s="3">
+        <v>53100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>61500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>51700</v>
+      </c>
+      <c r="J9" s="3">
         <v>55700</v>
-      </c>
-      <c r="H9" s="3">
-        <v>64500</v>
-      </c>
-      <c r="I9" s="3">
-        <v>54300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>58400</v>
       </c>
       <c r="K9" s="3">
         <v>72700</v>
@@ -912,25 +912,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100300</v>
+        <v>95600</v>
       </c>
       <c r="E10" s="3">
-        <v>101800</v>
+        <v>97000</v>
       </c>
       <c r="F10" s="3">
-        <v>127700</v>
+        <v>121700</v>
       </c>
       <c r="G10" s="3">
-        <v>132800</v>
+        <v>126600</v>
       </c>
       <c r="H10" s="3">
-        <v>125700</v>
+        <v>119800</v>
       </c>
       <c r="I10" s="3">
-        <v>110700</v>
+        <v>105500</v>
       </c>
       <c r="J10" s="3">
-        <v>152000</v>
+        <v>144900</v>
       </c>
       <c r="K10" s="3">
         <v>150000</v>
@@ -1010,25 +1010,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="E12" s="3">
-        <v>20400</v>
+        <v>19500</v>
       </c>
       <c r="F12" s="3">
-        <v>19900</v>
+        <v>19000</v>
       </c>
       <c r="G12" s="3">
-        <v>27300</v>
+        <v>26000</v>
       </c>
       <c r="H12" s="3">
-        <v>29200</v>
+        <v>27800</v>
       </c>
       <c r="I12" s="3">
-        <v>35500</v>
+        <v>33800</v>
       </c>
       <c r="J12" s="3">
-        <v>32700</v>
+        <v>31200</v>
       </c>
       <c r="K12" s="3">
         <v>44300</v>
@@ -1152,25 +1152,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="E14" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J14" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-3600</v>
       </c>
       <c r="K14" s="3">
         <v>-1100</v>
@@ -1318,25 +1318,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>164900</v>
+        <v>157100</v>
       </c>
       <c r="E17" s="3">
-        <v>224800</v>
+        <v>214300</v>
       </c>
       <c r="F17" s="3">
-        <v>208200</v>
+        <v>198500</v>
       </c>
       <c r="G17" s="3">
-        <v>210000</v>
+        <v>200200</v>
       </c>
       <c r="H17" s="3">
-        <v>203300</v>
+        <v>193800</v>
       </c>
       <c r="I17" s="3">
-        <v>201200</v>
+        <v>191800</v>
       </c>
       <c r="J17" s="3">
-        <v>238100</v>
+        <v>227000</v>
       </c>
       <c r="K17" s="3">
         <v>302400</v>
@@ -1389,25 +1389,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-36200</v>
+        <v>-34500</v>
       </c>
       <c r="E18" s="3">
-        <v>-83800</v>
+        <v>-79900</v>
       </c>
       <c r="F18" s="3">
-        <v>-32700</v>
+        <v>-31200</v>
       </c>
       <c r="G18" s="3">
-        <v>-21500</v>
+        <v>-20500</v>
       </c>
       <c r="H18" s="3">
-        <v>-13200</v>
+        <v>-12500</v>
       </c>
       <c r="I18" s="3">
-        <v>-36200</v>
+        <v>-34500</v>
       </c>
       <c r="J18" s="3">
-        <v>-27700</v>
+        <v>-26400</v>
       </c>
       <c r="K18" s="3">
         <v>-79600</v>
@@ -1493,19 +1493,19 @@
         <v>-1200</v>
       </c>
       <c r="F20" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G20" s="3">
         <v>-300</v>
       </c>
       <c r="H20" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I20" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="J20" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="K20" s="3">
         <v>-4100</v>
@@ -1629,7 +1629,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>16</v>
@@ -1700,25 +1700,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-42700</v>
+        <v>-40700</v>
       </c>
       <c r="E23" s="3">
-        <v>-85100</v>
+        <v>-81100</v>
       </c>
       <c r="F23" s="3">
-        <v>-30600</v>
+        <v>-29200</v>
       </c>
       <c r="G23" s="3">
-        <v>-21800</v>
+        <v>-20800</v>
       </c>
       <c r="H23" s="3">
-        <v>-12000</v>
+        <v>-11400</v>
       </c>
       <c r="I23" s="3">
-        <v>-39700</v>
+        <v>-37800</v>
       </c>
       <c r="J23" s="3">
-        <v>-32400</v>
+        <v>-30900</v>
       </c>
       <c r="K23" s="3">
         <v>-83700</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>-300</v>
@@ -1913,25 +1913,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-43100</v>
+        <v>-41100</v>
       </c>
       <c r="E26" s="3">
-        <v>-85100</v>
+        <v>-81200</v>
       </c>
       <c r="F26" s="3">
-        <v>-30600</v>
+        <v>-29200</v>
       </c>
       <c r="G26" s="3">
-        <v>-21800</v>
+        <v>-20700</v>
       </c>
       <c r="H26" s="3">
-        <v>-11900</v>
+        <v>-11400</v>
       </c>
       <c r="I26" s="3">
-        <v>-39300</v>
+        <v>-37500</v>
       </c>
       <c r="J26" s="3">
-        <v>-32400</v>
+        <v>-30900</v>
       </c>
       <c r="K26" s="3">
         <v>-83900</v>
@@ -1984,25 +1984,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-47700</v>
+        <v>-45400</v>
       </c>
       <c r="E27" s="3">
-        <v>-89200</v>
+        <v>-85100</v>
       </c>
       <c r="F27" s="3">
-        <v>-34500</v>
+        <v>-32900</v>
       </c>
       <c r="G27" s="3">
-        <v>-25600</v>
+        <v>-24400</v>
       </c>
       <c r="H27" s="3">
-        <v>-11500</v>
+        <v>-10900</v>
       </c>
       <c r="I27" s="3">
-        <v>-41100</v>
+        <v>-39200</v>
       </c>
       <c r="J27" s="3">
-        <v>-34200</v>
+        <v>-32600</v>
       </c>
       <c r="K27" s="3">
         <v>-85700</v>
@@ -2345,19 +2345,19 @@
         <v>1200</v>
       </c>
       <c r="F32" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="G32" s="3">
         <v>300</v>
       </c>
       <c r="H32" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I32" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J32" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="K32" s="3">
         <v>4100</v>
@@ -2410,25 +2410,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-47700</v>
+        <v>-45400</v>
       </c>
       <c r="E33" s="3">
-        <v>-89200</v>
+        <v>-85100</v>
       </c>
       <c r="F33" s="3">
-        <v>-34500</v>
+        <v>-32900</v>
       </c>
       <c r="G33" s="3">
-        <v>-25600</v>
+        <v>-24400</v>
       </c>
       <c r="H33" s="3">
-        <v>-11500</v>
+        <v>-10900</v>
       </c>
       <c r="I33" s="3">
-        <v>-41100</v>
+        <v>-39200</v>
       </c>
       <c r="J33" s="3">
-        <v>-34200</v>
+        <v>-32600</v>
       </c>
       <c r="K33" s="3">
         <v>-85700</v>
@@ -2552,25 +2552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-47700</v>
+        <v>-45400</v>
       </c>
       <c r="E35" s="3">
-        <v>-89200</v>
+        <v>-85100</v>
       </c>
       <c r="F35" s="3">
-        <v>-34500</v>
+        <v>-32900</v>
       </c>
       <c r="G35" s="3">
-        <v>-25600</v>
+        <v>-24400</v>
       </c>
       <c r="H35" s="3">
-        <v>-11500</v>
+        <v>-10900</v>
       </c>
       <c r="I35" s="3">
-        <v>-41100</v>
+        <v>-39200</v>
       </c>
       <c r="J35" s="3">
-        <v>-34200</v>
+        <v>-32600</v>
       </c>
       <c r="K35" s="3">
         <v>-85700</v>
@@ -2753,25 +2753,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>35100</v>
+        <v>33500</v>
       </c>
       <c r="E41" s="3">
-        <v>32300</v>
+        <v>30800</v>
       </c>
       <c r="F41" s="3">
-        <v>58400</v>
+        <v>55700</v>
       </c>
       <c r="G41" s="3">
-        <v>106600</v>
+        <v>101600</v>
       </c>
       <c r="H41" s="3">
-        <v>72200</v>
+        <v>68800</v>
       </c>
       <c r="I41" s="3">
-        <v>38000</v>
+        <v>36200</v>
       </c>
       <c r="J41" s="3">
-        <v>23400</v>
+        <v>22300</v>
       </c>
       <c r="K41" s="3">
         <v>29900</v>
@@ -2824,25 +2824,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>50100</v>
+        <v>47700</v>
       </c>
       <c r="E42" s="3">
-        <v>88300</v>
+        <v>84200</v>
       </c>
       <c r="F42" s="3">
-        <v>85100</v>
+        <v>81100</v>
       </c>
       <c r="G42" s="3">
-        <v>40000</v>
+        <v>38200</v>
       </c>
       <c r="H42" s="3">
-        <v>57100</v>
+        <v>54400</v>
       </c>
       <c r="I42" s="3">
-        <v>27700</v>
+        <v>26400</v>
       </c>
       <c r="J42" s="3">
-        <v>104800</v>
+        <v>99900</v>
       </c>
       <c r="K42" s="3">
         <v>148000</v>
@@ -2895,25 +2895,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>150500</v>
+        <v>143500</v>
       </c>
       <c r="E43" s="3">
-        <v>167300</v>
+        <v>159400</v>
       </c>
       <c r="F43" s="3">
-        <v>187900</v>
+        <v>179100</v>
       </c>
       <c r="G43" s="3">
-        <v>178100</v>
+        <v>169800</v>
       </c>
       <c r="H43" s="3">
-        <v>163800</v>
+        <v>156100</v>
       </c>
       <c r="I43" s="3">
-        <v>149600</v>
+        <v>142700</v>
       </c>
       <c r="J43" s="3">
-        <v>116200</v>
+        <v>110800</v>
       </c>
       <c r="K43" s="3">
         <v>134500</v>
@@ -3037,25 +3037,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36300</v>
+        <v>34600</v>
       </c>
       <c r="E45" s="3">
-        <v>35700</v>
+        <v>34100</v>
       </c>
       <c r="F45" s="3">
-        <v>45100</v>
+        <v>43000</v>
       </c>
       <c r="G45" s="3">
-        <v>61400</v>
+        <v>58600</v>
       </c>
       <c r="H45" s="3">
-        <v>68000</v>
+        <v>64800</v>
       </c>
       <c r="I45" s="3">
-        <v>35800</v>
+        <v>34200</v>
       </c>
       <c r="J45" s="3">
-        <v>33500</v>
+        <v>31900</v>
       </c>
       <c r="K45" s="3">
         <v>30000</v>
@@ -3108,25 +3108,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>272000</v>
+        <v>259300</v>
       </c>
       <c r="E46" s="3">
-        <v>323600</v>
+        <v>308500</v>
       </c>
       <c r="F46" s="3">
-        <v>376500</v>
+        <v>358900</v>
       </c>
       <c r="G46" s="3">
-        <v>386200</v>
+        <v>368100</v>
       </c>
       <c r="H46" s="3">
-        <v>361000</v>
+        <v>344100</v>
       </c>
       <c r="I46" s="3">
-        <v>251200</v>
+        <v>239400</v>
       </c>
       <c r="J46" s="3">
-        <v>277900</v>
+        <v>264900</v>
       </c>
       <c r="K46" s="3">
         <v>342400</v>
@@ -3182,22 +3182,22 @@
         <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>12900</v>
+        <v>12300</v>
       </c>
       <c r="F47" s="3">
-        <v>15700</v>
+        <v>15000</v>
       </c>
       <c r="G47" s="3">
-        <v>16700</v>
+        <v>15900</v>
       </c>
       <c r="H47" s="3">
-        <v>20100</v>
+        <v>19100</v>
       </c>
       <c r="I47" s="3">
-        <v>12100</v>
+        <v>11500</v>
       </c>
       <c r="J47" s="3">
-        <v>14600</v>
+        <v>14000</v>
       </c>
       <c r="K47" s="3">
         <v>19700</v>
@@ -3250,25 +3250,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="E48" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="F48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G48" s="3">
         <v>7000</v>
       </c>
-      <c r="G48" s="3">
-        <v>7300</v>
-      </c>
       <c r="H48" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="I48" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="J48" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="K48" s="3">
         <v>11700</v>
@@ -3321,25 +3321,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25200</v>
+        <v>24000</v>
       </c>
       <c r="E49" s="3">
-        <v>27300</v>
+        <v>26000</v>
       </c>
       <c r="F49" s="3">
-        <v>29400</v>
+        <v>28000</v>
       </c>
       <c r="G49" s="3">
-        <v>31500</v>
+        <v>30000</v>
       </c>
       <c r="H49" s="3">
-        <v>13200</v>
+        <v>12600</v>
       </c>
       <c r="I49" s="3">
-        <v>13700</v>
+        <v>13100</v>
       </c>
       <c r="J49" s="3">
-        <v>14200</v>
+        <v>13500</v>
       </c>
       <c r="K49" s="3">
         <v>14700</v>
@@ -3543,16 +3543,16 @@
         <v>900</v>
       </c>
       <c r="G52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H52" s="3">
-        <v>21600</v>
+        <v>20600</v>
       </c>
       <c r="I52" s="3">
-        <v>21700</v>
+        <v>20700</v>
       </c>
       <c r="J52" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K52" s="3">
         <v>3300</v>
@@ -3676,25 +3676,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>303800</v>
+        <v>289600</v>
       </c>
       <c r="E54" s="3">
-        <v>370900</v>
+        <v>353500</v>
       </c>
       <c r="F54" s="3">
-        <v>429500</v>
+        <v>409400</v>
       </c>
       <c r="G54" s="3">
-        <v>443000</v>
+        <v>422300</v>
       </c>
       <c r="H54" s="3">
-        <v>425800</v>
+        <v>405900</v>
       </c>
       <c r="I54" s="3">
-        <v>306100</v>
+        <v>291800</v>
       </c>
       <c r="J54" s="3">
-        <v>318300</v>
+        <v>303400</v>
       </c>
       <c r="K54" s="3">
         <v>391800</v>
@@ -3801,25 +3801,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>45800</v>
+        <v>43700</v>
       </c>
       <c r="E57" s="3">
-        <v>59800</v>
+        <v>57000</v>
       </c>
       <c r="F57" s="3">
-        <v>59900</v>
+        <v>57100</v>
       </c>
       <c r="G57" s="3">
-        <v>67300</v>
+        <v>64200</v>
       </c>
       <c r="H57" s="3">
-        <v>67500</v>
+        <v>64300</v>
       </c>
       <c r="I57" s="3">
-        <v>57800</v>
+        <v>55100</v>
       </c>
       <c r="J57" s="3">
-        <v>54100</v>
+        <v>51600</v>
       </c>
       <c r="K57" s="3">
         <v>65200</v>
@@ -3872,22 +3872,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>175700</v>
+        <v>167500</v>
       </c>
       <c r="E58" s="3">
-        <v>174400</v>
+        <v>166200</v>
       </c>
       <c r="F58" s="3">
-        <v>172400</v>
+        <v>164300</v>
       </c>
       <c r="G58" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="H58" s="3">
-        <v>10200</v>
+        <v>9700</v>
       </c>
       <c r="I58" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>16</v>
@@ -3943,25 +3943,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>255100</v>
+        <v>243200</v>
       </c>
       <c r="E59" s="3">
-        <v>271000</v>
+        <v>258300</v>
       </c>
       <c r="F59" s="3">
-        <v>254400</v>
+        <v>242500</v>
       </c>
       <c r="G59" s="3">
-        <v>225300</v>
+        <v>214700</v>
       </c>
       <c r="H59" s="3">
-        <v>197700</v>
+        <v>188500</v>
       </c>
       <c r="I59" s="3">
-        <v>192500</v>
+        <v>183500</v>
       </c>
       <c r="J59" s="3">
-        <v>190000</v>
+        <v>181100</v>
       </c>
       <c r="K59" s="3">
         <v>219600</v>
@@ -4014,25 +4014,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>476600</v>
+        <v>454300</v>
       </c>
       <c r="E60" s="3">
-        <v>505200</v>
+        <v>481600</v>
       </c>
       <c r="F60" s="3">
-        <v>486700</v>
+        <v>464000</v>
       </c>
       <c r="G60" s="3">
-        <v>299900</v>
+        <v>285900</v>
       </c>
       <c r="H60" s="3">
-        <v>275400</v>
+        <v>262500</v>
       </c>
       <c r="I60" s="3">
-        <v>253200</v>
+        <v>241400</v>
       </c>
       <c r="J60" s="3">
-        <v>244100</v>
+        <v>232700</v>
       </c>
       <c r="K60" s="3">
         <v>284800</v>
@@ -4094,16 +4094,16 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>174100</v>
+        <v>165900</v>
       </c>
       <c r="H61" s="3">
-        <v>171600</v>
+        <v>163500</v>
       </c>
       <c r="I61" s="3">
-        <v>177700</v>
+        <v>169400</v>
       </c>
       <c r="J61" s="3">
-        <v>183400</v>
+        <v>174800</v>
       </c>
       <c r="K61" s="3">
         <v>196800</v>
@@ -4156,25 +4156,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F62" s="3">
         <v>5000</v>
       </c>
-      <c r="E62" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>5200</v>
-      </c>
       <c r="G62" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="H62" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="I62" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="J62" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="K62" s="3">
         <v>7100</v>
@@ -4440,25 +4440,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>652800</v>
+        <v>622200</v>
       </c>
       <c r="E66" s="3">
-        <v>679700</v>
+        <v>647900</v>
       </c>
       <c r="F66" s="3">
-        <v>656600</v>
+        <v>625900</v>
       </c>
       <c r="G66" s="3">
-        <v>643800</v>
+        <v>613700</v>
       </c>
       <c r="H66" s="3">
-        <v>612800</v>
+        <v>584200</v>
       </c>
       <c r="I66" s="3">
-        <v>511000</v>
+        <v>487100</v>
       </c>
       <c r="J66" s="3">
-        <v>509500</v>
+        <v>485700</v>
       </c>
       <c r="K66" s="3">
         <v>569200</v>
@@ -4822,25 +4822,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1074200</v>
+        <v>-1023900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1026500</v>
+        <v>-978500</v>
       </c>
       <c r="F72" s="3">
-        <v>-937300</v>
+        <v>-893400</v>
       </c>
       <c r="G72" s="3">
-        <v>-902800</v>
+        <v>-860600</v>
       </c>
       <c r="H72" s="3">
-        <v>-877200</v>
+        <v>-836200</v>
       </c>
       <c r="I72" s="3">
-        <v>-865700</v>
+        <v>-825300</v>
       </c>
       <c r="J72" s="3">
-        <v>-824700</v>
+        <v>-786100</v>
       </c>
       <c r="K72" s="3">
         <v>-853900</v>
@@ -5106,25 +5106,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-348900</v>
+        <v>-332600</v>
       </c>
       <c r="E76" s="3">
-        <v>-308800</v>
+        <v>-294400</v>
       </c>
       <c r="F76" s="3">
-        <v>-227200</v>
+        <v>-216500</v>
       </c>
       <c r="G76" s="3">
-        <v>-200800</v>
+        <v>-191400</v>
       </c>
       <c r="H76" s="3">
-        <v>-187000</v>
+        <v>-178300</v>
       </c>
       <c r="I76" s="3">
-        <v>-204800</v>
+        <v>-195300</v>
       </c>
       <c r="J76" s="3">
-        <v>-191200</v>
+        <v>-182300</v>
       </c>
       <c r="K76" s="3">
         <v>-177400</v>
@@ -5324,25 +5324,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-47700</v>
+        <v>-45400</v>
       </c>
       <c r="E81" s="3">
-        <v>-89200</v>
+        <v>-85100</v>
       </c>
       <c r="F81" s="3">
-        <v>-34500</v>
+        <v>-32900</v>
       </c>
       <c r="G81" s="3">
-        <v>-25600</v>
+        <v>-24400</v>
       </c>
       <c r="H81" s="3">
-        <v>-11500</v>
+        <v>-10900</v>
       </c>
       <c r="I81" s="3">
-        <v>-41100</v>
+        <v>-39200</v>
       </c>
       <c r="J81" s="3">
-        <v>-34200</v>
+        <v>-32600</v>
       </c>
       <c r="K81" s="3">
         <v>-85700</v>

--- a/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QTT_QTR_FIN.xlsx
@@ -770,25 +770,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>122600</v>
+        <v>126500</v>
       </c>
       <c r="E8" s="3">
-        <v>134400</v>
+        <v>138700</v>
       </c>
       <c r="F8" s="3">
-        <v>167300</v>
+        <v>172600</v>
       </c>
       <c r="G8" s="3">
-        <v>179700</v>
+        <v>185400</v>
       </c>
       <c r="H8" s="3">
-        <v>181300</v>
+        <v>187100</v>
       </c>
       <c r="I8" s="3">
-        <v>157300</v>
+        <v>162300</v>
       </c>
       <c r="J8" s="3">
-        <v>200600</v>
+        <v>207000</v>
       </c>
       <c r="K8" s="3">
         <v>222700</v>
@@ -841,25 +841,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27000</v>
+        <v>27900</v>
       </c>
       <c r="E9" s="3">
-        <v>37400</v>
+        <v>38600</v>
       </c>
       <c r="F9" s="3">
-        <v>45600</v>
+        <v>47100</v>
       </c>
       <c r="G9" s="3">
-        <v>53100</v>
+        <v>54800</v>
       </c>
       <c r="H9" s="3">
-        <v>61500</v>
+        <v>63400</v>
       </c>
       <c r="I9" s="3">
-        <v>51700</v>
+        <v>53400</v>
       </c>
       <c r="J9" s="3">
-        <v>55700</v>
+        <v>57500</v>
       </c>
       <c r="K9" s="3">
         <v>72700</v>
@@ -912,25 +912,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>95600</v>
+        <v>98700</v>
       </c>
       <c r="E10" s="3">
-        <v>97000</v>
+        <v>100100</v>
       </c>
       <c r="F10" s="3">
-        <v>121700</v>
+        <v>125600</v>
       </c>
       <c r="G10" s="3">
-        <v>126600</v>
+        <v>130700</v>
       </c>
       <c r="H10" s="3">
-        <v>119800</v>
+        <v>123600</v>
       </c>
       <c r="I10" s="3">
-        <v>105500</v>
+        <v>108900</v>
       </c>
       <c r="J10" s="3">
-        <v>144900</v>
+        <v>149500</v>
       </c>
       <c r="K10" s="3">
         <v>150000</v>
@@ -1010,25 +1010,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="E12" s="3">
-        <v>19500</v>
+        <v>20100</v>
       </c>
       <c r="F12" s="3">
-        <v>19000</v>
+        <v>19600</v>
       </c>
       <c r="G12" s="3">
-        <v>26000</v>
+        <v>26800</v>
       </c>
       <c r="H12" s="3">
-        <v>27800</v>
+        <v>28700</v>
       </c>
       <c r="I12" s="3">
-        <v>33800</v>
+        <v>34900</v>
       </c>
       <c r="J12" s="3">
-        <v>31200</v>
+        <v>32200</v>
       </c>
       <c r="K12" s="3">
         <v>44300</v>
@@ -1152,25 +1152,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="E14" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="F14" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G14" s="3">
         <v>-4600</v>
       </c>
-      <c r="G14" s="3">
-        <v>-4400</v>
-      </c>
       <c r="H14" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="I14" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="J14" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="K14" s="3">
         <v>-1100</v>
@@ -1318,25 +1318,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>157100</v>
+        <v>162100</v>
       </c>
       <c r="E17" s="3">
-        <v>214300</v>
+        <v>221100</v>
       </c>
       <c r="F17" s="3">
-        <v>198500</v>
+        <v>204800</v>
       </c>
       <c r="G17" s="3">
-        <v>200200</v>
+        <v>206600</v>
       </c>
       <c r="H17" s="3">
-        <v>193800</v>
+        <v>200000</v>
       </c>
       <c r="I17" s="3">
-        <v>191800</v>
+        <v>197900</v>
       </c>
       <c r="J17" s="3">
-        <v>227000</v>
+        <v>234200</v>
       </c>
       <c r="K17" s="3">
         <v>302400</v>
@@ -1389,25 +1389,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-34500</v>
+        <v>-35600</v>
       </c>
       <c r="E18" s="3">
-        <v>-79900</v>
+        <v>-82500</v>
       </c>
       <c r="F18" s="3">
-        <v>-31200</v>
+        <v>-32200</v>
       </c>
       <c r="G18" s="3">
-        <v>-20500</v>
+        <v>-21200</v>
       </c>
       <c r="H18" s="3">
-        <v>-12500</v>
+        <v>-12900</v>
       </c>
       <c r="I18" s="3">
-        <v>-34500</v>
+        <v>-35600</v>
       </c>
       <c r="J18" s="3">
-        <v>-26400</v>
+        <v>-27200</v>
       </c>
       <c r="K18" s="3">
         <v>-79600</v>
@@ -1502,10 +1502,10 @@
         <v>1100</v>
       </c>
       <c r="I20" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="J20" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="K20" s="3">
         <v>-4100</v>
@@ -1629,7 +1629,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>16</v>
@@ -1700,25 +1700,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-40700</v>
+        <v>-42000</v>
       </c>
       <c r="E23" s="3">
-        <v>-81100</v>
+        <v>-83700</v>
       </c>
       <c r="F23" s="3">
-        <v>-29200</v>
+        <v>-30100</v>
       </c>
       <c r="G23" s="3">
-        <v>-20800</v>
+        <v>-21400</v>
       </c>
       <c r="H23" s="3">
-        <v>-11400</v>
+        <v>-11800</v>
       </c>
       <c r="I23" s="3">
-        <v>-37800</v>
+        <v>-39000</v>
       </c>
       <c r="J23" s="3">
-        <v>-30900</v>
+        <v>-31900</v>
       </c>
       <c r="K23" s="3">
         <v>-83700</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I24" s="3">
         <v>-300</v>
@@ -1913,25 +1913,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-41100</v>
+        <v>-42400</v>
       </c>
       <c r="E26" s="3">
-        <v>-81200</v>
+        <v>-83700</v>
       </c>
       <c r="F26" s="3">
-        <v>-29200</v>
+        <v>-30100</v>
       </c>
       <c r="G26" s="3">
-        <v>-20700</v>
+        <v>-21400</v>
       </c>
       <c r="H26" s="3">
-        <v>-11400</v>
+        <v>-11700</v>
       </c>
       <c r="I26" s="3">
-        <v>-37500</v>
+        <v>-38700</v>
       </c>
       <c r="J26" s="3">
-        <v>-30900</v>
+        <v>-31900</v>
       </c>
       <c r="K26" s="3">
         <v>-83900</v>
@@ -1984,25 +1984,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-45400</v>
+        <v>-46900</v>
       </c>
       <c r="E27" s="3">
-        <v>-85100</v>
+        <v>-87800</v>
       </c>
       <c r="F27" s="3">
-        <v>-32900</v>
+        <v>-33900</v>
       </c>
       <c r="G27" s="3">
-        <v>-24400</v>
+        <v>-25100</v>
       </c>
       <c r="H27" s="3">
-        <v>-10900</v>
+        <v>-11300</v>
       </c>
       <c r="I27" s="3">
-        <v>-39200</v>
+        <v>-40400</v>
       </c>
       <c r="J27" s="3">
-        <v>-32600</v>
+        <v>-33700</v>
       </c>
       <c r="K27" s="3">
         <v>-85700</v>
@@ -2354,10 +2354,10 @@
         <v>-1100</v>
       </c>
       <c r="I32" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J32" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="K32" s="3">
         <v>4100</v>
@@ -2410,25 +2410,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-45400</v>
+        <v>-46900</v>
       </c>
       <c r="E33" s="3">
-        <v>-85100</v>
+        <v>-87800</v>
       </c>
       <c r="F33" s="3">
-        <v>-32900</v>
+        <v>-33900</v>
       </c>
       <c r="G33" s="3">
-        <v>-24400</v>
+        <v>-25100</v>
       </c>
       <c r="H33" s="3">
-        <v>-10900</v>
+        <v>-11300</v>
       </c>
       <c r="I33" s="3">
-        <v>-39200</v>
+        <v>-40400</v>
       </c>
       <c r="J33" s="3">
-        <v>-32600</v>
+        <v>-33700</v>
       </c>
       <c r="K33" s="3">
         <v>-85700</v>
@@ -2552,25 +2552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-45400</v>
+        <v>-46900</v>
       </c>
       <c r="E35" s="3">
-        <v>-85100</v>
+        <v>-87800</v>
       </c>
       <c r="F35" s="3">
-        <v>-32900</v>
+        <v>-33900</v>
       </c>
       <c r="G35" s="3">
-        <v>-24400</v>
+        <v>-25100</v>
       </c>
       <c r="H35" s="3">
-        <v>-10900</v>
+        <v>-11300</v>
       </c>
       <c r="I35" s="3">
-        <v>-39200</v>
+        <v>-40400</v>
       </c>
       <c r="J35" s="3">
-        <v>-32600</v>
+        <v>-33700</v>
       </c>
       <c r="K35" s="3">
         <v>-85700</v>
@@ -2753,25 +2753,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>33500</v>
+        <v>34500</v>
       </c>
       <c r="E41" s="3">
-        <v>30800</v>
+        <v>31800</v>
       </c>
       <c r="F41" s="3">
-        <v>55700</v>
+        <v>57400</v>
       </c>
       <c r="G41" s="3">
-        <v>101600</v>
+        <v>104900</v>
       </c>
       <c r="H41" s="3">
-        <v>68800</v>
+        <v>71000</v>
       </c>
       <c r="I41" s="3">
-        <v>36200</v>
+        <v>37400</v>
       </c>
       <c r="J41" s="3">
-        <v>22300</v>
+        <v>23000</v>
       </c>
       <c r="K41" s="3">
         <v>29900</v>
@@ -2824,25 +2824,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>47700</v>
+        <v>49300</v>
       </c>
       <c r="E42" s="3">
-        <v>84200</v>
+        <v>86800</v>
       </c>
       <c r="F42" s="3">
-        <v>81100</v>
+        <v>83700</v>
       </c>
       <c r="G42" s="3">
-        <v>38200</v>
+        <v>39400</v>
       </c>
       <c r="H42" s="3">
-        <v>54400</v>
+        <v>56200</v>
       </c>
       <c r="I42" s="3">
-        <v>26400</v>
+        <v>27200</v>
       </c>
       <c r="J42" s="3">
-        <v>99900</v>
+        <v>103100</v>
       </c>
       <c r="K42" s="3">
         <v>148000</v>
@@ -2895,25 +2895,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>143500</v>
+        <v>148000</v>
       </c>
       <c r="E43" s="3">
-        <v>159400</v>
+        <v>164500</v>
       </c>
       <c r="F43" s="3">
-        <v>179100</v>
+        <v>184800</v>
       </c>
       <c r="G43" s="3">
-        <v>169800</v>
+        <v>175100</v>
       </c>
       <c r="H43" s="3">
-        <v>156100</v>
+        <v>161100</v>
       </c>
       <c r="I43" s="3">
-        <v>142700</v>
+        <v>147200</v>
       </c>
       <c r="J43" s="3">
-        <v>110800</v>
+        <v>114300</v>
       </c>
       <c r="K43" s="3">
         <v>134500</v>
@@ -3037,25 +3037,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34600</v>
+        <v>35700</v>
       </c>
       <c r="E45" s="3">
-        <v>34100</v>
+        <v>35100</v>
       </c>
       <c r="F45" s="3">
-        <v>43000</v>
+        <v>44400</v>
       </c>
       <c r="G45" s="3">
-        <v>58600</v>
+        <v>60400</v>
       </c>
       <c r="H45" s="3">
-        <v>64800</v>
+        <v>66800</v>
       </c>
       <c r="I45" s="3">
-        <v>34200</v>
+        <v>35300</v>
       </c>
       <c r="J45" s="3">
-        <v>31900</v>
+        <v>32900</v>
       </c>
       <c r="K45" s="3">
         <v>30000</v>
@@ -3108,25 +3108,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>259300</v>
+        <v>267500</v>
       </c>
       <c r="E46" s="3">
-        <v>308500</v>
+        <v>318200</v>
       </c>
       <c r="F46" s="3">
-        <v>358900</v>
+        <v>370300</v>
       </c>
       <c r="G46" s="3">
-        <v>368100</v>
+        <v>379800</v>
       </c>
       <c r="H46" s="3">
-        <v>344100</v>
+        <v>355100</v>
       </c>
       <c r="I46" s="3">
-        <v>239400</v>
+        <v>247000</v>
       </c>
       <c r="J46" s="3">
-        <v>264900</v>
+        <v>273400</v>
       </c>
       <c r="K46" s="3">
         <v>342400</v>
@@ -3182,22 +3182,22 @@
         <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>12300</v>
+        <v>12700</v>
       </c>
       <c r="F47" s="3">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="G47" s="3">
-        <v>15900</v>
+        <v>16400</v>
       </c>
       <c r="H47" s="3">
-        <v>19100</v>
+        <v>19800</v>
       </c>
       <c r="I47" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="J47" s="3">
-        <v>14000</v>
+        <v>14400</v>
       </c>
       <c r="K47" s="3">
         <v>19700</v>
@@ -3250,25 +3250,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="E48" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="F48" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="G48" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="H48" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="I48" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="J48" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="K48" s="3">
         <v>11700</v>
@@ -3321,25 +3321,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24000</v>
+        <v>24800</v>
       </c>
       <c r="E49" s="3">
-        <v>26000</v>
+        <v>26800</v>
       </c>
       <c r="F49" s="3">
-        <v>28000</v>
+        <v>28900</v>
       </c>
       <c r="G49" s="3">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="H49" s="3">
-        <v>12600</v>
+        <v>13000</v>
       </c>
       <c r="I49" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="J49" s="3">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="K49" s="3">
         <v>14700</v>
@@ -3543,16 +3543,16 @@
         <v>900</v>
       </c>
       <c r="G52" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H52" s="3">
-        <v>20600</v>
+        <v>21300</v>
       </c>
       <c r="I52" s="3">
-        <v>20700</v>
+        <v>21300</v>
       </c>
       <c r="J52" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K52" s="3">
         <v>3300</v>
@@ -3676,25 +3676,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>289600</v>
+        <v>298800</v>
       </c>
       <c r="E54" s="3">
-        <v>353500</v>
+        <v>364800</v>
       </c>
       <c r="F54" s="3">
-        <v>409400</v>
+        <v>422400</v>
       </c>
       <c r="G54" s="3">
-        <v>422300</v>
+        <v>435700</v>
       </c>
       <c r="H54" s="3">
-        <v>405900</v>
+        <v>418800</v>
       </c>
       <c r="I54" s="3">
-        <v>291800</v>
+        <v>301100</v>
       </c>
       <c r="J54" s="3">
-        <v>303400</v>
+        <v>313100</v>
       </c>
       <c r="K54" s="3">
         <v>391800</v>
@@ -3801,25 +3801,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>43700</v>
+        <v>45100</v>
       </c>
       <c r="E57" s="3">
-        <v>57000</v>
+        <v>58800</v>
       </c>
       <c r="F57" s="3">
-        <v>57100</v>
+        <v>58900</v>
       </c>
       <c r="G57" s="3">
-        <v>64200</v>
+        <v>66200</v>
       </c>
       <c r="H57" s="3">
-        <v>64300</v>
+        <v>66400</v>
       </c>
       <c r="I57" s="3">
-        <v>55100</v>
+        <v>56900</v>
       </c>
       <c r="J57" s="3">
-        <v>51600</v>
+        <v>53200</v>
       </c>
       <c r="K57" s="3">
         <v>65200</v>
@@ -3872,22 +3872,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>167500</v>
+        <v>172800</v>
       </c>
       <c r="E58" s="3">
-        <v>166200</v>
+        <v>171500</v>
       </c>
       <c r="F58" s="3">
-        <v>164300</v>
+        <v>169600</v>
       </c>
       <c r="G58" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="H58" s="3">
-        <v>9700</v>
+        <v>10100</v>
       </c>
       <c r="I58" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>16</v>
@@ -3943,25 +3943,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>243200</v>
+        <v>250900</v>
       </c>
       <c r="E59" s="3">
-        <v>258300</v>
+        <v>266500</v>
       </c>
       <c r="F59" s="3">
-        <v>242500</v>
+        <v>250200</v>
       </c>
       <c r="G59" s="3">
-        <v>214700</v>
+        <v>221600</v>
       </c>
       <c r="H59" s="3">
-        <v>188500</v>
+        <v>194500</v>
       </c>
       <c r="I59" s="3">
-        <v>183500</v>
+        <v>189300</v>
       </c>
       <c r="J59" s="3">
-        <v>181100</v>
+        <v>186900</v>
       </c>
       <c r="K59" s="3">
         <v>219600</v>
@@ -4014,25 +4014,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>454300</v>
+        <v>468700</v>
       </c>
       <c r="E60" s="3">
-        <v>481600</v>
+        <v>496900</v>
       </c>
       <c r="F60" s="3">
-        <v>464000</v>
+        <v>478700</v>
       </c>
       <c r="G60" s="3">
-        <v>285900</v>
+        <v>295000</v>
       </c>
       <c r="H60" s="3">
-        <v>262500</v>
+        <v>270900</v>
       </c>
       <c r="I60" s="3">
-        <v>241400</v>
+        <v>249000</v>
       </c>
       <c r="J60" s="3">
-        <v>232700</v>
+        <v>240100</v>
       </c>
       <c r="K60" s="3">
         <v>284800</v>
@@ -4094,16 +4094,16 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>165900</v>
+        <v>171200</v>
       </c>
       <c r="H61" s="3">
-        <v>163500</v>
+        <v>168700</v>
       </c>
       <c r="I61" s="3">
-        <v>169400</v>
+        <v>174800</v>
       </c>
       <c r="J61" s="3">
-        <v>174800</v>
+        <v>180300</v>
       </c>
       <c r="K61" s="3">
         <v>196800</v>
@@ -4156,25 +4156,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="E62" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="F62" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="G62" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="H62" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="I62" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="J62" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="K62" s="3">
         <v>7100</v>
@@ -4440,25 +4440,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>622200</v>
+        <v>642000</v>
       </c>
       <c r="E66" s="3">
-        <v>647900</v>
+        <v>668500</v>
       </c>
       <c r="F66" s="3">
-        <v>625900</v>
+        <v>645800</v>
       </c>
       <c r="G66" s="3">
-        <v>613700</v>
+        <v>633200</v>
       </c>
       <c r="H66" s="3">
-        <v>584200</v>
+        <v>602700</v>
       </c>
       <c r="I66" s="3">
-        <v>487100</v>
+        <v>502500</v>
       </c>
       <c r="J66" s="3">
-        <v>485700</v>
+        <v>501100</v>
       </c>
       <c r="K66" s="3">
         <v>569200</v>
@@ -4822,25 +4822,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1023900</v>
+        <v>-1056400</v>
       </c>
       <c r="E72" s="3">
-        <v>-978500</v>
+        <v>-1009600</v>
       </c>
       <c r="F72" s="3">
-        <v>-893400</v>
+        <v>-921800</v>
       </c>
       <c r="G72" s="3">
-        <v>-860600</v>
+        <v>-887900</v>
       </c>
       <c r="H72" s="3">
-        <v>-836200</v>
+        <v>-862800</v>
       </c>
       <c r="I72" s="3">
-        <v>-825300</v>
+        <v>-851500</v>
       </c>
       <c r="J72" s="3">
-        <v>-786100</v>
+        <v>-811000</v>
       </c>
       <c r="K72" s="3">
         <v>-853900</v>
@@ -5106,25 +5106,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-332600</v>
+        <v>-343200</v>
       </c>
       <c r="E76" s="3">
-        <v>-294400</v>
+        <v>-303700</v>
       </c>
       <c r="F76" s="3">
-        <v>-216500</v>
+        <v>-223400</v>
       </c>
       <c r="G76" s="3">
-        <v>-191400</v>
+        <v>-197500</v>
       </c>
       <c r="H76" s="3">
-        <v>-178300</v>
+        <v>-183900</v>
       </c>
       <c r="I76" s="3">
-        <v>-195300</v>
+        <v>-201500</v>
       </c>
       <c r="J76" s="3">
-        <v>-182300</v>
+        <v>-188100</v>
       </c>
       <c r="K76" s="3">
         <v>-177400</v>
@@ -5324,25 +5324,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-45400</v>
+        <v>-46900</v>
       </c>
       <c r="E81" s="3">
-        <v>-85100</v>
+        <v>-87800</v>
       </c>
       <c r="F81" s="3">
-        <v>-32900</v>
+        <v>-33900</v>
       </c>
       <c r="G81" s="3">
-        <v>-24400</v>
+        <v>-25100</v>
       </c>
       <c r="H81" s="3">
-        <v>-10900</v>
+        <v>-11300</v>
       </c>
       <c r="I81" s="3">
-        <v>-39200</v>
+        <v>-40400</v>
       </c>
       <c r="J81" s="3">
-        <v>-32600</v>
+        <v>-33700</v>
       </c>
       <c r="K81" s="3">
         <v>-85700</v>
